--- a/PlainTimeInvariant/output/contribMedian.xlsx
+++ b/PlainTimeInvariant/output/contribMedian.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="80" uniqueCount="16">
   <si>
     <t>Time</t>
   </si>
@@ -114,19 +114,19 @@
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.42578125" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="16.42578125" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
     <col min="9" max="9" width="15.42578125" customWidth="true"/>
     <col min="10" max="10" width="13.7109375" customWidth="true"/>
     <col min="11" max="11" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="14.42578125" customWidth="true"/>
     <col min="13" max="13" width="14.42578125" customWidth="true"/>
     <col min="14" max="14" width="14.42578125" customWidth="true"/>
-    <col min="15" max="15" width="14.42578125" customWidth="true"/>
+    <col min="15" max="15" width="13.7109375" customWidth="true"/>
     <col min="16" max="16" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -188,46 +188,46 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17665624560398135</v>
+        <v>0.13144937641398902</v>
       </c>
       <c r="D2" s="0">
-        <v>0.16299892663790871</v>
+        <v>0.19462812040644656</v>
       </c>
       <c r="E2" s="0">
-        <v>1.0079078110046868</v>
+        <v>1.006505409835327</v>
       </c>
       <c r="F2" s="0">
-        <v>1.0588172952552275</v>
+        <v>1.0731696454854434</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0.48547458437006508</v>
+        <v>0.49658976863745541</v>
       </c>
       <c r="I2" s="0">
-        <v>0.52552971340815591</v>
+        <v>0.49445766260860025</v>
       </c>
       <c r="J2" s="0">
-        <v>0.072988744216976695</v>
+        <v>0.068085913720920932</v>
       </c>
       <c r="K2" s="0">
-        <v>3.7764291346551273</v>
+        <v>3.7714616271933661</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.59839752662428958</v>
+        <v>-0.58823208839526875</v>
       </c>
       <c r="M2" s="0">
-        <v>0.14496609998966978</v>
+        <v>0.12775093517408492</v>
       </c>
       <c r="N2" s="0">
-        <v>0.13378003286215229</v>
+        <v>0.1512398669568053</v>
       </c>
       <c r="O2" s="0">
-        <v>-0.12455691815541761</v>
+        <v>-0.14260836445902497</v>
       </c>
       <c r="P2" s="0">
-        <v>5.0877350996937309</v>
+        <v>5.1005270857908727</v>
       </c>
     </row>
     <row r="3">
@@ -235,49 +235,49 @@
         <v>28216</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0072203543558615781</v>
+        <v>-0.0066969995622160848</v>
       </c>
       <c r="C3" s="0">
-        <v>0.88940466151314523</v>
+        <v>0.8313960364805959</v>
       </c>
       <c r="D3" s="0">
-        <v>0.74999050021225189</v>
+        <v>0.82885999922798859</v>
       </c>
       <c r="E3" s="0">
-        <v>1.8274513462410924</v>
+        <v>1.8127684976317662</v>
       </c>
       <c r="F3" s="0">
-        <v>0.37123103153443804</v>
+        <v>0.39830304169903979</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.017856291079532877</v>
+        <v>-0.018135133684936085</v>
       </c>
       <c r="H3" s="0">
-        <v>0.65163113901729175</v>
+        <v>0.5580595498432398</v>
       </c>
       <c r="I3" s="0">
-        <v>0.59128938069255532</v>
+        <v>0.68853540269490665</v>
       </c>
       <c r="J3" s="0">
-        <v>0.1894845378216502</v>
+        <v>0.18706449170457695</v>
       </c>
       <c r="K3" s="0">
-        <v>3.5771142774517122</v>
+        <v>3.563538915825089</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.79052622712359288</v>
+        <v>-0.75520450705802378</v>
       </c>
       <c r="M3" s="0">
-        <v>0.42664632443916339</v>
+        <v>0.39485355738053335</v>
       </c>
       <c r="N3" s="0">
-        <v>0.41232192810282431</v>
+        <v>0.42634088220057026</v>
       </c>
       <c r="O3" s="0">
-        <v>-0.15526902465394021</v>
+        <v>-0.19302271746784314</v>
       </c>
       <c r="P3" s="0">
-        <v>5.2227225766695167</v>
+        <v>5.2455829726491725</v>
       </c>
     </row>
     <row r="4">
@@ -285,49 +285,49 @@
         <v>28307</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0058541266680733903</v>
+        <v>0.0056897228706089186</v>
       </c>
       <c r="C4" s="0">
-        <v>1.3893947472505834</v>
+        <v>1.2584058143301631</v>
       </c>
       <c r="D4" s="0">
-        <v>1.1385732765409453</v>
+        <v>1.2603567395028203</v>
       </c>
       <c r="E4" s="0">
-        <v>2.4462599744162663</v>
+        <v>2.4278858354868245</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.13057509959256844</v>
+        <v>-0.10293046106318612</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.029754701144432037</v>
+        <v>-0.028651925769157739</v>
       </c>
       <c r="H4" s="0">
-        <v>0.64182533642386252</v>
+        <v>0.55358168622846537</v>
       </c>
       <c r="I4" s="0">
-        <v>0.59616636632020337</v>
+        <v>0.70877723926081893</v>
       </c>
       <c r="J4" s="0">
-        <v>0.35407970450703052</v>
+        <v>0.35202310985732443</v>
       </c>
       <c r="K4" s="0">
-        <v>3.3479552119708651</v>
+        <v>3.3322133006691663</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.83218183908846832</v>
+        <v>-0.79253030793097257</v>
       </c>
       <c r="M4" s="0">
-        <v>0.73347515001649366</v>
+        <v>0.67487877286527631</v>
       </c>
       <c r="N4" s="0">
-        <v>0.67237308279556762</v>
+        <v>0.72711055835437488</v>
       </c>
       <c r="O4" s="0">
-        <v>-0.12339186758861813</v>
+        <v>-0.16856978108885884</v>
       </c>
       <c r="P4" s="0">
-        <v>5.2866164591874796</v>
+        <v>5.3219142780028701</v>
       </c>
     </row>
     <row r="5">
@@ -335,49 +335,49 @@
         <v>28399</v>
       </c>
       <c r="B5" s="0">
-        <v>0.021007110785224284</v>
+        <v>0.022699661149097314</v>
       </c>
       <c r="C5" s="0">
-        <v>0.67419310570770308</v>
+        <v>0.62680071872147791</v>
       </c>
       <c r="D5" s="0">
-        <v>0.55879533735635956</v>
+        <v>0.63891291754942503</v>
       </c>
       <c r="E5" s="0">
-        <v>2.8876652204418516</v>
+        <v>2.8700821863669512</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.48833879783861406</v>
+        <v>-0.47092611524436995</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.034285686325740569</v>
+        <v>-0.033747750865314896</v>
       </c>
       <c r="H5" s="0">
-        <v>0.49727587604444529</v>
+        <v>0.43381039235261132</v>
       </c>
       <c r="I5" s="0">
-        <v>0.46540008752960599</v>
+        <v>0.53424798741980328</v>
       </c>
       <c r="J5" s="0">
-        <v>0.53820696278646107</v>
+        <v>0.54385999881855795</v>
       </c>
       <c r="K5" s="0">
-        <v>3.1050914339430866</v>
+        <v>3.0876638710789903</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.20270038922566969</v>
+        <v>-0.16964396405414306</v>
       </c>
       <c r="M5" s="0">
-        <v>0.71620697288239721</v>
+        <v>0.6773116001243118</v>
       </c>
       <c r="N5" s="0">
-        <v>0.64511238076774968</v>
+        <v>0.700374903834591</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.029597757707771455</v>
+        <v>-0.085433867298485205</v>
       </c>
       <c r="P5" s="0">
-        <v>5.2797525793677913</v>
+        <v>5.3271676434828592</v>
       </c>
     </row>
     <row r="6">
@@ -385,49 +385,49 @@
         <v>28491</v>
       </c>
       <c r="B6" s="0">
-        <v>0.042249890605511875</v>
+        <v>0.04326385703039777</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.18514963334853995</v>
+        <v>-0.18927960068253408</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.19364854736733542</v>
+        <v>-0.19595163625338091</v>
       </c>
       <c r="E6" s="0">
-        <v>3.2067270645619992</v>
+        <v>3.1817586497078523</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.73619950376917453</v>
+        <v>-0.71024437378561855</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.018349108018534316</v>
+        <v>-0.01775369901001414</v>
       </c>
       <c r="H6" s="0">
-        <v>0.46004257365162549</v>
+        <v>0.47158974139856769</v>
       </c>
       <c r="I6" s="0">
-        <v>0.44525607156883507</v>
+        <v>0.47751962859641184</v>
       </c>
       <c r="J6" s="0">
-        <v>0.74549486151533606</v>
+        <v>0.74702742125022636</v>
       </c>
       <c r="K6" s="0">
-        <v>2.8617217344050423</v>
+        <v>2.853171859175518</v>
       </c>
       <c r="L6" s="0">
-        <v>0.24455847629628166</v>
+        <v>0.25717896121424066</v>
       </c>
       <c r="M6" s="0">
-        <v>0.5868637232776921</v>
+        <v>0.53819690965435751</v>
       </c>
       <c r="N6" s="0">
-        <v>0.54450256309054768</v>
+        <v>0.57259445139143672</v>
       </c>
       <c r="O6" s="0">
-        <v>0.1108345048177959</v>
+        <v>0.049636758865307225</v>
       </c>
       <c r="P6" s="0">
-        <v>5.2178932668507096</v>
+        <v>5.2651307863850203</v>
       </c>
     </row>
     <row r="7">
@@ -435,49 +435,49 @@
         <v>28581</v>
       </c>
       <c r="B7" s="0">
-        <v>0.045239396995509704</v>
+        <v>0.043873622549139096</v>
       </c>
       <c r="C7" s="0">
-        <v>0.86755807573342003</v>
+        <v>0.76132985883171767</v>
       </c>
       <c r="D7" s="0">
-        <v>0.71726152667133369</v>
+        <v>0.80505469354950066</v>
       </c>
       <c r="E7" s="0">
-        <v>3.4328521021988028</v>
+        <v>3.4040930813947599</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.90070034702526192</v>
+        <v>-0.88340032697472681</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0016694962424339791</v>
+        <v>-0.0010874630564810257</v>
       </c>
       <c r="H7" s="0">
-        <v>0.93912399822360704</v>
+        <v>0.88727402778769027</v>
       </c>
       <c r="I7" s="0">
-        <v>0.87608434341420049</v>
+        <v>0.98308030169307159</v>
       </c>
       <c r="J7" s="0">
-        <v>0.95928050685481892</v>
+        <v>0.96796738637405111</v>
       </c>
       <c r="K7" s="0">
-        <v>2.6228094994759203</v>
+        <v>2.6155830656307764</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.10473136210662319</v>
+        <v>-0.077005415474532712</v>
       </c>
       <c r="M7" s="0">
-        <v>1.0027901229325327</v>
+        <v>0.93806674234668708</v>
       </c>
       <c r="N7" s="0">
-        <v>0.93727695499132446</v>
+        <v>0.96343797054530489</v>
       </c>
       <c r="O7" s="0">
-        <v>0.28526021269221258</v>
+        <v>0.20411952424576857</v>
       </c>
       <c r="P7" s="0">
-        <v>5.1024004655649868</v>
+        <v>5.1599696492762961</v>
       </c>
     </row>
     <row r="8">
@@ -485,49 +485,49 @@
         <v>28672</v>
       </c>
       <c r="B8" s="0">
-        <v>0.023919586128315289</v>
+        <v>0.022628271129003515</v>
       </c>
       <c r="C8" s="0">
-        <v>1.3804574771534956</v>
+        <v>1.2812234347227962</v>
       </c>
       <c r="D8" s="0">
-        <v>1.1643678859820676</v>
+        <v>1.262456522765574</v>
       </c>
       <c r="E8" s="0">
-        <v>3.580223600437813</v>
+        <v>3.5476776805013861</v>
       </c>
       <c r="F8" s="0">
-        <v>-1.0102577167685776</v>
+        <v>-0.98753014569207087</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.0012097235974412551</v>
+        <v>-0.001406294207044868</v>
       </c>
       <c r="H8" s="0">
-        <v>1.3780610175629109</v>
+        <v>1.2688683804951002</v>
       </c>
       <c r="I8" s="0">
-        <v>1.2660686343920022</v>
+        <v>1.4578773803982767</v>
       </c>
       <c r="J8" s="0">
-        <v>1.1604796229997645</v>
+        <v>1.1680124415233919</v>
       </c>
       <c r="K8" s="0">
-        <v>2.3893265022030179</v>
+        <v>2.3890668852559838</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.10148543819791508</v>
+        <v>-0.040746918549288261</v>
       </c>
       <c r="M8" s="0">
-        <v>1.3673113734232776</v>
+        <v>1.3117229822869805</v>
       </c>
       <c r="N8" s="0">
-        <v>1.2955311413339596</v>
+        <v>1.3190451828530176</v>
       </c>
       <c r="O8" s="0">
-        <v>0.4973913387371337</v>
+        <v>0.40933918380425743</v>
       </c>
       <c r="P8" s="0">
-        <v>4.9671463536870766</v>
+        <v>5.0243896745658763</v>
       </c>
     </row>
     <row r="9">
@@ -535,49 +535,49 @@
         <v>28764</v>
       </c>
       <c r="B9" s="0">
-        <v>0.019103263205093965</v>
+        <v>0.01842166173330103</v>
       </c>
       <c r="C9" s="0">
-        <v>1.9263709823113735</v>
+        <v>1.7105246654828403</v>
       </c>
       <c r="D9" s="0">
-        <v>1.5841500789484522</v>
+        <v>1.7528452532197418</v>
       </c>
       <c r="E9" s="0">
-        <v>3.6653067106008201</v>
+        <v>3.628741860021425</v>
       </c>
       <c r="F9" s="0">
-        <v>-1.0709591880001246</v>
+        <v>-1.0468927838158171</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0021240366803078467</v>
+        <v>0.0012284874213302091</v>
       </c>
       <c r="H9" s="0">
-        <v>1.7275106502962347</v>
+        <v>1.5806617532727214</v>
       </c>
       <c r="I9" s="0">
-        <v>1.5611137896404483</v>
+        <v>1.7905246853508197</v>
       </c>
       <c r="J9" s="0">
-        <v>1.3683680502310711</v>
+        <v>1.3792706404632287</v>
       </c>
       <c r="K9" s="0">
-        <v>2.1622003258494518</v>
+        <v>2.1597432266550092</v>
       </c>
       <c r="L9" s="0">
-        <v>0.39514679877052716</v>
+        <v>0.48386021483795383</v>
       </c>
       <c r="M9" s="0">
-        <v>1.8182758081794397</v>
+        <v>1.74708484706971</v>
       </c>
       <c r="N9" s="0">
-        <v>1.6978579747310714</v>
+        <v>1.7550650405234696</v>
       </c>
       <c r="O9" s="0">
-        <v>0.72172321195313371</v>
+        <v>0.62932948846605774</v>
       </c>
       <c r="P9" s="0">
-        <v>4.8120248870906659</v>
+        <v>4.857727395489631</v>
       </c>
     </row>
     <row r="10">
@@ -585,49 +585,49 @@
         <v>28856</v>
       </c>
       <c r="B10" s="0">
-        <v>0.026437399383096742</v>
+        <v>0.025593642139316176</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.040271471279809123</v>
+        <v>-0.063617404064160804</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.074906726196996232</v>
+        <v>0.0059882446781924226</v>
       </c>
       <c r="E10" s="0">
-        <v>3.695135165479321</v>
+        <v>3.6673709297884369</v>
       </c>
       <c r="F10" s="0">
-        <v>-1.0921547650042447</v>
+        <v>-1.0776901475955079</v>
       </c>
       <c r="G10" s="0">
-        <v>0.015097622311656071</v>
+        <v>0.015159624346844123</v>
       </c>
       <c r="H10" s="0">
-        <v>1.8045710501522758</v>
+        <v>1.7203230020803777</v>
       </c>
       <c r="I10" s="0">
-        <v>1.701817727939674</v>
+        <v>1.8749115583569207</v>
       </c>
       <c r="J10" s="0">
-        <v>1.5539727545583013</v>
+        <v>1.5596085504857276</v>
       </c>
       <c r="K10" s="0">
-        <v>1.9547495101245949</v>
+        <v>1.9636836505597057</v>
       </c>
       <c r="L10" s="0">
-        <v>1.2357368559298361</v>
+        <v>1.2415660621533207</v>
       </c>
       <c r="M10" s="0">
-        <v>1.6319989817587586</v>
+        <v>1.5317774091681606</v>
       </c>
       <c r="N10" s="0">
-        <v>1.5597129273929289</v>
+        <v>1.6227742675180683</v>
       </c>
       <c r="O10" s="0">
-        <v>0.95696011249062407</v>
+        <v>0.85653939467827411</v>
       </c>
       <c r="P10" s="0">
-        <v>4.6242552664072596</v>
+        <v>4.6569004749732059</v>
       </c>
     </row>
     <row r="11">
@@ -635,49 +635,49 @@
         <v>28946</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024803689832277594</v>
+        <v>0.021935703416686918</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.45599542234900048</v>
+        <v>-0.52500979034361872</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.46130990768085184</v>
+        <v>-0.35605888021523419</v>
       </c>
       <c r="E11" s="0">
-        <v>3.6337383614392755</v>
+        <v>3.619502664622047</v>
       </c>
       <c r="F11" s="0">
-        <v>-1.0842190491427024</v>
+        <v>-1.0792951729170652</v>
       </c>
       <c r="G11" s="0">
-        <v>0.038866597905398245</v>
+        <v>0.039089538179750222</v>
       </c>
       <c r="H11" s="0">
-        <v>2.1880752474598113</v>
+        <v>2.0944366569664448</v>
       </c>
       <c r="I11" s="0">
-        <v>2.190021020342237</v>
+        <v>2.1847859768534503</v>
       </c>
       <c r="J11" s="0">
-        <v>1.734080167467366</v>
+        <v>1.7373031616994088</v>
       </c>
       <c r="K11" s="0">
-        <v>1.7551723873291039</v>
+        <v>1.768140827444413</v>
       </c>
       <c r="L11" s="0">
-        <v>1.0585309891698806</v>
+        <v>1.0698103935936925</v>
       </c>
       <c r="M11" s="0">
-        <v>1.7923820276715028</v>
+        <v>1.6579461764567793</v>
       </c>
       <c r="N11" s="0">
-        <v>1.6228954401344517</v>
+        <v>1.8388162443941989</v>
       </c>
       <c r="O11" s="0">
-        <v>1.1886051339546753</v>
+        <v>1.0990636919393744</v>
       </c>
       <c r="P11" s="0">
-        <v>4.4210435505960266</v>
+        <v>4.4539829103699837</v>
       </c>
     </row>
     <row r="12">
@@ -685,49 +685,49 @@
         <v>29037</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0013078504423754754</v>
+        <v>-0.0029369069722908125</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.65869447681954818</v>
+        <v>-0.80185584919795072</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.66708278878902516</v>
+        <v>-0.53400343854103105</v>
       </c>
       <c r="E12" s="0">
-        <v>3.4762923867160032</v>
+        <v>3.4651620704851682</v>
       </c>
       <c r="F12" s="0">
-        <v>-1.0594817709691278</v>
+        <v>-1.0501424612434991</v>
       </c>
       <c r="G12" s="0">
-        <v>0.038859151773641562</v>
+        <v>0.041519334276747685</v>
       </c>
       <c r="H12" s="0">
-        <v>2.5750269795459371</v>
+        <v>2.5341556143416151</v>
       </c>
       <c r="I12" s="0">
-        <v>2.6542457877605132</v>
+        <v>2.6412929121921094</v>
       </c>
       <c r="J12" s="0">
-        <v>1.8895611762654294</v>
+        <v>1.8937559995212496</v>
       </c>
       <c r="K12" s="0">
-        <v>1.5709678822246802</v>
+        <v>1.5971128201348468</v>
       </c>
       <c r="L12" s="0">
-        <v>1.472950099385073</v>
+        <v>1.4916395016153541</v>
       </c>
       <c r="M12" s="0">
-        <v>2.0016756515532013</v>
+        <v>1.7664774676143051</v>
       </c>
       <c r="N12" s="0">
-        <v>1.8085791909555042</v>
+        <v>2.054180223349384</v>
       </c>
       <c r="O12" s="0">
-        <v>1.4034873269425274</v>
+        <v>1.3058194494283293</v>
       </c>
       <c r="P12" s="0">
-        <v>4.2053807364612794</v>
+        <v>4.2554822079625705</v>
       </c>
     </row>
     <row r="13">
@@ -735,49 +735,49 @@
         <v>29129</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.014043227012640248</v>
+        <v>-0.018259407128456487</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.59822765919859555</v>
+        <v>-0.73130189752485153</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.59083331510023784</v>
+        <v>-0.46983774031402403</v>
       </c>
       <c r="E13" s="0">
-        <v>3.3297205940619681</v>
+        <v>3.3355840331682298</v>
       </c>
       <c r="F13" s="0">
-        <v>-1.0315776395330258</v>
+        <v>-1.0160748832113011</v>
       </c>
       <c r="G13" s="0">
-        <v>0.052227541121986694</v>
+        <v>0.052178982057700517</v>
       </c>
       <c r="H13" s="0">
-        <v>2.8782468252174125</v>
+        <v>2.8632290042214863</v>
       </c>
       <c r="I13" s="0">
-        <v>3.0211639688772518</v>
+        <v>2.9554905656932489</v>
       </c>
       <c r="J13" s="0">
-        <v>2.0380413336992937</v>
+        <v>2.020145430988598</v>
       </c>
       <c r="K13" s="0">
-        <v>1.4047277483221867</v>
+        <v>1.4472996680420285</v>
       </c>
       <c r="L13" s="0">
-        <v>3.5783910937293255</v>
+        <v>3.5919382172562626</v>
       </c>
       <c r="M13" s="0">
-        <v>2.296180996158605</v>
+        <v>1.9912273959045135</v>
       </c>
       <c r="N13" s="0">
-        <v>2.0128702194570387</v>
+        <v>2.4087830319910464</v>
       </c>
       <c r="O13" s="0">
-        <v>1.6190398779341195</v>
+        <v>1.493458417900273</v>
       </c>
       <c r="P13" s="0">
-        <v>3.9896853061516167</v>
+        <v>4.0506314148135338</v>
       </c>
     </row>
     <row r="14">
@@ -785,49 +785,49 @@
         <v>29221</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.023506995379943642</v>
+        <v>-0.021171938071742148</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.43562939788255428</v>
+        <v>-0.57463327971923128</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.41569573311921626</v>
+        <v>-0.31077193104727174</v>
       </c>
       <c r="E14" s="0">
-        <v>3.1797082204608556</v>
+        <v>3.1742819810540981</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.97969050882745679</v>
+        <v>-0.9718681697260253</v>
       </c>
       <c r="G14" s="0">
-        <v>0.12119871910127715</v>
+        <v>0.12650103963232434</v>
       </c>
       <c r="H14" s="0">
-        <v>3.2387174591586199</v>
+        <v>3.21281976785213</v>
       </c>
       <c r="I14" s="0">
-        <v>3.3703477259852481</v>
+        <v>3.2574858893359453</v>
       </c>
       <c r="J14" s="0">
-        <v>2.1517859239938675</v>
+        <v>2.1392319308959111</v>
       </c>
       <c r="K14" s="0">
-        <v>1.247426867358123</v>
+        <v>1.2976488108791466</v>
       </c>
       <c r="L14" s="0">
-        <v>4.35015145377207</v>
+        <v>4.4368920798464249</v>
       </c>
       <c r="M14" s="0">
-        <v>2.6260026894784314</v>
+        <v>2.2227979827384843</v>
       </c>
       <c r="N14" s="0">
-        <v>2.3419046335927955</v>
+        <v>2.7865977033205631</v>
       </c>
       <c r="O14" s="0">
-        <v>1.8068652206511622</v>
+        <v>1.6981177910664083</v>
       </c>
       <c r="P14" s="0">
-        <v>3.7753425098645632</v>
+        <v>3.8261669792027635</v>
       </c>
     </row>
     <row r="15">
@@ -835,49 +835,49 @@
         <v>29312</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.08462064990780184</v>
+        <v>-0.094098022717374094</v>
       </c>
       <c r="C15" s="0">
-        <v>-1.6816240478385092</v>
+        <v>-1.8929927211370563</v>
       </c>
       <c r="D15" s="0">
-        <v>-1.7278384677007146</v>
+        <v>-1.586113150580361</v>
       </c>
       <c r="E15" s="0">
-        <v>3.0761629466125497</v>
+        <v>3.0757756310480402</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.92094107782294998</v>
+        <v>-0.91815913979837327</v>
       </c>
       <c r="G15" s="0">
-        <v>0.17107116289290386</v>
+        <v>0.17735105971498316</v>
       </c>
       <c r="H15" s="0">
-        <v>3.174438771679041</v>
+        <v>3.2716305725949972</v>
       </c>
       <c r="I15" s="0">
-        <v>3.5277647820385947</v>
+        <v>3.3613434298988714</v>
       </c>
       <c r="J15" s="0">
-        <v>2.2551865541075671</v>
+        <v>2.2234729843093586</v>
       </c>
       <c r="K15" s="0">
-        <v>1.0974752631845834</v>
+        <v>1.1488273193928524</v>
       </c>
       <c r="L15" s="0">
-        <v>2.1790681627827055</v>
+        <v>2.2871525293675177</v>
       </c>
       <c r="M15" s="0">
-        <v>2.5670805152164009</v>
+        <v>2.1609929058750579</v>
       </c>
       <c r="N15" s="0">
-        <v>2.2914864087503286</v>
+        <v>2.6858874169920641</v>
       </c>
       <c r="O15" s="0">
-        <v>2.0200458842972098</v>
+        <v>1.8939864374068986</v>
       </c>
       <c r="P15" s="0">
-        <v>3.5493931624849417</v>
+        <v>3.6104314646565707</v>
       </c>
     </row>
     <row r="16">
@@ -885,49 +885,49 @@
         <v>29403</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.18374910054282251</v>
+        <v>-0.19628493085852156</v>
       </c>
       <c r="C16" s="0">
-        <v>-1.8598332793454706</v>
+        <v>-1.8617877241056666</v>
       </c>
       <c r="D16" s="0">
-        <v>-1.8855940984317083</v>
+        <v>-1.7992793467600436</v>
       </c>
       <c r="E16" s="0">
-        <v>2.9801465469160648</v>
+        <v>2.977668492948383</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.86402715851214151</v>
+        <v>-0.87108222191039408</v>
       </c>
       <c r="G16" s="0">
-        <v>0.12307321952724459</v>
+        <v>0.12364673365202232</v>
       </c>
       <c r="H16" s="0">
-        <v>2.5645604149175938</v>
+        <v>2.6922132469927753</v>
       </c>
       <c r="I16" s="0">
-        <v>2.8585670827873173</v>
+        <v>2.7833802212066576</v>
       </c>
       <c r="J16" s="0">
-        <v>2.3418682577825045</v>
+        <v>2.3030801830754895</v>
       </c>
       <c r="K16" s="0">
-        <v>0.96889737997635861</v>
+        <v>1.017490519747283</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.67746743500935369</v>
+        <v>-0.57601920270134221</v>
       </c>
       <c r="M16" s="0">
-        <v>2.5136281810702092</v>
+        <v>2.2646961556854084</v>
       </c>
       <c r="N16" s="0">
-        <v>2.2849192354809107</v>
+        <v>2.6803461406795392</v>
       </c>
       <c r="O16" s="0">
-        <v>2.1790463981552497</v>
+        <v>2.0720931077695894</v>
       </c>
       <c r="P16" s="0">
-        <v>3.3137440468030572</v>
+        <v>3.3720415967405772</v>
       </c>
     </row>
     <row r="17">
@@ -935,49 +935,49 @@
         <v>29495</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.23745393269799417</v>
+        <v>-0.24934210691543407</v>
       </c>
       <c r="C17" s="0">
-        <v>-1.0633284181774902</v>
+        <v>-1.0331850971553549</v>
       </c>
       <c r="D17" s="0">
-        <v>-1.1146309967343278</v>
+        <v>-1.0820524281352613</v>
       </c>
       <c r="E17" s="0">
-        <v>2.926642816535221</v>
+        <v>2.9282828513406365</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.80423601553762836</v>
+        <v>-0.81900258541390281</v>
       </c>
       <c r="G17" s="0">
-        <v>0.033511146621840404</v>
+        <v>0.032643665000747883</v>
       </c>
       <c r="H17" s="0">
-        <v>2.2181952450975357</v>
+        <v>2.2021330158268659</v>
       </c>
       <c r="I17" s="0">
-        <v>2.3240332643889783</v>
+        <v>2.2845047767685327</v>
       </c>
       <c r="J17" s="0">
-        <v>2.4159737908408481</v>
+        <v>2.3823926918058955</v>
       </c>
       <c r="K17" s="0">
-        <v>0.85347936216707709</v>
+        <v>0.91555399428825446</v>
       </c>
       <c r="L17" s="0">
-        <v>4.9361870460462978</v>
+        <v>5.0202937198989037</v>
       </c>
       <c r="M17" s="0">
-        <v>2.7327992521596407</v>
+        <v>2.4652246015320411</v>
       </c>
       <c r="N17" s="0">
-        <v>2.5524778406613109</v>
+        <v>2.8520901120368549</v>
       </c>
       <c r="O17" s="0">
-        <v>2.3439473180621433</v>
+        <v>2.2460753550697894</v>
       </c>
       <c r="P17" s="0">
-        <v>3.0896664086997188</v>
+        <v>3.1689109856578632</v>
       </c>
     </row>
     <row r="18">
@@ -985,49 +985,49 @@
         <v>29587</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.10185800955201495</v>
+        <v>-0.10903984711502444</v>
       </c>
       <c r="C18" s="0">
-        <v>1.1535917692820132</v>
+        <v>0.99150930745127797</v>
       </c>
       <c r="D18" s="0">
-        <v>0.70219300052147926</v>
+        <v>0.86136422304236004</v>
       </c>
       <c r="E18" s="0">
-        <v>2.8386084036711736</v>
+        <v>2.8390662349883806</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.75041739287724174</v>
+        <v>-0.76689653526282087</v>
       </c>
       <c r="G18" s="0">
-        <v>0.16499614250427957</v>
+        <v>0.16810001387375087</v>
       </c>
       <c r="H18" s="0">
-        <v>2.0073920954276989</v>
+        <v>1.7714390661990755</v>
       </c>
       <c r="I18" s="0">
-        <v>1.958307933293423</v>
+        <v>2.1007881578215213</v>
       </c>
       <c r="J18" s="0">
-        <v>2.4714404006704855</v>
+        <v>2.4455064888506719</v>
       </c>
       <c r="K18" s="0">
-        <v>0.75609686535562215</v>
+        <v>0.81364464454455598</v>
       </c>
       <c r="L18" s="0">
-        <v>4.4983907034200152</v>
+        <v>4.5864436468848222</v>
       </c>
       <c r="M18" s="0">
-        <v>3.3265371297367081</v>
+        <v>3.0231005098639709</v>
       </c>
       <c r="N18" s="0">
-        <v>3.2470291930117376</v>
+        <v>3.4239230894782162</v>
       </c>
       <c r="O18" s="0">
-        <v>2.4932745940211567</v>
+        <v>2.4130437111147414</v>
       </c>
       <c r="P18" s="0">
-        <v>2.8701350554112466</v>
+        <v>2.9770504255476888</v>
       </c>
     </row>
     <row r="19">
@@ -1035,49 +1035,49 @@
         <v>29677</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.18047573587387566</v>
+        <v>-0.19478140528513263</v>
       </c>
       <c r="C19" s="0">
-        <v>0.84771885368611088</v>
+        <v>0.7596203146772712</v>
       </c>
       <c r="D19" s="0">
-        <v>0.43472587933403894</v>
+        <v>0.59067171548104014</v>
       </c>
       <c r="E19" s="0">
-        <v>2.7688260362551982</v>
+        <v>2.7683902213488216</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.68900453396582739</v>
+        <v>-0.70630836992291579</v>
       </c>
       <c r="G19" s="0">
-        <v>0.19093450309850488</v>
+        <v>0.18866591354803003</v>
       </c>
       <c r="H19" s="0">
-        <v>2.1386831576346124</v>
+        <v>1.9093791072230768</v>
       </c>
       <c r="I19" s="0">
-        <v>2.0858620460141424</v>
+        <v>2.244961364246393</v>
       </c>
       <c r="J19" s="0">
-        <v>2.5164517892744849</v>
+        <v>2.4878824960848123</v>
       </c>
       <c r="K19" s="0">
-        <v>0.66103230999681228</v>
+        <v>0.72390352811751557</v>
       </c>
       <c r="L19" s="0">
-        <v>5.4882882119494374</v>
+        <v>5.5238179544326185</v>
       </c>
       <c r="M19" s="0">
-        <v>3.4314875175489803</v>
+        <v>3.1775654449779669</v>
       </c>
       <c r="N19" s="0">
-        <v>3.2849029934467886</v>
+        <v>3.5291903452664597</v>
       </c>
       <c r="O19" s="0">
-        <v>2.6600349423336809</v>
+        <v>2.5611368773587713</v>
       </c>
       <c r="P19" s="0">
-        <v>2.6779540307785128</v>
+        <v>2.7714345399862452</v>
       </c>
     </row>
     <row r="20">
@@ -1085,49 +1085,49 @@
         <v>29768</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.24020282317839792</v>
+        <v>-0.25317372483424927</v>
       </c>
       <c r="C20" s="0">
-        <v>0.48417686326557796</v>
+        <v>0.35668913728040874</v>
       </c>
       <c r="D20" s="0">
-        <v>0.13688898618346046</v>
+        <v>0.27790782209762649</v>
       </c>
       <c r="E20" s="0">
-        <v>2.7369186768108733</v>
+        <v>2.739472446571416</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.63021666134646748</v>
+        <v>-0.65092198680915181</v>
       </c>
       <c r="G20" s="0">
-        <v>0.24230008689430227</v>
+        <v>0.23812709389625084</v>
       </c>
       <c r="H20" s="0">
-        <v>2.1197419358383485</v>
+        <v>1.8977733905087537</v>
       </c>
       <c r="I20" s="0">
-        <v>2.0528567410696272</v>
+        <v>2.2016874049623976</v>
       </c>
       <c r="J20" s="0">
-        <v>2.5659120165192424</v>
+        <v>2.5332303792597664</v>
       </c>
       <c r="K20" s="0">
-        <v>0.57429500365721764</v>
+        <v>0.63932964879203058</v>
       </c>
       <c r="L20" s="0">
-        <v>5.2468227178555944</v>
+        <v>5.2637745697414093</v>
       </c>
       <c r="M20" s="0">
-        <v>3.4334460168045755</v>
+        <v>3.1753854584099477</v>
       </c>
       <c r="N20" s="0">
-        <v>3.3011232414422498</v>
+        <v>3.5497659602300415</v>
       </c>
       <c r="O20" s="0">
-        <v>2.8118745414634718</v>
+        <v>2.696079708060513</v>
       </c>
       <c r="P20" s="0">
-        <v>2.5115232912568737</v>
+        <v>2.5682760746730202</v>
       </c>
     </row>
     <row r="21">
@@ -1135,49 +1135,49 @@
         <v>29860</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.31887206505258625</v>
+        <v>-0.32829519983211219</v>
       </c>
       <c r="C21" s="0">
-        <v>-1.3278798417840749</v>
+        <v>-1.2589648669790787</v>
       </c>
       <c r="D21" s="0">
-        <v>-1.2458282587012379</v>
+        <v>-1.33254904046749</v>
       </c>
       <c r="E21" s="0">
-        <v>2.6974364965303259</v>
+        <v>2.699290431070235</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.58367654111850276</v>
+        <v>-0.59925789900693194</v>
       </c>
       <c r="G21" s="0">
-        <v>0.24673538884235996</v>
+        <v>0.25406518822115409</v>
       </c>
       <c r="H21" s="0">
-        <v>1.4737100555366318</v>
+        <v>1.4255437558535053</v>
       </c>
       <c r="I21" s="0">
-        <v>1.4619858072539369</v>
+        <v>1.487624035702936</v>
       </c>
       <c r="J21" s="0">
-        <v>2.6117549190095577</v>
+        <v>2.570246300297736</v>
       </c>
       <c r="K21" s="0">
-        <v>0.50644598275255692</v>
+        <v>0.56819670165785974</v>
       </c>
       <c r="L21" s="0">
-        <v>2.259082909155028</v>
+        <v>2.2819089596770317</v>
       </c>
       <c r="M21" s="0">
-        <v>2.9110035648891102</v>
+        <v>2.759618614757986</v>
       </c>
       <c r="N21" s="0">
-        <v>2.9164316648596182</v>
+        <v>3.110378507154441</v>
       </c>
       <c r="O21" s="0">
-        <v>2.9303009208446271</v>
+        <v>2.8214728576402419</v>
       </c>
       <c r="P21" s="0">
-        <v>2.3280496449794033</v>
+        <v>2.3980288746303078</v>
       </c>
     </row>
     <row r="22">
@@ -1185,49 +1185,49 @@
         <v>29952</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.40349967235052098</v>
+        <v>-0.42166949385006258</v>
       </c>
       <c r="C22" s="0">
-        <v>-1.7014630934162454</v>
+        <v>-1.6249842452626928</v>
       </c>
       <c r="D22" s="0">
-        <v>-1.6679768727577011</v>
+        <v>-1.7657732067166123</v>
       </c>
       <c r="E22" s="0">
-        <v>2.6493554400560986</v>
+        <v>2.6472657612426436</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.5304547660694956</v>
+        <v>-0.54574598744361869</v>
       </c>
       <c r="G22" s="0">
-        <v>0.17425484794384125</v>
+        <v>0.17596779845337657</v>
       </c>
       <c r="H22" s="0">
-        <v>0.87425223993359458</v>
+        <v>0.8678449609160348</v>
       </c>
       <c r="I22" s="0">
-        <v>0.86044191493873645</v>
+        <v>0.85036437641843476</v>
       </c>
       <c r="J22" s="0">
-        <v>2.6405170614800397</v>
+        <v>2.6096191429284747</v>
       </c>
       <c r="K22" s="0">
-        <v>0.44819456257543944</v>
+        <v>0.50579027810181265</v>
       </c>
       <c r="L22" s="0">
-        <v>3.6319626445591644</v>
+        <v>3.6128650643914964</v>
       </c>
       <c r="M22" s="0">
-        <v>2.4967725996483932</v>
+        <v>2.4399206463922063</v>
       </c>
       <c r="N22" s="0">
-        <v>2.5398812427012283</v>
+        <v>2.6522214140003904</v>
       </c>
       <c r="O22" s="0">
-        <v>3.0484261957653054</v>
+        <v>2.9519834525251705</v>
       </c>
       <c r="P22" s="0">
-        <v>2.1536505955281222</v>
+        <v>2.2158314675061765</v>
       </c>
     </row>
     <row r="23">
@@ -1235,49 +1235,49 @@
         <v>30042</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.35196368966102565</v>
+        <v>-0.37318898689037144</v>
       </c>
       <c r="C23" s="0">
-        <v>-2.0870186895303924</v>
+        <v>-1.9628273397635314</v>
       </c>
       <c r="D23" s="0">
-        <v>-2.0195742457430157</v>
+        <v>-2.0940367325725839</v>
       </c>
       <c r="E23" s="0">
-        <v>2.6697635245844191</v>
+        <v>2.664588454006716</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.48890815270389998</v>
+        <v>-0.50650791761538216</v>
       </c>
       <c r="G23" s="0">
-        <v>0.19215928209909353</v>
+        <v>0.19775749955989652</v>
       </c>
       <c r="H23" s="0">
-        <v>0.25606876991341065</v>
+        <v>0.25806527273156488</v>
       </c>
       <c r="I23" s="0">
-        <v>0.25942689766073046</v>
+        <v>0.22939067647200112</v>
       </c>
       <c r="J23" s="0">
-        <v>2.6744615001309269</v>
+        <v>2.6509967643066057</v>
       </c>
       <c r="K23" s="0">
-        <v>0.38779699879942586</v>
+        <v>0.44301658039364677</v>
       </c>
       <c r="L23" s="0">
-        <v>4.9001214985398089</v>
+        <v>4.8355352065140211</v>
       </c>
       <c r="M23" s="0">
-        <v>2.0383124739025611</v>
+        <v>1.9877131072954681</v>
       </c>
       <c r="N23" s="0">
-        <v>2.0608307816124967</v>
+        <v>2.1022393471076</v>
       </c>
       <c r="O23" s="0">
-        <v>3.1688814576603024</v>
+        <v>3.0779172842129334</v>
       </c>
       <c r="P23" s="0">
-        <v>1.984336757568651</v>
+        <v>2.0591956742251862</v>
       </c>
     </row>
     <row r="24">
@@ -1285,49 +1285,49 @@
         <v>30133</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.33888399779283979</v>
+        <v>-0.34893206991502779</v>
       </c>
       <c r="C24" s="0">
-        <v>-1.6727105095061183</v>
+        <v>-1.576873960562251</v>
       </c>
       <c r="D24" s="0">
-        <v>-1.5942262984773055</v>
+        <v>-1.7323579161974307</v>
       </c>
       <c r="E24" s="0">
-        <v>2.6369776661950635</v>
+        <v>2.635425614956973</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.44178130601140986</v>
+        <v>-0.46259523429631966</v>
       </c>
       <c r="G24" s="0">
-        <v>0.22291974145045357</v>
+        <v>0.23944236867002699</v>
       </c>
       <c r="H24" s="0">
-        <v>0.26685765345228385</v>
+        <v>0.2892189290003741</v>
       </c>
       <c r="I24" s="0">
-        <v>0.27464432184445942</v>
+        <v>0.24229612776045606</v>
       </c>
       <c r="J24" s="0">
-        <v>2.70375240906343</v>
+        <v>2.6873457522096196</v>
       </c>
       <c r="K24" s="0">
-        <v>0.34096157033284702</v>
+        <v>0.39619355933821754</v>
       </c>
       <c r="L24" s="0">
-        <v>1.8856254064644384</v>
+        <v>1.8023725101715895</v>
       </c>
       <c r="M24" s="0">
-        <v>1.8218204931264328</v>
+        <v>1.8052257576270931</v>
       </c>
       <c r="N24" s="0">
-        <v>1.8459276110198277</v>
+        <v>1.854944145456163</v>
       </c>
       <c r="O24" s="0">
-        <v>3.2813512306099168</v>
+        <v>3.1976020887554837</v>
       </c>
       <c r="P24" s="0">
-        <v>1.8245119628619189</v>
+        <v>1.9051819477874687</v>
       </c>
     </row>
     <row r="25">
@@ -1335,49 +1335,49 @@
         <v>30225</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.40555321065655092</v>
+        <v>-0.42029898766373575</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.80577575938019375</v>
+        <v>-0.73540089676926845</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.778153399174213</v>
+        <v>-0.84127530019512209</v>
       </c>
       <c r="E25" s="0">
-        <v>2.6083939373707485</v>
+        <v>2.6078785309534336</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.40528745501291041</v>
+        <v>-0.42491029961634996</v>
       </c>
       <c r="G25" s="0">
-        <v>0.13846098437101129</v>
+        <v>0.15250813090036996</v>
       </c>
       <c r="H25" s="0">
-        <v>0.046033074731318999</v>
+        <v>0.052394485841735117</v>
       </c>
       <c r="I25" s="0">
-        <v>0.06072044313920158</v>
+        <v>0.015580279109049439</v>
       </c>
       <c r="J25" s="0">
-        <v>2.7384395791513425</v>
+        <v>2.7182951402830824</v>
       </c>
       <c r="K25" s="0">
-        <v>0.30180679360465856</v>
+        <v>0.34476673256438195</v>
       </c>
       <c r="L25" s="0">
-        <v>0.38603123321908772</v>
+        <v>0.28714651574286176</v>
       </c>
       <c r="M25" s="0">
-        <v>1.7434366331876863</v>
+        <v>1.7326270850697085</v>
       </c>
       <c r="N25" s="0">
-        <v>1.704558843757747</v>
+        <v>1.791294333489164</v>
       </c>
       <c r="O25" s="0">
-        <v>3.379977910138984</v>
+        <v>3.2990190668799633</v>
       </c>
       <c r="P25" s="0">
-        <v>1.6839061985249488</v>
+        <v>1.7514749925212183</v>
       </c>
     </row>
     <row r="26">
@@ -1385,49 +1385,49 @@
         <v>30317</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.37498334739668371</v>
+        <v>-0.39234564561724905</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.47447127630982711</v>
+        <v>-0.30002872798215557</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.40461336813492338</v>
+        <v>-0.48341039433287819</v>
       </c>
       <c r="E26" s="0">
-        <v>2.6036222808058485</v>
+        <v>2.5952011222017441</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.36993476503957956</v>
+        <v>-0.38699103582078676</v>
       </c>
       <c r="G26" s="0">
-        <v>0.069932250432244714</v>
+        <v>0.08119691150492464</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.46317258938045081</v>
+        <v>-0.46254643069531987</v>
       </c>
       <c r="I26" s="0">
-        <v>-0.48932137068017117</v>
+        <v>-0.53548583795201399</v>
       </c>
       <c r="J26" s="0">
-        <v>2.7633756055035112</v>
+        <v>2.7468245244413412</v>
       </c>
       <c r="K26" s="0">
-        <v>0.26505372063381949</v>
+        <v>0.300442121466654</v>
       </c>
       <c r="L26" s="0">
-        <v>0.27345983233565363</v>
+        <v>0.1067030739483632</v>
       </c>
       <c r="M26" s="0">
-        <v>1.4314685913404246</v>
+        <v>1.4748525738956582</v>
       </c>
       <c r="N26" s="0">
-        <v>1.4389182773626752</v>
+        <v>1.4965811398337396</v>
       </c>
       <c r="O26" s="0">
-        <v>3.4755744026886664</v>
+        <v>3.4058542241324883</v>
       </c>
       <c r="P26" s="0">
-        <v>1.553392268619187</v>
+        <v>1.6162689306269786</v>
       </c>
     </row>
     <row r="27">
@@ -1435,49 +1435,49 @@
         <v>30407</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.28731598465667962</v>
+        <v>-0.30956337041667525</v>
       </c>
       <c r="C27" s="0">
-        <v>0.77048371718848951</v>
+        <v>0.96275049250281919</v>
       </c>
       <c r="D27" s="0">
-        <v>0.90979653156096985</v>
+        <v>0.60803621777624228</v>
       </c>
       <c r="E27" s="0">
-        <v>2.6199459901023561</v>
+        <v>2.6142764613043319</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.32765311599224484</v>
+        <v>-0.35076020651736811</v>
       </c>
       <c r="G27" s="0">
-        <v>0.030310993388343845</v>
+        <v>0.038062251952662204</v>
       </c>
       <c r="H27" s="0">
-        <v>-0.73858750503545834</v>
+        <v>-0.75624986777776726</v>
       </c>
       <c r="I27" s="0">
-        <v>-0.80822824498438572</v>
+        <v>-0.81257797538136467</v>
       </c>
       <c r="J27" s="0">
-        <v>2.790120833535263</v>
+        <v>2.7726460268794497</v>
       </c>
       <c r="K27" s="0">
-        <v>0.22835065906357543</v>
+        <v>0.26381365885676206</v>
       </c>
       <c r="L27" s="0">
-        <v>0.29134368314312914</v>
+        <v>0.12702369570837196</v>
       </c>
       <c r="M27" s="0">
-        <v>1.5754712720986217</v>
+        <v>1.5649859670809798</v>
       </c>
       <c r="N27" s="0">
-        <v>1.5870217649660803</v>
+        <v>1.5980755301615179</v>
       </c>
       <c r="O27" s="0">
-        <v>3.5808170054303474</v>
+        <v>3.5175148611261742</v>
       </c>
       <c r="P27" s="0">
-        <v>1.4195448278565852</v>
+        <v>1.4918840184942015</v>
       </c>
     </row>
     <row r="28">
@@ -1485,49 +1485,49 @@
         <v>30498</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.22102425491244404</v>
+        <v>-0.23603642643606942</v>
       </c>
       <c r="C28" s="0">
-        <v>1.7741472459518777</v>
+        <v>1.757930033527964</v>
       </c>
       <c r="D28" s="0">
-        <v>1.6296102002473889</v>
+        <v>1.6951120917118288</v>
       </c>
       <c r="E28" s="0">
-        <v>2.6117564417796757</v>
+        <v>2.61064496782092</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.29446344059083074</v>
+        <v>-0.32081915090569613</v>
       </c>
       <c r="G28" s="0">
-        <v>0.0019971474789670929</v>
+        <v>0.010243902331086822</v>
       </c>
       <c r="H28" s="0">
-        <v>-0.45002474825126038</v>
+        <v>-0.47442426699099938</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.53181236685286848</v>
+        <v>-0.46230087259622071</v>
       </c>
       <c r="J28" s="0">
-        <v>2.8177568137851061</v>
+        <v>2.8012272049699121</v>
       </c>
       <c r="K28" s="0">
-        <v>0.19719385447771304</v>
+        <v>0.23448217995430432</v>
       </c>
       <c r="L28" s="0">
-        <v>0.62324034273202333</v>
+        <v>0.49771739415472221</v>
       </c>
       <c r="M28" s="0">
-        <v>1.7383236373901847</v>
+        <v>1.7821027464414758</v>
       </c>
       <c r="N28" s="0">
-        <v>1.7420309460966208</v>
+        <v>1.7817256003416881</v>
       </c>
       <c r="O28" s="0">
-        <v>3.6889570476619675</v>
+        <v>3.6055923799287695</v>
       </c>
       <c r="P28" s="0">
-        <v>1.2965908176710483</v>
+        <v>1.3751711416269137</v>
       </c>
     </row>
     <row r="29">
@@ -1535,49 +1535,49 @@
         <v>30590</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.15760397292108666</v>
+        <v>-0.1717087639026727</v>
       </c>
       <c r="C29" s="0">
-        <v>2.1630784171095034</v>
+        <v>2.0495138731378697</v>
       </c>
       <c r="D29" s="0">
-        <v>1.9413857676987181</v>
+        <v>2.0739159891104166</v>
       </c>
       <c r="E29" s="0">
-        <v>2.6002985047453873</v>
+        <v>2.5983470317624935</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.26719577785575943</v>
+        <v>-0.29429537538875911</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.010823712021583297</v>
+        <v>0.00032610107973608923</v>
       </c>
       <c r="H29" s="0">
-        <v>0.04175620747319795</v>
+        <v>-0.06389826435790287</v>
       </c>
       <c r="I29" s="0">
-        <v>-0.042981799814068467</v>
+        <v>-0.0060263734706272921</v>
       </c>
       <c r="J29" s="0">
-        <v>2.8434928442000484</v>
+        <v>2.8313336479247324</v>
       </c>
       <c r="K29" s="0">
-        <v>0.17362035722116836</v>
+        <v>0.20852242338248017</v>
       </c>
       <c r="L29" s="0">
-        <v>0.31776151476462117</v>
+        <v>0.21607489994084508</v>
       </c>
       <c r="M29" s="0">
-        <v>1.9200487785709686</v>
+        <v>1.9403093576275006</v>
       </c>
       <c r="N29" s="0">
-        <v>1.8447776004046177</v>
+        <v>1.8863513353802994</v>
       </c>
       <c r="O29" s="0">
-        <v>3.7875322786266077</v>
+        <v>3.6804937894813596</v>
       </c>
       <c r="P29" s="0">
-        <v>1.191404949059881</v>
+        <v>1.2624139083116743</v>
       </c>
     </row>
     <row r="30">
@@ -1585,49 +1585,49 @@
         <v>30682</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.13462109163046077</v>
+        <v>-0.13593421392467614</v>
       </c>
       <c r="C30" s="0">
-        <v>1.9451971706690543</v>
+        <v>1.8765529562247041</v>
       </c>
       <c r="D30" s="0">
-        <v>1.772154874821791</v>
+        <v>1.8700709512414158</v>
       </c>
       <c r="E30" s="0">
-        <v>2.5980017309105303</v>
+        <v>2.5925533252714694</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.2393440447087985</v>
+        <v>-0.26790891966239083</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.028397076988690654</v>
+        <v>-0.014575389328249724</v>
       </c>
       <c r="H30" s="0">
-        <v>0.21035917982870347</v>
+        <v>0.08747007674924373</v>
       </c>
       <c r="I30" s="0">
-        <v>0.10189893251541199</v>
+        <v>0.11785034533163677</v>
       </c>
       <c r="J30" s="0">
-        <v>2.8667562544457343</v>
+        <v>2.8555064818196092</v>
       </c>
       <c r="K30" s="0">
-        <v>0.15382700037935276</v>
+        <v>0.18577663424228757</v>
       </c>
       <c r="L30" s="0">
-        <v>0.54832759754639881</v>
+        <v>0.43415861648101817</v>
       </c>
       <c r="M30" s="0">
-        <v>1.9725478485886527</v>
+        <v>1.9944588805498036</v>
       </c>
       <c r="N30" s="0">
-        <v>1.8121991967093845</v>
+        <v>1.9375652508461125</v>
       </c>
       <c r="O30" s="0">
-        <v>3.8834776737649239</v>
+        <v>3.7666568659286126</v>
       </c>
       <c r="P30" s="0">
-        <v>1.0914833923286036</v>
+        <v>1.1630303447456698</v>
       </c>
     </row>
     <row r="31">
@@ -1635,49 +1635,49 @@
         <v>30773</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.096731497190404386</v>
+        <v>-0.10315128646752283</v>
       </c>
       <c r="C31" s="0">
-        <v>1.8311328791374644</v>
+        <v>1.7606349051506283</v>
       </c>
       <c r="D31" s="0">
-        <v>1.7250600019519324</v>
+        <v>1.7050608048376059</v>
       </c>
       <c r="E31" s="0">
-        <v>2.5840164562627939</v>
+        <v>2.5819604456138654</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.21506045430605053</v>
+        <v>-0.24176334551272408</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.029074515801161719</v>
+        <v>-0.016963976986659059</v>
       </c>
       <c r="H31" s="0">
-        <v>0.18653442528688063</v>
+        <v>0.055517694023820799</v>
       </c>
       <c r="I31" s="0">
-        <v>0.071596745989550403</v>
+        <v>0.1198576999533067</v>
       </c>
       <c r="J31" s="0">
-        <v>2.8823276071773174</v>
+        <v>2.8744081779254294</v>
       </c>
       <c r="K31" s="0">
-        <v>0.13753188548716189</v>
+        <v>0.16643497938034146</v>
       </c>
       <c r="L31" s="0">
-        <v>1.2728441981779379</v>
+        <v>1.2176421264266595</v>
       </c>
       <c r="M31" s="0">
-        <v>2.0188930862644336</v>
+        <v>2.0920320212225505</v>
       </c>
       <c r="N31" s="0">
-        <v>1.8843410609548652</v>
+        <v>2.0478349593615404</v>
       </c>
       <c r="O31" s="0">
-        <v>3.956923529301613</v>
+        <v>3.8409895074396854</v>
       </c>
       <c r="P31" s="0">
-        <v>0.99663269717467873</v>
+        <v>1.0649291437269015</v>
       </c>
     </row>
     <row r="32">
@@ -1685,49 +1685,49 @@
         <v>30864</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.068309890190398209</v>
+        <v>-0.06780423628988394</v>
       </c>
       <c r="C32" s="0">
-        <v>1.2013170085521163</v>
+        <v>1.1847081738555065</v>
       </c>
       <c r="D32" s="0">
-        <v>1.1743655576002188</v>
+        <v>1.1631693179778253</v>
       </c>
       <c r="E32" s="0">
-        <v>2.5813041216144983</v>
+        <v>2.5761846149389487</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.19372441278130861</v>
+        <v>-0.21815578549973375</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.0053133133253239328</v>
+        <v>0.010842290400875591</v>
       </c>
       <c r="H32" s="0">
-        <v>0.11336076766543243</v>
+        <v>-0.054999772444689274</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.088930697672054498</v>
+        <v>0.066715544985828573</v>
       </c>
       <c r="J32" s="0">
-        <v>2.8959980741554303</v>
+        <v>2.8948926732863169</v>
       </c>
       <c r="K32" s="0">
-        <v>0.12083108355266878</v>
+        <v>0.14582084742004661</v>
       </c>
       <c r="L32" s="0">
-        <v>2.3416602936894915</v>
+        <v>2.2581162516102493</v>
       </c>
       <c r="M32" s="0">
-        <v>1.9505411877410752</v>
+        <v>1.9540366279872889</v>
       </c>
       <c r="N32" s="0">
-        <v>1.745261123669412</v>
+        <v>1.9465393662673245</v>
       </c>
       <c r="O32" s="0">
-        <v>4.0230756871194462</v>
+        <v>3.921422779811099</v>
       </c>
       <c r="P32" s="0">
-        <v>0.916052913677883</v>
+        <v>0.97091837968296879</v>
       </c>
     </row>
     <row r="33">
@@ -1735,49 +1735,49 @@
         <v>30956</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.057413273074833085</v>
+        <v>-0.057132629283721446</v>
       </c>
       <c r="C33" s="0">
-        <v>0.60564271947458326</v>
+        <v>0.67640442984273919</v>
       </c>
       <c r="D33" s="0">
-        <v>0.55588249552732227</v>
+        <v>0.47685998728390133</v>
       </c>
       <c r="E33" s="0">
-        <v>2.5754871178105905</v>
+        <v>2.5729500726573544</v>
       </c>
       <c r="F33" s="0">
-        <v>-0.17368162339490789</v>
+        <v>-0.19427313313036254</v>
       </c>
       <c r="G33" s="0">
-        <v>0.04233025305983297</v>
+        <v>0.046284544605861316</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.09215048916987105</v>
+        <v>-0.28926200235257959</v>
       </c>
       <c r="I33" s="0">
-        <v>-0.39657432347771071</v>
+        <v>-0.23657219974793894</v>
       </c>
       <c r="J33" s="0">
-        <v>2.9108752027573699</v>
+        <v>2.9114057377191598</v>
       </c>
       <c r="K33" s="0">
-        <v>0.10533186739964547</v>
+        <v>0.12695478480111444</v>
       </c>
       <c r="L33" s="0">
-        <v>0.71996416077907122</v>
+        <v>0.6000596410315433</v>
       </c>
       <c r="M33" s="0">
-        <v>1.6861265199341005</v>
+        <v>1.7238227566107673</v>
       </c>
       <c r="N33" s="0">
-        <v>1.4910340416088479</v>
+        <v>1.685108702632931</v>
       </c>
       <c r="O33" s="0">
-        <v>4.0982621745264503</v>
+        <v>3.9878314457555337</v>
       </c>
       <c r="P33" s="0">
-        <v>0.83388406677756521</v>
+        <v>0.89305701787198921</v>
       </c>
     </row>
     <row r="34">
@@ -1785,49 +1785,49 @@
         <v>31048</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.10686862076477116</v>
+        <v>-0.10155225459060285</v>
       </c>
       <c r="C34" s="0">
-        <v>0.1914388118481406</v>
+        <v>0.26884239957347006</v>
       </c>
       <c r="D34" s="0">
-        <v>0.2492705686757121</v>
+        <v>0.14992206043260445</v>
       </c>
       <c r="E34" s="0">
-        <v>2.5847490920251448</v>
+        <v>2.5761900850952646</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.15418591473165627</v>
+        <v>-0.17577881837237014</v>
       </c>
       <c r="G34" s="0">
-        <v>0.0047259641137662508</v>
+        <v>0.015643250716367716</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.067561757750465024</v>
+        <v>-0.25258411189370444</v>
       </c>
       <c r="I34" s="0">
-        <v>-0.33631898471095056</v>
+        <v>-0.24222314187845273</v>
       </c>
       <c r="J34" s="0">
-        <v>2.9231717754133513</v>
+        <v>2.9242727862372777</v>
       </c>
       <c r="K34" s="0">
-        <v>0.091134654338794308</v>
+        <v>0.11319205599950152</v>
       </c>
       <c r="L34" s="0">
-        <v>0.3281997707771081</v>
+        <v>0.23319124286684181</v>
       </c>
       <c r="M34" s="0">
-        <v>1.5091697447151007</v>
+        <v>1.5425361934442468</v>
       </c>
       <c r="N34" s="0">
-        <v>1.2415313130697556</v>
+        <v>1.4776804686897911</v>
       </c>
       <c r="O34" s="0">
-        <v>4.1708827549229603</v>
+        <v>4.0520496532074883</v>
       </c>
       <c r="P34" s="0">
-        <v>0.76711521884252276</v>
+        <v>0.8219196946521492</v>
       </c>
     </row>
     <row r="35">
@@ -1835,49 +1835,49 @@
         <v>31138</v>
       </c>
       <c r="B35" s="0">
-        <v>-0.10497342157630095</v>
+        <v>-0.099539224880879906</v>
       </c>
       <c r="C35" s="0">
-        <v>0.15228227125541582</v>
+        <v>0.26530130549913022</v>
       </c>
       <c r="D35" s="0">
-        <v>0.22414634573376779</v>
+        <v>0.087105534611044699</v>
       </c>
       <c r="E35" s="0">
-        <v>2.5814076161797654</v>
+        <v>2.5702274502719655</v>
       </c>
       <c r="F35" s="0">
-        <v>-0.13797689968588087</v>
+        <v>-0.15807212688677713</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.010373033552979668</v>
+        <v>0.0025048602791098193</v>
       </c>
       <c r="H35" s="0">
-        <v>-0.040245263973965349</v>
+        <v>-0.21906585678543047</v>
       </c>
       <c r="I35" s="0">
-        <v>-0.27604397013997595</v>
+        <v>-0.17663387192435703</v>
       </c>
       <c r="J35" s="0">
-        <v>2.9377594282533828</v>
+        <v>2.9418153027172145</v>
       </c>
       <c r="K35" s="0">
-        <v>0.081238647223688815</v>
+        <v>0.10112487211601312</v>
       </c>
       <c r="L35" s="0">
-        <v>0.036053294339637873</v>
+        <v>-0.01311939732186701</v>
       </c>
       <c r="M35" s="0">
-        <v>1.3461458801293773</v>
+        <v>1.3945687604503905</v>
       </c>
       <c r="N35" s="0">
-        <v>1.1543444563544498</v>
+        <v>1.3641044284399528</v>
       </c>
       <c r="O35" s="0">
-        <v>4.2380186714206243</v>
+        <v>4.1185465996015846</v>
       </c>
       <c r="P35" s="0">
-        <v>0.7055352356838136</v>
+        <v>0.74779107023438196</v>
       </c>
     </row>
     <row r="36">
@@ -1885,49 +1885,49 @@
         <v>31229</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.08839544427503182</v>
+        <v>-0.086422098892584953</v>
       </c>
       <c r="C36" s="0">
-        <v>0.49170831968374623</v>
+        <v>0.58880328902522494</v>
       </c>
       <c r="D36" s="0">
-        <v>0.54274992973937164</v>
+        <v>0.45963263536851406</v>
       </c>
       <c r="E36" s="0">
-        <v>2.5870074569044803</v>
+        <v>2.575469659437911</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.12409511638349358</v>
+        <v>-0.14057081038699948</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.020867215908824271</v>
+        <v>-0.0074939695773232288</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.14165461166379689</v>
+        <v>-0.3467676027368336</v>
       </c>
       <c r="I36" s="0">
-        <v>-0.43359563084571728</v>
+        <v>-0.3216153047208633</v>
       </c>
       <c r="J36" s="0">
-        <v>2.9486442256766034</v>
+        <v>2.9549356668453495</v>
       </c>
       <c r="K36" s="0">
-        <v>0.071769421610404255</v>
+        <v>0.088687469631893501</v>
       </c>
       <c r="L36" s="0">
-        <v>0.12458588774456859</v>
+        <v>0.046874673847568805</v>
       </c>
       <c r="M36" s="0">
-        <v>1.3740732457791305</v>
+        <v>1.3667951258519733</v>
       </c>
       <c r="N36" s="0">
-        <v>1.1254290347303446</v>
+        <v>1.33670341745237</v>
       </c>
       <c r="O36" s="0">
-        <v>4.299387188668546</v>
+        <v>4.1837380194488496</v>
       </c>
       <c r="P36" s="0">
-        <v>0.64234769719741314</v>
+        <v>0.68797517836503808</v>
       </c>
     </row>
     <row r="37">
@@ -1935,49 +1935,49 @@
         <v>31321</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.058683395581695774</v>
+        <v>-0.060808518662284275</v>
       </c>
       <c r="C37" s="0">
-        <v>0.38030611265906678</v>
+        <v>0.44773854286127901</v>
       </c>
       <c r="D37" s="0">
-        <v>0.45400848764322527</v>
+        <v>0.33031360258386033</v>
       </c>
       <c r="E37" s="0">
-        <v>2.5846805796016601</v>
+        <v>2.5723097348454456</v>
       </c>
       <c r="F37" s="0">
-        <v>-0.10940429792481951</v>
+        <v>-0.12646371225020303</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.02257029634491977</v>
+        <v>-0.012702126891687244</v>
       </c>
       <c r="H37" s="0">
-        <v>-0.10580503626837624</v>
+        <v>-0.31656245541901296</v>
       </c>
       <c r="I37" s="0">
-        <v>-0.35349930223555626</v>
+        <v>-0.24137138602430902</v>
       </c>
       <c r="J37" s="0">
-        <v>2.9552877949025866</v>
+        <v>2.9696158722401247</v>
       </c>
       <c r="K37" s="0">
-        <v>0.061657821748057756</v>
+        <v>0.080086976375310398</v>
       </c>
       <c r="L37" s="0">
-        <v>0.57727345703155941</v>
+        <v>0.51288794757672851</v>
       </c>
       <c r="M37" s="0">
-        <v>1.2667942189410799</v>
+        <v>1.2032693838660553</v>
       </c>
       <c r="N37" s="0">
-        <v>0.94168169259838375</v>
+        <v>1.2246784839275251</v>
       </c>
       <c r="O37" s="0">
-        <v>4.346931060846476</v>
+        <v>4.2333929258388157</v>
       </c>
       <c r="P37" s="0">
-        <v>0.58665501175745072</v>
+        <v>0.62517727622378927</v>
       </c>
     </row>
     <row r="38">
@@ -1985,49 +1985,49 @@
         <v>31413</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.036845190037987322</v>
+        <v>-0.035071806924915412</v>
       </c>
       <c r="C38" s="0">
-        <v>0.35455058207593676</v>
+        <v>0.45819981932393339</v>
       </c>
       <c r="D38" s="0">
-        <v>0.44451262316621121</v>
+        <v>0.31326868679522429</v>
       </c>
       <c r="E38" s="0">
-        <v>2.586176350552984</v>
+        <v>2.5732521422531658</v>
       </c>
       <c r="F38" s="0">
-        <v>-0.097644384458638878</v>
+        <v>-0.11341886137994422</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.0091138612818252099</v>
+        <v>-0.0048855831065785183</v>
       </c>
       <c r="H38" s="0">
-        <v>-0.34147359877462674</v>
+        <v>-0.52509577546799013</v>
       </c>
       <c r="I38" s="0">
-        <v>-0.61666326040733366</v>
+        <v>-0.42005201856414709</v>
       </c>
       <c r="J38" s="0">
-        <v>2.9690105379805534</v>
+        <v>2.9832226247694389</v>
       </c>
       <c r="K38" s="0">
-        <v>0.055300491415995898</v>
+        <v>0.071065877357487317</v>
       </c>
       <c r="L38" s="0">
-        <v>0.58660438164557105</v>
+        <v>0.52016646613836093</v>
       </c>
       <c r="M38" s="0">
-        <v>1.1342354360778062</v>
+        <v>1.0790041221495579</v>
       </c>
       <c r="N38" s="0">
-        <v>0.81198038962321617</v>
+        <v>1.138397135620218</v>
       </c>
       <c r="O38" s="0">
-        <v>4.4086163015665329</v>
+        <v>4.2864044352980155</v>
       </c>
       <c r="P38" s="0">
-        <v>0.53642044535342481</v>
+        <v>0.57213936550742273</v>
       </c>
     </row>
     <row r="39">
@@ -2035,49 +2035,49 @@
         <v>31503</v>
       </c>
       <c r="B39" s="0">
-        <v>-0.031784395416382435</v>
+        <v>-0.030342658468457278</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.30993983917195245</v>
+        <v>-0.1471008400727282</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.12607300841767188</v>
+        <v>-0.29141499278190997</v>
       </c>
       <c r="E39" s="0">
-        <v>2.6969152863427235</v>
+        <v>2.6813306115083866</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.086985945451953511</v>
+        <v>-0.10138263330467086</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.0075424825837113081</v>
+        <v>-0.0016122704199676391</v>
       </c>
       <c r="H39" s="0">
-        <v>-0.86594396826503306</v>
+        <v>-1.1107845469288118</v>
       </c>
       <c r="I39" s="0">
-        <v>-1.2762645478807582</v>
+        <v>-0.94463034227202725</v>
       </c>
       <c r="J39" s="0">
-        <v>2.9962143675169375</v>
+        <v>3.0058820840542944</v>
       </c>
       <c r="K39" s="0">
-        <v>0.049197555767859467</v>
+        <v>0.063072320605407239</v>
       </c>
       <c r="L39" s="0">
-        <v>0.47074086801855586</v>
+        <v>0.34137576940678394</v>
       </c>
       <c r="M39" s="0">
-        <v>0.80239175293840925</v>
+        <v>0.80392359280412473</v>
       </c>
       <c r="N39" s="0">
-        <v>0.50822911363427081</v>
+        <v>0.8166597635133146</v>
       </c>
       <c r="O39" s="0">
-        <v>4.4706387307093909</v>
+        <v>4.3650157716847398</v>
       </c>
       <c r="P39" s="0">
-        <v>0.48762770691538049</v>
+        <v>0.522993145448441</v>
       </c>
     </row>
     <row r="40">
@@ -2085,49 +2085,49 @@
         <v>31594</v>
       </c>
       <c r="B40" s="0">
-        <v>-0.034321720249686674</v>
+        <v>-0.034835676281612785</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.23252984607366389</v>
+        <v>-0.095818530680857189</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.055645684979912013</v>
+        <v>-0.23471623731153546</v>
       </c>
       <c r="E40" s="0">
-        <v>2.7862486612150485</v>
+        <v>2.7643004109383287</v>
       </c>
       <c r="F40" s="0">
-        <v>-0.076901606246541521</v>
+        <v>-0.09197012643543645</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.0071056245220979539</v>
+        <v>-0.00024244806823172486</v>
       </c>
       <c r="H40" s="0">
-        <v>-1.0942153712089397</v>
+        <v>-1.2992899466511036</v>
       </c>
       <c r="I40" s="0">
-        <v>-1.4839225496536415</v>
+        <v>-1.1684329671177101</v>
       </c>
       <c r="J40" s="0">
-        <v>3.0203902423960702</v>
+        <v>3.0285038992092939</v>
       </c>
       <c r="K40" s="0">
-        <v>0.042054149150891354</v>
+        <v>0.057193884726255736</v>
       </c>
       <c r="L40" s="0">
-        <v>0.21015632279573182</v>
+        <v>0.060260106255356952</v>
       </c>
       <c r="M40" s="0">
-        <v>0.55241429378911455</v>
+        <v>0.63864017397999562</v>
       </c>
       <c r="N40" s="0">
-        <v>0.27720846879680783</v>
+        <v>0.58787477839705071</v>
       </c>
       <c r="O40" s="0">
-        <v>4.553091729811956</v>
+        <v>4.4645987085391488</v>
       </c>
       <c r="P40" s="0">
-        <v>0.44625406246580962</v>
+        <v>0.4723932645317892</v>
       </c>
     </row>
     <row r="41">
@@ -2135,49 +2135,49 @@
         <v>31686</v>
       </c>
       <c r="B41" s="0">
-        <v>-0.034494128475334264</v>
+        <v>-0.035888060028374288</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.33858840875596541</v>
+        <v>-0.29506150833804223</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.30761556725594319</v>
+        <v>-0.41881953869680777</v>
       </c>
       <c r="E41" s="0">
-        <v>2.826783326256209</v>
+        <v>2.8075977107617129</v>
       </c>
       <c r="F41" s="0">
-        <v>-0.068750684063748624</v>
+        <v>-0.0820158277478545</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.011532743427824052</v>
+        <v>-0.005447123947552663</v>
       </c>
       <c r="H41" s="0">
-        <v>-1.033461681224483</v>
+        <v>-1.1604088967330544</v>
       </c>
       <c r="I41" s="0">
-        <v>-1.3115520412506054</v>
+        <v>-1.1887516520341816</v>
       </c>
       <c r="J41" s="0">
-        <v>3.0375126080304442</v>
+        <v>3.0497010973246304</v>
       </c>
       <c r="K41" s="0">
-        <v>0.037309551999151272</v>
+        <v>0.052601698743150009</v>
       </c>
       <c r="L41" s="0">
-        <v>0.83402366252123317</v>
+        <v>0.75258652659160807</v>
       </c>
       <c r="M41" s="0">
-        <v>0.21269209639882575</v>
+        <v>0.36149015377585014</v>
       </c>
       <c r="N41" s="0">
-        <v>-0.044051980796330957</v>
+        <v>0.33032910156572426</v>
       </c>
       <c r="O41" s="0">
-        <v>4.6299171559968091</v>
+        <v>4.5363065565503398</v>
       </c>
       <c r="P41" s="0">
-        <v>0.40140035275018121</v>
+        <v>0.43658049693554624</v>
       </c>
     </row>
     <row r="42">
@@ -2185,49 +2185,49 @@
         <v>31778</v>
       </c>
       <c r="B42" s="0">
-        <v>-0.016105790638690644</v>
+        <v>-0.018258208946973525</v>
       </c>
       <c r="C42" s="0">
-        <v>-0.31229322428604545</v>
+        <v>-0.22650365498408942</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.17883798275230955</v>
+        <v>-0.27108679484525289</v>
       </c>
       <c r="E42" s="0">
-        <v>2.8229632431392053</v>
+        <v>2.7990604994319934</v>
       </c>
       <c r="F42" s="0">
-        <v>-0.061320046960874564</v>
+        <v>-0.074799143827888021</v>
       </c>
       <c r="G42" s="0">
-        <v>0.0068515785150972787</v>
+        <v>0.012081574333719512</v>
       </c>
       <c r="H42" s="0">
-        <v>-0.25317070486346877</v>
+        <v>-0.28333631779308871</v>
       </c>
       <c r="I42" s="0">
-        <v>-0.3705180881654962</v>
+        <v>-0.26192025327027929</v>
       </c>
       <c r="J42" s="0">
-        <v>3.0652575474266652</v>
+        <v>3.0726798712840564</v>
       </c>
       <c r="K42" s="0">
-        <v>0.032665233884681691</v>
+        <v>0.046363991466060836</v>
       </c>
       <c r="L42" s="0">
-        <v>0.87278963263235942</v>
+        <v>0.86779466296238927</v>
       </c>
       <c r="M42" s="0">
-        <v>0.15472393217047564</v>
+        <v>0.19858178419957012</v>
       </c>
       <c r="N42" s="0">
-        <v>-0.12887086946828807</v>
+        <v>0.2433858093824563</v>
       </c>
       <c r="O42" s="0">
-        <v>4.7068367085829443</v>
+        <v>4.6041613155315053</v>
       </c>
       <c r="P42" s="0">
-        <v>0.35553902367804524</v>
+        <v>0.40093560045096033</v>
       </c>
     </row>
     <row r="43">
@@ -2235,49 +2235,49 @@
         <v>31868</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.024460247858299203</v>
+        <v>-0.01999879935366692</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.24237148546058646</v>
+        <v>-0.17508164286588782</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.094830247110985783</v>
+        <v>-0.17052289468557977</v>
       </c>
       <c r="E43" s="0">
-        <v>2.8096048471066482</v>
+        <v>2.7884997853891371</v>
       </c>
       <c r="F43" s="0">
-        <v>-0.05435259185301855</v>
+        <v>-0.066762925553596669</v>
       </c>
       <c r="G43" s="0">
-        <v>0.01567011850646962</v>
+        <v>0.024338865441052682</v>
       </c>
       <c r="H43" s="0">
-        <v>-0.022770085420567878</v>
+        <v>-0.02635981102387738</v>
       </c>
       <c r="I43" s="0">
-        <v>-0.063912929233506444</v>
+        <v>-0.041353885866007384</v>
       </c>
       <c r="J43" s="0">
-        <v>3.0922414936701164</v>
+        <v>3.0973683221800465</v>
       </c>
       <c r="K43" s="0">
-        <v>0.029048385726931671</v>
+        <v>0.040933204081825686</v>
       </c>
       <c r="L43" s="0">
-        <v>1.4526062767389889</v>
+        <v>1.4420488163543632</v>
       </c>
       <c r="M43" s="0">
-        <v>0.063476205401930344</v>
+        <v>0.087322519721421327</v>
       </c>
       <c r="N43" s="0">
-        <v>-0.19575140560851589</v>
+        <v>0.1118968396212795</v>
       </c>
       <c r="O43" s="0">
-        <v>4.7572362600549356</v>
+        <v>4.6717106532770725</v>
       </c>
       <c r="P43" s="0">
-        <v>0.31647573365026455</v>
+        <v>0.36857723890885441</v>
       </c>
     </row>
     <row r="44">
@@ -2285,49 +2285,49 @@
         <v>31959</v>
       </c>
       <c r="B44" s="0">
-        <v>-0.02397168559391161</v>
+        <v>-0.020883381038211017</v>
       </c>
       <c r="C44" s="0">
-        <v>0.015139458328977534</v>
+        <v>-0.0079065588263229764</v>
       </c>
       <c r="D44" s="0">
-        <v>0.04844640138552915</v>
+        <v>0.083702261346514484</v>
       </c>
       <c r="E44" s="0">
-        <v>2.7936077761413145</v>
+        <v>2.772391123481091</v>
       </c>
       <c r="F44" s="0">
-        <v>-0.047616928304435542</v>
+        <v>-0.058550937867007137</v>
       </c>
       <c r="G44" s="0">
-        <v>0.037377595664357194</v>
+        <v>0.044141841402708965</v>
       </c>
       <c r="H44" s="0">
-        <v>0.13241087412499253</v>
+        <v>0.11464265461839143</v>
       </c>
       <c r="I44" s="0">
-        <v>0.081855182094471013</v>
+        <v>0.11561397972692308</v>
       </c>
       <c r="J44" s="0">
-        <v>3.1134183934084785</v>
+        <v>3.1163927500301121</v>
       </c>
       <c r="K44" s="0">
-        <v>0.0262967860635362</v>
+        <v>0.038863489969857314</v>
       </c>
       <c r="L44" s="0">
-        <v>1.5163451156315095</v>
+        <v>1.5275443649999445</v>
       </c>
       <c r="M44" s="0">
-        <v>0.087555649113568307</v>
+        <v>0.06105622901399374</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.142142574090764</v>
+        <v>0.15658519228846535</v>
       </c>
       <c r="O44" s="0">
-        <v>4.8241955788378563</v>
+        <v>4.738459792461053</v>
       </c>
       <c r="P44" s="0">
-        <v>0.28471132954642231</v>
+        <v>0.33559998131890217</v>
       </c>
     </row>
     <row r="45">
@@ -2335,49 +2335,49 @@
         <v>32051</v>
       </c>
       <c r="B45" s="0">
-        <v>-0.040140697668938179</v>
+        <v>-0.034802200235103789</v>
       </c>
       <c r="C45" s="0">
-        <v>0.51322584050375686</v>
+        <v>0.5104143961716141</v>
       </c>
       <c r="D45" s="0">
-        <v>0.50339107675356565</v>
+        <v>0.52042460958800651</v>
       </c>
       <c r="E45" s="0">
-        <v>2.78064496064713</v>
+        <v>2.7608762887062266</v>
       </c>
       <c r="F45" s="0">
-        <v>-0.04092614349457209</v>
+        <v>-0.052676350685190762</v>
       </c>
       <c r="G45" s="0">
-        <v>0.046714641744007759</v>
+        <v>0.057201572227201646</v>
       </c>
       <c r="H45" s="0">
-        <v>-0.017269523396258687</v>
+        <v>-0.084026845356970289</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.088528940049507454</v>
+        <v>-0.051072122630579614</v>
       </c>
       <c r="J45" s="0">
-        <v>3.1349046341678841</v>
+        <v>3.1365397337717225</v>
       </c>
       <c r="K45" s="0">
-        <v>0.023033917039712554</v>
+        <v>0.035610082529243844</v>
       </c>
       <c r="L45" s="0">
-        <v>1.3194385769374182</v>
+        <v>1.3369070840510906</v>
       </c>
       <c r="M45" s="0">
-        <v>0.21050342517358264</v>
+        <v>0.1794076594235624</v>
       </c>
       <c r="N45" s="0">
-        <v>-0.023709846141678231</v>
+        <v>0.29891534244313656</v>
       </c>
       <c r="O45" s="0">
-        <v>4.8895273582362648</v>
+        <v>4.7975116561632101</v>
       </c>
       <c r="P45" s="0">
-        <v>0.25708442258180197</v>
+        <v>0.30687359829296001</v>
       </c>
     </row>
     <row r="46">
@@ -2385,49 +2385,49 @@
         <v>32143</v>
       </c>
       <c r="B46" s="0">
-        <v>-0.065403193008307936</v>
+        <v>-0.059366105818837403</v>
       </c>
       <c r="C46" s="0">
-        <v>0.22215003652083182</v>
+        <v>0.23047519605285474</v>
       </c>
       <c r="D46" s="0">
-        <v>0.2235873815479876</v>
+        <v>0.24267873516703345</v>
       </c>
       <c r="E46" s="0">
-        <v>2.7777775087240433</v>
+        <v>2.7562188319528635</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.036421582626576937</v>
+        <v>-0.046675195463094107</v>
       </c>
       <c r="G46" s="0">
-        <v>0.048087783746102335</v>
+        <v>0.057132536626469346</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.17905302892560429</v>
+        <v>-0.24677973899666944</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.2704494281275957</v>
+        <v>-0.19013466407401358</v>
       </c>
       <c r="J46" s="0">
-        <v>3.1565832731403076</v>
+        <v>3.1551862550996743</v>
       </c>
       <c r="K46" s="0">
-        <v>0.020123076506048526</v>
+        <v>0.032093692340018659</v>
       </c>
       <c r="L46" s="0">
-        <v>1.1528094122859531</v>
+        <v>1.1717348532607372</v>
       </c>
       <c r="M46" s="0">
-        <v>0.12441712341873637</v>
+        <v>0.15564733235182354</v>
       </c>
       <c r="N46" s="0">
-        <v>-0.071091648960299902</v>
+        <v>0.20077072709421206</v>
       </c>
       <c r="O46" s="0">
-        <v>4.9500705633405691</v>
+        <v>4.8559906359019722</v>
       </c>
       <c r="P46" s="0">
-        <v>0.23233095085531213</v>
+        <v>0.2800234820366323</v>
       </c>
     </row>
     <row r="47">
@@ -2435,49 +2435,49 @@
         <v>32234</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.08069925576402262</v>
+        <v>-0.074179612328972966</v>
       </c>
       <c r="C47" s="0">
-        <v>0.39583757848351442</v>
+        <v>0.41442677419144658</v>
       </c>
       <c r="D47" s="0">
-        <v>0.42319111854960212</v>
+        <v>0.42449889711863531</v>
       </c>
       <c r="E47" s="0">
-        <v>2.7885334323678816</v>
+        <v>2.7685468544703085</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.032726372015369959</v>
+        <v>-0.039928918910927216</v>
       </c>
       <c r="G47" s="0">
-        <v>0.04452795416671973</v>
+        <v>0.055082751054808393</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.1651185870758928</v>
+        <v>-0.24784563787239755</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.25967630790317953</v>
+        <v>-0.16947077398965052</v>
       </c>
       <c r="J47" s="0">
-        <v>3.1729513092561321</v>
+        <v>3.1739467118844074</v>
       </c>
       <c r="K47" s="0">
-        <v>0.018213424902350464</v>
+        <v>0.030192534234307292</v>
       </c>
       <c r="L47" s="0">
-        <v>1.4873637487584719</v>
+        <v>1.5134853042581047</v>
       </c>
       <c r="M47" s="0">
-        <v>0.1750986295665789</v>
+        <v>0.20968829259763269</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.015234769209919952</v>
+        <v>0.25404738071357158</v>
       </c>
       <c r="O47" s="0">
-        <v>5.0022032049677643</v>
+        <v>4.9056332360677199</v>
       </c>
       <c r="P47" s="0">
-        <v>0.20976940382656323</v>
+        <v>0.25370000878457294</v>
       </c>
     </row>
     <row r="48">
@@ -2485,49 +2485,49 @@
         <v>32325</v>
       </c>
       <c r="B48" s="0">
-        <v>-0.080802456848309862</v>
+        <v>-0.076378329859415256</v>
       </c>
       <c r="C48" s="0">
-        <v>-0.13574711764322356</v>
+        <v>-0.083977420449827866</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.072583051867755294</v>
+        <v>-0.10362578532798812</v>
       </c>
       <c r="E48" s="0">
-        <v>2.8016580937803064</v>
+        <v>2.7788000096308139</v>
       </c>
       <c r="F48" s="0">
-        <v>-0.029309207436716403</v>
+        <v>-0.035288019534333949</v>
       </c>
       <c r="G48" s="0">
-        <v>0.054300299702419397</v>
+        <v>0.063525165861436125</v>
       </c>
       <c r="H48" s="0">
-        <v>-0.048775218630693333</v>
+        <v>-0.041474013050295688</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.061139607505604543</v>
+        <v>-0.053602493723998508</v>
       </c>
       <c r="J48" s="0">
-        <v>3.1848769086469604</v>
+        <v>3.1933976600153864</v>
       </c>
       <c r="K48" s="0">
-        <v>0.018131597054390512</v>
+        <v>0.027885270575728666</v>
       </c>
       <c r="L48" s="0">
-        <v>2.5296191407710404</v>
+        <v>2.5537829088587571</v>
       </c>
       <c r="M48" s="0">
-        <v>0.03220475650017629</v>
+        <v>0.085879176644519856</v>
       </c>
       <c r="N48" s="0">
-        <v>-0.12595353438642212</v>
+        <v>0.075050844847253398</v>
       </c>
       <c r="O48" s="0">
-        <v>5.0676602664620596</v>
+        <v>4.9821255968743667</v>
       </c>
       <c r="P48" s="0">
-        <v>0.18816253724626447</v>
+        <v>0.22729643082305873</v>
       </c>
     </row>
     <row r="49">
@@ -2535,49 +2535,49 @@
         <v>32417</v>
       </c>
       <c r="B49" s="0">
-        <v>-0.080951720477554098</v>
+        <v>-0.073294456335621511</v>
       </c>
       <c r="C49" s="0">
-        <v>0.26926014794604303</v>
+        <v>0.27038845345098939</v>
       </c>
       <c r="D49" s="0">
-        <v>0.2813336151652599</v>
+        <v>0.27454135898541232</v>
       </c>
       <c r="E49" s="0">
-        <v>2.8285644329183466</v>
+        <v>2.8050500558536942</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.026444817455324527</v>
+        <v>-0.032516496541099116</v>
       </c>
       <c r="G49" s="0">
-        <v>0.092010855018645019</v>
+        <v>0.10393797345587204</v>
       </c>
       <c r="H49" s="0">
-        <v>0.061815327287803971</v>
+        <v>0.026032383439329624</v>
       </c>
       <c r="I49" s="0">
-        <v>0.02899428450375624</v>
+        <v>0.0663209454252153</v>
       </c>
       <c r="J49" s="0">
-        <v>3.2001815271942871</v>
+        <v>3.2146729274886443</v>
       </c>
       <c r="K49" s="0">
-        <v>0.016362517734804537</v>
+        <v>0.024532222501170195</v>
       </c>
       <c r="L49" s="0">
-        <v>2.769760547531158</v>
+        <v>2.8114422713553093</v>
       </c>
       <c r="M49" s="0">
-        <v>0.10772553581989633</v>
+        <v>0.15905558204599074</v>
       </c>
       <c r="N49" s="0">
-        <v>-0.025416530106738632</v>
+        <v>0.1606457983440594</v>
       </c>
       <c r="O49" s="0">
-        <v>5.1200266129518024</v>
+        <v>5.0347342654946843</v>
       </c>
       <c r="P49" s="0">
-        <v>0.16943535332385098</v>
+        <v>0.20839003562931618</v>
       </c>
     </row>
     <row r="50">
@@ -2585,49 +2585,49 @@
         <v>32509</v>
       </c>
       <c r="B50" s="0">
-        <v>-0.11973760814951664</v>
+        <v>-0.10501375538058152</v>
       </c>
       <c r="C50" s="0">
-        <v>0.1168052578027122</v>
+        <v>0.13613701787562665</v>
       </c>
       <c r="D50" s="0">
-        <v>0.12245034103349958</v>
+        <v>0.1379554228283453</v>
       </c>
       <c r="E50" s="0">
-        <v>2.8142534725999586</v>
+        <v>2.7936272353852512</v>
       </c>
       <c r="F50" s="0">
-        <v>-0.023237339486244738</v>
+        <v>-0.029351619260320892</v>
       </c>
       <c r="G50" s="0">
-        <v>0.11615579586021357</v>
+        <v>0.12307769676289271</v>
       </c>
       <c r="H50" s="0">
-        <v>0.051315977229647231</v>
+        <v>0.021169546014556083</v>
       </c>
       <c r="I50" s="0">
-        <v>0.028621253322779636</v>
+        <v>0.042801203725066329</v>
       </c>
       <c r="J50" s="0">
-        <v>3.2173887707068416</v>
+        <v>3.2338034177200674</v>
       </c>
       <c r="K50" s="0">
-        <v>0.01556070764842976</v>
+        <v>0.022456040116599962</v>
       </c>
       <c r="L50" s="0">
-        <v>3.7489451153460895</v>
+        <v>3.7718514104201746</v>
       </c>
       <c r="M50" s="0">
-        <v>0.077208707774087726</v>
+        <v>0.13717849416019501</v>
       </c>
       <c r="N50" s="0">
-        <v>-0.01656347710896594</v>
+        <v>0.16520185076390642</v>
       </c>
       <c r="O50" s="0">
-        <v>5.1679809427876835</v>
+        <v>5.0835891436881155</v>
       </c>
       <c r="P50" s="0">
-        <v>0.15471499705786296</v>
+        <v>0.18905804650244168</v>
       </c>
     </row>
     <row r="51">
@@ -2635,49 +2635,49 @@
         <v>32599</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.1538295303717469</v>
+        <v>-0.13500472212277098</v>
       </c>
       <c r="C51" s="0">
-        <v>0.27892794422439349</v>
+        <v>0.28830849514991452</v>
       </c>
       <c r="D51" s="0">
-        <v>0.30267429503899501</v>
+        <v>0.29310721026603986</v>
       </c>
       <c r="E51" s="0">
-        <v>2.7688950838931317</v>
+        <v>2.7471122016131311</v>
       </c>
       <c r="F51" s="0">
-        <v>-0.02038100602011008</v>
+        <v>-0.026644675857736156</v>
       </c>
       <c r="G51" s="0">
-        <v>0.15560688191784425</v>
+        <v>0.17248684408299469</v>
       </c>
       <c r="H51" s="0">
-        <v>0.16127714714653979</v>
+        <v>0.14564918132375465</v>
       </c>
       <c r="I51" s="0">
-        <v>0.14697029756711438</v>
+        <v>0.1753050636611817</v>
       </c>
       <c r="J51" s="0">
-        <v>3.234844434466047</v>
+        <v>3.2450882253083551</v>
       </c>
       <c r="K51" s="0">
-        <v>0.014927721577487379</v>
+        <v>0.020687006589028806</v>
       </c>
       <c r="L51" s="0">
-        <v>3.8189669370356727</v>
+        <v>3.8401190886829033</v>
       </c>
       <c r="M51" s="0">
-        <v>0.15659125971122206</v>
+        <v>0.18683206199225191</v>
       </c>
       <c r="N51" s="0">
-        <v>0.046467492092994639</v>
+        <v>0.2391546582560522</v>
       </c>
       <c r="O51" s="0">
-        <v>5.2024459206309235</v>
+        <v>5.1153180478117637</v>
       </c>
       <c r="P51" s="0">
-        <v>0.14067835994658734</v>
+        <v>0.17318671626936405</v>
       </c>
     </row>
     <row r="52">
@@ -2685,49 +2685,49 @@
         <v>32690</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.20904250534518323</v>
+        <v>-0.19745957557407007</v>
       </c>
       <c r="C52" s="0">
-        <v>-0.014249524600934996</v>
+        <v>0.035255919200394906</v>
       </c>
       <c r="D52" s="0">
-        <v>0.011795638759686592</v>
+        <v>0.012908584025213554</v>
       </c>
       <c r="E52" s="0">
-        <v>2.749814109838014</v>
+        <v>2.7252825476130105</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.018218872489135264</v>
+        <v>-0.023605547789491137</v>
       </c>
       <c r="G52" s="0">
-        <v>0.17836458673041447</v>
+        <v>0.19271562336398051</v>
       </c>
       <c r="H52" s="0">
-        <v>0.044790516148217899</v>
+        <v>0.024061988447720416</v>
       </c>
       <c r="I52" s="0">
-        <v>0.026592022788257959</v>
+        <v>0.047818861047895692</v>
       </c>
       <c r="J52" s="0">
-        <v>3.2390967904603514</v>
+        <v>3.2557432610972534</v>
       </c>
       <c r="K52" s="0">
-        <v>0.01394610976508388</v>
+        <v>0.018834075109919732</v>
       </c>
       <c r="L52" s="0">
-        <v>3.2604555641378541</v>
+        <v>3.2935749230470113</v>
       </c>
       <c r="M52" s="0">
-        <v>0.10742864284392031</v>
+        <v>0.12763548070300815</v>
       </c>
       <c r="N52" s="0">
-        <v>-0.011751956841938672</v>
+        <v>0.19477645688816037</v>
       </c>
       <c r="O52" s="0">
-        <v>5.2456965311091412</v>
+        <v>5.156629544378962</v>
       </c>
       <c r="P52" s="0">
-        <v>0.1292530346281856</v>
+        <v>0.15751803459347002</v>
       </c>
     </row>
     <row r="53">
@@ -2735,49 +2735,49 @@
         <v>32782</v>
       </c>
       <c r="B53" s="0">
-        <v>-0.25731780018558364</v>
+        <v>-0.26027192339255129</v>
       </c>
       <c r="C53" s="0">
-        <v>-0.40724762102629186</v>
+        <v>-0.2972033625743441</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.31196090659453485</v>
+        <v>-0.35293763433612224</v>
       </c>
       <c r="E53" s="0">
-        <v>2.7305439259683375</v>
+        <v>2.7085099256284373</v>
       </c>
       <c r="F53" s="0">
-        <v>-0.016038221685285084</v>
+        <v>-0.020771538542911923</v>
       </c>
       <c r="G53" s="0">
-        <v>0.16985585000961007</v>
+        <v>0.18551684730666806</v>
       </c>
       <c r="H53" s="0">
-        <v>0.0033611662115174534</v>
+        <v>0.029530546343110364</v>
       </c>
       <c r="I53" s="0">
-        <v>0.042083779944912872</v>
+        <v>0.02353659567552701</v>
       </c>
       <c r="J53" s="0">
-        <v>3.2480814119465031</v>
+        <v>3.2667751066651078</v>
       </c>
       <c r="K53" s="0">
-        <v>0.012865574272105563</v>
+        <v>0.017690227143187156</v>
       </c>
       <c r="L53" s="0">
-        <v>2.9992049026249745</v>
+        <v>3.0127213190934681</v>
       </c>
       <c r="M53" s="0">
-        <v>0.013075317441599704</v>
+        <v>0.047165518288013859</v>
       </c>
       <c r="N53" s="0">
-        <v>-0.078648490338320373</v>
+        <v>0.030237003948164087</v>
       </c>
       <c r="O53" s="0">
-        <v>5.2847843792725833</v>
+        <v>5.2004006698929599</v>
       </c>
       <c r="P53" s="0">
-        <v>0.11811811127510383</v>
+        <v>0.14389360021568054</v>
       </c>
     </row>
     <row r="54">
@@ -2785,49 +2785,49 @@
         <v>32874</v>
       </c>
       <c r="B54" s="0">
-        <v>-0.29064971821539942</v>
+        <v>-0.29227475465479147</v>
       </c>
       <c r="C54" s="0">
-        <v>-0.19136253955506954</v>
+        <v>-0.16132639317865005</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.142410471134022</v>
+        <v>-0.15769960754575535</v>
       </c>
       <c r="E54" s="0">
-        <v>2.6914464687459896</v>
+        <v>2.6724616843199658</v>
       </c>
       <c r="F54" s="0">
-        <v>-0.014037233305298887</v>
+        <v>-0.01886719271099958</v>
       </c>
       <c r="G54" s="0">
-        <v>0.16371916715720997</v>
+        <v>0.18398792910538744</v>
       </c>
       <c r="H54" s="0">
-        <v>0.035883946093362526</v>
+        <v>0.049130465486619562</v>
       </c>
       <c r="I54" s="0">
-        <v>0.056483047284327667</v>
+        <v>0.057403491145580188</v>
       </c>
       <c r="J54" s="0">
-        <v>3.2524198586709514</v>
+        <v>3.2735138729253497</v>
       </c>
       <c r="K54" s="0">
-        <v>0.011690823688469104</v>
+        <v>0.016234802707194275</v>
       </c>
       <c r="L54" s="0">
-        <v>2.5692533063060141</v>
+        <v>2.5990679273920612</v>
       </c>
       <c r="M54" s="0">
-        <v>0.021518879595719208</v>
+        <v>0.064464008117460433</v>
       </c>
       <c r="N54" s="0">
-        <v>-0.06773068934325524</v>
+        <v>0.044011043270736586</v>
       </c>
       <c r="O54" s="0">
-        <v>5.3165101902777749</v>
+        <v>5.2214811439941666</v>
       </c>
       <c r="P54" s="0">
-        <v>0.10920012536489368</v>
+        <v>0.13203194237868593</v>
       </c>
     </row>
     <row r="55">
@@ -2835,49 +2835,49 @@
         <v>32964</v>
       </c>
       <c r="B55" s="0">
-        <v>-0.3096174334694628</v>
+        <v>-0.30686739429556043</v>
       </c>
       <c r="C55" s="0">
-        <v>-0.36860169307071755</v>
+        <v>-0.31027127364828311</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.30034932541651915</v>
+        <v>-0.30443722110897664</v>
       </c>
       <c r="E55" s="0">
-        <v>2.6839667459417065</v>
+        <v>2.6636499982656403</v>
       </c>
       <c r="F55" s="0">
-        <v>-0.012805597127125928</v>
+        <v>-0.016921262394111042</v>
       </c>
       <c r="G55" s="0">
-        <v>0.1527252410168006</v>
+        <v>0.16861712858803735</v>
       </c>
       <c r="H55" s="0">
-        <v>0.13145720067069719</v>
+        <v>0.16428241038159208</v>
       </c>
       <c r="I55" s="0">
-        <v>0.15829773472710273</v>
+        <v>0.13254012871327572</v>
       </c>
       <c r="J55" s="0">
-        <v>3.2525737719145611</v>
+        <v>3.2756589751859169</v>
       </c>
       <c r="K55" s="0">
-        <v>0.010565448246173087</v>
+        <v>0.015775898046036598</v>
       </c>
       <c r="L55" s="0">
-        <v>2.6504033914799723</v>
+        <v>2.6803829672251958</v>
       </c>
       <c r="M55" s="0">
-        <v>-0.019089287238622826</v>
+        <v>-0.024354236480084276</v>
       </c>
       <c r="N55" s="0">
-        <v>-0.094338287229014717</v>
+        <v>-0.030251177484213597</v>
       </c>
       <c r="O55" s="0">
-        <v>5.3442146923432121</v>
+        <v>5.2506288387709397</v>
       </c>
       <c r="P55" s="0">
-        <v>0.10033519683301761</v>
+        <v>0.12137949078310042</v>
       </c>
     </row>
     <row r="56">
@@ -2885,49 +2885,49 @@
         <v>33055</v>
       </c>
       <c r="B56" s="0">
-        <v>-0.30442568179766571</v>
+        <v>-0.2996807088668304</v>
       </c>
       <c r="C56" s="0">
-        <v>-0.41568830147800251</v>
+        <v>-0.44601422959059733</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.39266162743227284</v>
+        <v>-0.36764657173091497</v>
       </c>
       <c r="E56" s="0">
-        <v>2.6939036501775133</v>
+        <v>2.6714701485333361</v>
       </c>
       <c r="F56" s="0">
-        <v>-0.011829140669257238</v>
+        <v>-0.015520649271073503</v>
       </c>
       <c r="G56" s="0">
-        <v>0.14765160581937387</v>
+        <v>0.16524712359285626</v>
       </c>
       <c r="H56" s="0">
-        <v>0.42880971930204548</v>
+        <v>0.47692852332580954</v>
       </c>
       <c r="I56" s="0">
-        <v>0.47799652717968666</v>
+        <v>0.44877135944407365</v>
       </c>
       <c r="J56" s="0">
-        <v>3.2526403765785119</v>
+        <v>3.276009184389471</v>
       </c>
       <c r="K56" s="0">
-        <v>0.010606418258120105</v>
+        <v>0.014379558785468318</v>
       </c>
       <c r="L56" s="0">
-        <v>2.5205609488786838</v>
+        <v>2.5444999096295113</v>
       </c>
       <c r="M56" s="0">
-        <v>-0.044160633247105736</v>
+        <v>-0.025687949072353101</v>
       </c>
       <c r="N56" s="0">
-        <v>-0.085955327380144164</v>
+        <v>-0.036473456955622492</v>
       </c>
       <c r="O56" s="0">
-        <v>5.3730259164574345</v>
+        <v>5.2845966315762407</v>
       </c>
       <c r="P56" s="0">
-        <v>0.092730220293198468</v>
+        <v>0.11177956022344165</v>
       </c>
     </row>
     <row r="57">
@@ -2935,49 +2935,49 @@
         <v>33147</v>
       </c>
       <c r="B57" s="0">
-        <v>-0.29973416731702329</v>
+        <v>-0.30479173999285086</v>
       </c>
       <c r="C57" s="0">
-        <v>-1.4078520524332829</v>
+        <v>-1.306230497332548</v>
       </c>
       <c r="D57" s="0">
-        <v>-1.2713970187796184</v>
+        <v>-1.3105992870354382</v>
       </c>
       <c r="E57" s="0">
-        <v>2.5233730395933502</v>
+        <v>2.5165920699899011</v>
       </c>
       <c r="F57" s="0">
-        <v>-0.010882305192384839</v>
+        <v>-0.013950669634640327</v>
       </c>
       <c r="G57" s="0">
-        <v>0.13889253625099326</v>
+        <v>0.153483472891493</v>
       </c>
       <c r="H57" s="0">
-        <v>0.39683165296618395</v>
+        <v>0.47635028174292415</v>
       </c>
       <c r="I57" s="0">
-        <v>0.54667936912277959</v>
+        <v>0.43831152011214497</v>
       </c>
       <c r="J57" s="0">
-        <v>3.2556084746344047</v>
+        <v>3.2756123123755807</v>
       </c>
       <c r="K57" s="0">
-        <v>0.010251930185531551</v>
+        <v>0.013353965705059187</v>
       </c>
       <c r="L57" s="0">
-        <v>2.639464895370804</v>
+        <v>2.6984751316325406</v>
       </c>
       <c r="M57" s="0">
-        <v>-0.27914130858681696</v>
+        <v>-0.24198812129984951</v>
       </c>
       <c r="N57" s="0">
-        <v>-0.26341494325247655</v>
+        <v>-0.28194172328282258</v>
       </c>
       <c r="O57" s="0">
-        <v>5.3672447446199234</v>
+        <v>5.2841521820568174</v>
       </c>
       <c r="P57" s="0">
-        <v>0.084188480613662992</v>
+        <v>0.10246857771293968</v>
       </c>
     </row>
     <row r="58">
@@ -2985,49 +2985,49 @@
         <v>33239</v>
       </c>
       <c r="B58" s="0">
-        <v>-0.2935419607110854</v>
+        <v>-0.29809323426733658</v>
       </c>
       <c r="C58" s="0">
-        <v>-1.8422331252796322</v>
+        <v>-1.7807028557904108</v>
       </c>
       <c r="D58" s="0">
-        <v>-1.6563461088500202</v>
+        <v>-1.7115271682798676</v>
       </c>
       <c r="E58" s="0">
-        <v>2.475110195456633</v>
+        <v>2.4706061117369793</v>
       </c>
       <c r="F58" s="0">
-        <v>-0.0099786221934116334</v>
+        <v>-0.013144495902212578</v>
       </c>
       <c r="G58" s="0">
-        <v>0.13768222519384707</v>
+        <v>0.15604287224777941</v>
       </c>
       <c r="H58" s="0">
-        <v>0.23578072068137113</v>
+        <v>0.41987141833946146</v>
       </c>
       <c r="I58" s="0">
-        <v>0.49369845117888628</v>
+        <v>0.3173793125994645</v>
       </c>
       <c r="J58" s="0">
-        <v>3.2449643564459318</v>
+        <v>3.263939048298643</v>
       </c>
       <c r="K58" s="0">
-        <v>0.0098187611287665101</v>
+        <v>0.012751244793005476</v>
       </c>
       <c r="L58" s="0">
-        <v>1.7590030726288362</v>
+        <v>1.8206072204551895</v>
       </c>
       <c r="M58" s="0">
-        <v>-0.44545978476782522</v>
+        <v>-0.41656055405406839</v>
       </c>
       <c r="N58" s="0">
-        <v>-0.42620458689681562</v>
+        <v>-0.4281480406504749</v>
       </c>
       <c r="O58" s="0">
-        <v>5.3594223959346632</v>
+        <v>5.2862659483332006</v>
       </c>
       <c r="P58" s="0">
-        <v>0.076205712431351269</v>
+        <v>0.094010357438696651</v>
       </c>
     </row>
     <row r="59">
@@ -3035,49 +3035,49 @@
         <v>33329</v>
       </c>
       <c r="B59" s="0">
-        <v>-0.30352871362119105</v>
+        <v>-0.30919786805828303</v>
       </c>
       <c r="C59" s="0">
-        <v>-1.4978620986172038</v>
+        <v>-1.3160624639580107</v>
       </c>
       <c r="D59" s="0">
-        <v>-1.2711481123556323</v>
+        <v>-1.3768536754957323</v>
       </c>
       <c r="E59" s="0">
-        <v>2.513134727148719</v>
+        <v>2.5086916866513964</v>
       </c>
       <c r="F59" s="0">
-        <v>-0.0089776733462532659</v>
+        <v>-0.011963949231636815</v>
       </c>
       <c r="G59" s="0">
-        <v>0.10503372303534766</v>
+        <v>0.12397237429159014</v>
       </c>
       <c r="H59" s="0">
-        <v>-0.20605320494219101</v>
+        <v>-0.087657119081122503</v>
       </c>
       <c r="I59" s="0">
-        <v>-0.083779128541484782</v>
+        <v>-0.20250668350909956</v>
       </c>
       <c r="J59" s="0">
-        <v>3.2380452175125041</v>
+        <v>3.2542327666674531</v>
       </c>
       <c r="K59" s="0">
-        <v>0.0094638273862441887</v>
+        <v>0.011871148135078564</v>
       </c>
       <c r="L59" s="0">
-        <v>1.3786852102927152</v>
+        <v>1.4171209388375035</v>
       </c>
       <c r="M59" s="0">
-        <v>-0.52914794867151793</v>
+        <v>-0.43280007193241243</v>
       </c>
       <c r="N59" s="0">
-        <v>-0.43904587612780632</v>
+        <v>-0.48998068984083987</v>
       </c>
       <c r="O59" s="0">
-        <v>5.3637709681125205</v>
+        <v>5.2861436299564275</v>
       </c>
       <c r="P59" s="0">
-        <v>0.070222594649881981</v>
+        <v>0.086410647489988404</v>
       </c>
     </row>
     <row r="60">
@@ -3085,49 +3085,49 @@
         <v>33420</v>
       </c>
       <c r="B60" s="0">
-        <v>-0.28060204165320013</v>
+        <v>-0.2874514231174935</v>
       </c>
       <c r="C60" s="0">
-        <v>-0.79944593028150823</v>
+        <v>-0.69268121631004309</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.74841469574824648</v>
+        <v>-0.77663836291939692</v>
       </c>
       <c r="E60" s="0">
-        <v>2.5519006514885283</v>
+        <v>2.5379422056228398</v>
       </c>
       <c r="F60" s="0">
-        <v>-0.0083647217998469303</v>
+        <v>-0.011161188639743365</v>
       </c>
       <c r="G60" s="0">
-        <v>0.082333958291494813</v>
+        <v>0.096257944182648811</v>
       </c>
       <c r="H60" s="0">
-        <v>-0.65039032463323609</v>
+        <v>-0.51531456503579576</v>
       </c>
       <c r="I60" s="0">
-        <v>-0.53177737306800321</v>
+        <v>-0.63311673903086285</v>
       </c>
       <c r="J60" s="0">
-        <v>3.230912467969119</v>
+        <v>3.2501493646740318</v>
       </c>
       <c r="K60" s="0">
-        <v>0.0088952546056842129</v>
+        <v>0.010924369170272313</v>
       </c>
       <c r="L60" s="0">
-        <v>1.2206746867320182</v>
+        <v>1.2073258475165509</v>
       </c>
       <c r="M60" s="0">
-        <v>-0.49166502426090741</v>
+        <v>-0.37290257252460701</v>
       </c>
       <c r="N60" s="0">
-        <v>-0.3853866603521845</v>
+        <v>-0.46038420608664321</v>
       </c>
       <c r="O60" s="0">
-        <v>5.3756047798121038</v>
+        <v>5.304361505440693</v>
       </c>
       <c r="P60" s="0">
-        <v>0.064982900487731921</v>
+        <v>0.079030379868813241</v>
       </c>
     </row>
     <row r="61">
@@ -3135,49 +3135,49 @@
         <v>33512</v>
       </c>
       <c r="B61" s="0">
-        <v>-0.24704339470872544</v>
+        <v>-0.25693794226017141</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.31146580425367454</v>
+        <v>-0.2917007860455032</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.31302826369223513</v>
+        <v>-0.30957588136968672</v>
       </c>
       <c r="E61" s="0">
-        <v>2.556445934471399</v>
+        <v>2.5452207750958125</v>
       </c>
       <c r="F61" s="0">
-        <v>-0.0073141317763097125</v>
+        <v>-0.0097504183269084901</v>
       </c>
       <c r="G61" s="0">
-        <v>0.063336175426051966</v>
+        <v>0.077238814346053467</v>
       </c>
       <c r="H61" s="0">
-        <v>-0.58820238178755679</v>
+        <v>-0.49246493128218066</v>
       </c>
       <c r="I61" s="0">
-        <v>-0.46572847132450323</v>
+        <v>-0.57249078790675267</v>
       </c>
       <c r="J61" s="0">
-        <v>3.2301644168319212</v>
+        <v>3.2458976896934928</v>
       </c>
       <c r="K61" s="0">
-        <v>0.0087138887038521878</v>
+        <v>0.010317099048705515</v>
       </c>
       <c r="L61" s="0">
-        <v>0.39671149568468439</v>
+        <v>0.37089952680443938</v>
       </c>
       <c r="M61" s="0">
-        <v>-0.47553353161065409</v>
+        <v>-0.35094819072155925</v>
       </c>
       <c r="N61" s="0">
-        <v>-0.33805230655185808</v>
+        <v>-0.45328982006139984</v>
       </c>
       <c r="O61" s="0">
-        <v>5.3817815156088518</v>
+        <v>5.3178712406428232</v>
       </c>
       <c r="P61" s="0">
-        <v>0.059828272128482976</v>
+        <v>0.071690403013089488</v>
       </c>
     </row>
     <row r="62">
@@ -3185,49 +3185,49 @@
         <v>33604</v>
       </c>
       <c r="B62" s="0">
-        <v>-0.22285269433267507</v>
+        <v>-0.23356141167069883</v>
       </c>
       <c r="C62" s="0">
-        <v>-0.12685579490995602</v>
+        <v>-0.12533007862119117</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.12932307364348766</v>
+        <v>-0.12604918228950746</v>
       </c>
       <c r="E62" s="0">
-        <v>2.5831971138745002</v>
+        <v>2.5701221843018218</v>
       </c>
       <c r="F62" s="0">
-        <v>-0.0068732591101704557</v>
+        <v>-0.0090777116611805552</v>
       </c>
       <c r="G62" s="0">
-        <v>0.024387086607278161</v>
+        <v>0.034532031140618827</v>
       </c>
       <c r="H62" s="0">
-        <v>-0.5295670349668371</v>
+        <v>-0.42462117933103377</v>
       </c>
       <c r="I62" s="0">
-        <v>-0.41027700618145968</v>
+        <v>-0.50463165083395167</v>
       </c>
       <c r="J62" s="0">
-        <v>3.227081007213676</v>
+        <v>3.2449821877991596</v>
       </c>
       <c r="K62" s="0">
-        <v>0.0083877162382485215</v>
+        <v>0.0095878005712109436</v>
       </c>
       <c r="L62" s="0">
-        <v>-0.33637195443056178</v>
+        <v>-0.36507062733789997</v>
       </c>
       <c r="M62" s="0">
-        <v>-0.48263856623251511</v>
+        <v>-0.37175430284459632</v>
       </c>
       <c r="N62" s="0">
-        <v>-0.35348826590054738</v>
+        <v>-0.47600936987966991</v>
       </c>
       <c r="O62" s="0">
-        <v>5.3947965234317952</v>
+        <v>5.3231762797867521</v>
       </c>
       <c r="P62" s="0">
-        <v>0.055803407804212439</v>
+        <v>0.064943394896852441</v>
       </c>
     </row>
     <row r="63">
@@ -3235,49 +3235,49 @@
         <v>33695</v>
       </c>
       <c r="B63" s="0">
-        <v>-0.1822739460831076</v>
+        <v>-0.19051722264986226</v>
       </c>
       <c r="C63" s="0">
-        <v>0.164027271804634</v>
+        <v>0.15532523522417971</v>
       </c>
       <c r="D63" s="0">
-        <v>0.14702574572979643</v>
+        <v>0.17131910169715101</v>
       </c>
       <c r="E63" s="0">
-        <v>2.599336094925266</v>
+        <v>2.5866858274655429</v>
       </c>
       <c r="F63" s="0">
-        <v>-0.0062472763415419002</v>
+        <v>-0.0081515888317325279</v>
       </c>
       <c r="G63" s="0">
-        <v>-0.011459708261039443</v>
+        <v>-0.0055746836615636654</v>
       </c>
       <c r="H63" s="0">
-        <v>-0.48955646733359232</v>
+        <v>-0.40994090683644513</v>
       </c>
       <c r="I63" s="0">
-        <v>-0.41021837563962466</v>
+        <v>-0.45986365164108456</v>
       </c>
       <c r="J63" s="0">
-        <v>3.2316148467024295</v>
+        <v>3.2454053751127256</v>
       </c>
       <c r="K63" s="0">
-        <v>0.0078155573951697102</v>
+        <v>0.0090419992166847225</v>
       </c>
       <c r="L63" s="0">
-        <v>-0.63974370307250217</v>
+        <v>-0.65964549614087997</v>
       </c>
       <c r="M63" s="0">
-        <v>-0.43332780113153185</v>
+        <v>-0.33419368415354705</v>
       </c>
       <c r="N63" s="0">
-        <v>-0.34553337504673765</v>
+        <v>-0.4150199540187115</v>
       </c>
       <c r="O63" s="0">
-        <v>5.4075472175206603</v>
+        <v>5.3366449673854719</v>
       </c>
       <c r="P63" s="0">
-        <v>0.051712322862184301</v>
+        <v>0.059395828076265728</v>
       </c>
     </row>
     <row r="64">
@@ -3285,49 +3285,49 @@
         <v>33786</v>
       </c>
       <c r="B64" s="0">
-        <v>-0.13541912237119708</v>
+        <v>-0.1358819707509426</v>
       </c>
       <c r="C64" s="0">
-        <v>0.43299491131058254</v>
+        <v>0.40039870808973321</v>
       </c>
       <c r="D64" s="0">
-        <v>0.39584701264706396</v>
+        <v>0.43913549239546312</v>
       </c>
       <c r="E64" s="0">
-        <v>2.5926088405099392</v>
+        <v>2.5818402550418913</v>
       </c>
       <c r="F64" s="0">
-        <v>-0.0056927927159553873</v>
+        <v>-0.0071726080462998099</v>
       </c>
       <c r="G64" s="0">
-        <v>-0.041276300597589924</v>
+        <v>-0.03217297600252271</v>
       </c>
       <c r="H64" s="0">
-        <v>-0.50309826739802244</v>
+        <v>-0.45394907834387332</v>
       </c>
       <c r="I64" s="0">
-        <v>-0.47428419051739756</v>
+        <v>-0.49861750649067599</v>
       </c>
       <c r="J64" s="0">
-        <v>3.2317344881793044</v>
+        <v>3.2443997296482197</v>
       </c>
       <c r="K64" s="0">
-        <v>0.0072905071832576815</v>
+        <v>0.0086515474235864878</v>
       </c>
       <c r="L64" s="0">
-        <v>-1.263842319879569</v>
+        <v>-1.2761694291139074</v>
       </c>
       <c r="M64" s="0">
-        <v>-0.37135391102394422</v>
+        <v>-0.29289065315524787</v>
       </c>
       <c r="N64" s="0">
-        <v>-0.29541626289491418</v>
+        <v>-0.36468498836413688</v>
       </c>
       <c r="O64" s="0">
-        <v>5.4155255532085009</v>
+        <v>5.3559853090270906</v>
       </c>
       <c r="P64" s="0">
-        <v>0.047322744935410027</v>
+        <v>0.05467487084435</v>
       </c>
     </row>
     <row r="65">
@@ -3335,49 +3335,49 @@
         <v>33878</v>
       </c>
       <c r="B65" s="0">
-        <v>-0.094910330172484805</v>
+        <v>-0.092639971896934875</v>
       </c>
       <c r="C65" s="0">
-        <v>0.32321804279777366</v>
+        <v>0.28117092173923913</v>
       </c>
       <c r="D65" s="0">
-        <v>0.27525171787596314</v>
+        <v>0.32196332324727966</v>
       </c>
       <c r="E65" s="0">
-        <v>2.5878466682991341</v>
+        <v>2.5792791431930753</v>
       </c>
       <c r="F65" s="0">
-        <v>-0.0052169484822693494</v>
+        <v>-0.0065184306182322748</v>
       </c>
       <c r="G65" s="0">
-        <v>-0.069582855899683077</v>
+        <v>-0.062888667283747951</v>
       </c>
       <c r="H65" s="0">
-        <v>-0.38313463150291049</v>
+        <v>-0.34295809400937327</v>
       </c>
       <c r="I65" s="0">
-        <v>-0.35249982250247536</v>
+        <v>-0.3780748890699448</v>
       </c>
       <c r="J65" s="0">
-        <v>3.2307265409076491</v>
+        <v>3.2465419978016854</v>
       </c>
       <c r="K65" s="0">
-        <v>0.0066729422573561592</v>
+        <v>0.0078737348590474463</v>
       </c>
       <c r="L65" s="0">
-        <v>-1.4636246323505937</v>
+        <v>-1.4895964802870392</v>
       </c>
       <c r="M65" s="0">
-        <v>-0.37713774629647268</v>
+        <v>-0.29744395524344941</v>
       </c>
       <c r="N65" s="0">
-        <v>-0.29621435959826636</v>
+        <v>-0.36460451960024343</v>
       </c>
       <c r="O65" s="0">
-        <v>5.4185666194294555</v>
+        <v>5.3690910800999054</v>
       </c>
       <c r="P65" s="0">
-        <v>0.042280810810351371</v>
+        <v>0.051323941206110842</v>
       </c>
     </row>
     <row r="66">
@@ -3385,49 +3385,49 @@
         <v>33970</v>
       </c>
       <c r="B66" s="0">
-        <v>-0.042600696137272021</v>
+        <v>-0.042834035313402206</v>
       </c>
       <c r="C66" s="0">
-        <v>-0.20921316433039258</v>
+        <v>-0.20746181405097452</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.20622942962411589</v>
+        <v>-0.20047204418674419</v>
       </c>
       <c r="E66" s="0">
-        <v>2.6058272703517384</v>
+        <v>2.5951021763515394</v>
       </c>
       <c r="F66" s="0">
-        <v>-0.0047293153032739507</v>
+        <v>-0.0059064761836776225</v>
       </c>
       <c r="G66" s="0">
-        <v>-0.092669291017796016</v>
+        <v>-0.088682561538931559</v>
       </c>
       <c r="H66" s="0">
-        <v>-0.3811214926798403</v>
+        <v>-0.3099181386693145</v>
       </c>
       <c r="I66" s="0">
-        <v>-0.33417192781484129</v>
+        <v>-0.37367726543126428</v>
       </c>
       <c r="J66" s="0">
-        <v>3.2335185045162533</v>
+        <v>3.2489363802031206</v>
       </c>
       <c r="K66" s="0">
-        <v>0.0062558075268273703</v>
+        <v>0.0072548537484865673</v>
       </c>
       <c r="L66" s="0">
-        <v>-1.1910012423450227</v>
+        <v>-1.2050543599002239</v>
       </c>
       <c r="M66" s="0">
-        <v>-0.54845870642142835</v>
+        <v>-0.4282923843174522</v>
       </c>
       <c r="N66" s="0">
-        <v>-0.43965515751617579</v>
+        <v>-0.50990167849566514</v>
       </c>
       <c r="O66" s="0">
-        <v>5.4287441196683162</v>
+        <v>5.3745483350415979</v>
       </c>
       <c r="P66" s="0">
-        <v>0.038838238439182521</v>
+        <v>0.047322980614454002</v>
       </c>
     </row>
     <row r="67">
@@ -3435,49 +3435,49 @@
         <v>34060</v>
       </c>
       <c r="B67" s="0">
-        <v>0.0079280908303444256</v>
+        <v>0.0093624929386949933</v>
       </c>
       <c r="C67" s="0">
-        <v>-0.45938077247813502</v>
+        <v>-0.42919788181572299</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.40798134645086515</v>
+        <v>-0.41723948798848565</v>
       </c>
       <c r="E67" s="0">
-        <v>2.6122925081822381</v>
+        <v>2.6026425711659096</v>
       </c>
       <c r="F67" s="0">
-        <v>-0.0043735984952101153</v>
+        <v>-0.0053223572815437308</v>
       </c>
       <c r="G67" s="0">
-        <v>-0.088314811695758957</v>
+        <v>-0.084273098397543544</v>
       </c>
       <c r="H67" s="0">
-        <v>-0.38803652143621969</v>
+        <v>-0.32086791833988082</v>
       </c>
       <c r="I67" s="0">
-        <v>-0.36141622897540188</v>
+        <v>-0.41949608581686337</v>
       </c>
       <c r="J67" s="0">
-        <v>3.2367174263241694</v>
+        <v>3.2514262495175332</v>
       </c>
       <c r="K67" s="0">
-        <v>0.0059727789857603568</v>
+        <v>0.006817707333523112</v>
       </c>
       <c r="L67" s="0">
-        <v>-1.0098200215043109</v>
+        <v>-1.0415106764688835</v>
       </c>
       <c r="M67" s="0">
-        <v>-0.69320749732284681</v>
+        <v>-0.53919983137088745</v>
       </c>
       <c r="N67" s="0">
-        <v>-0.5543633598017097</v>
+        <v>-0.62021306982949587</v>
       </c>
       <c r="O67" s="0">
-        <v>5.4354649619170736</v>
+        <v>5.3808434970578922</v>
       </c>
       <c r="P67" s="0">
-        <v>0.035526038892815942</v>
+        <v>0.04324150079690392</v>
       </c>
     </row>
     <row r="68">
@@ -3485,49 +3485,49 @@
         <v>34151</v>
       </c>
       <c r="B68" s="0">
-        <v>0.039105920113503612</v>
+        <v>0.040090478790608994</v>
       </c>
       <c r="C68" s="0">
-        <v>-0.76523106182543954</v>
+        <v>-0.70457499374745303</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.64085146424999417</v>
+        <v>-0.67498751872831653</v>
       </c>
       <c r="E68" s="0">
-        <v>2.6240900934038782</v>
+        <v>2.6165375789303322</v>
       </c>
       <c r="F68" s="0">
-        <v>-0.0040130142184794867</v>
+        <v>-0.0049965360573310299</v>
       </c>
       <c r="G68" s="0">
-        <v>-0.081208889376283774</v>
+        <v>-0.078038083938124572</v>
       </c>
       <c r="H68" s="0">
-        <v>-0.57599339439790942</v>
+        <v>-0.52613063096886292</v>
       </c>
       <c r="I68" s="0">
-        <v>-0.60675185410872023</v>
+        <v>-0.63052269363050173</v>
       </c>
       <c r="J68" s="0">
-        <v>3.2383286471337378</v>
+        <v>3.255427666105994</v>
       </c>
       <c r="K68" s="0">
-        <v>0.0055885311892939892</v>
+        <v>0.0063925961106538918</v>
       </c>
       <c r="L68" s="0">
-        <v>-0.59394931553886954</v>
+        <v>-0.59120836997834281</v>
       </c>
       <c r="M68" s="0">
-        <v>-0.86131602524952511</v>
+        <v>-0.7205233207197661</v>
       </c>
       <c r="N68" s="0">
-        <v>-0.72478663708081226</v>
+        <v>-0.83418590526966296</v>
       </c>
       <c r="O68" s="0">
-        <v>5.4463321252520256</v>
+        <v>5.3926863715246762</v>
       </c>
       <c r="P68" s="0">
-        <v>0.03232937153816224</v>
+        <v>0.040233310670144795</v>
       </c>
     </row>
     <row r="69">
@@ -3535,49 +3535,49 @@
         <v>34243</v>
       </c>
       <c r="B69" s="0">
-        <v>0.060386903501563532</v>
+        <v>0.065193815900257468</v>
       </c>
       <c r="C69" s="0">
-        <v>-0.1558816182621921</v>
+        <v>-0.14976627368162296</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.15071538846218524</v>
+        <v>-0.14510901611117782</v>
       </c>
       <c r="E69" s="0">
-        <v>2.634279498223699</v>
+        <v>2.6280207866004304</v>
       </c>
       <c r="F69" s="0">
-        <v>-0.0038251037059134456</v>
+        <v>-0.0048735149202754086</v>
       </c>
       <c r="G69" s="0">
-        <v>-0.067041864441389237</v>
+        <v>-0.063876522756226128</v>
       </c>
       <c r="H69" s="0">
-        <v>-0.55155011556295885</v>
+        <v>-0.4967260129973361</v>
       </c>
       <c r="I69" s="0">
-        <v>-0.52826020380420968</v>
+        <v>-0.56547237863383226</v>
       </c>
       <c r="J69" s="0">
-        <v>3.2459689509321588</v>
+        <v>3.2607796970201357</v>
       </c>
       <c r="K69" s="0">
-        <v>0.0051726318499533495</v>
+        <v>0.0063193820498186979</v>
       </c>
       <c r="L69" s="0">
-        <v>-0.81750805501801627</v>
+        <v>-0.82459711853559337</v>
       </c>
       <c r="M69" s="0">
-        <v>-0.78432330926682958</v>
+        <v>-0.63649485740629119</v>
       </c>
       <c r="N69" s="0">
-        <v>-0.65202879806510694</v>
+        <v>-0.73120079927567416</v>
       </c>
       <c r="O69" s="0">
-        <v>5.4566018729601629</v>
+        <v>5.4037381900406132</v>
       </c>
       <c r="P69" s="0">
-        <v>0.029959679191895669</v>
+        <v>0.036613942290560607</v>
       </c>
     </row>
     <row r="70">
@@ -3585,49 +3585,49 @@
         <v>34335</v>
       </c>
       <c r="B70" s="0">
-        <v>0.059874010092911462</v>
+        <v>0.0652666372544492</v>
       </c>
       <c r="C70" s="0">
-        <v>0.01729069376087683</v>
+        <v>0.023370722641359528</v>
       </c>
       <c r="D70" s="0">
-        <v>0.01530243130835722</v>
+        <v>0.031654696321379197</v>
       </c>
       <c r="E70" s="0">
-        <v>2.6708830715578329</v>
+        <v>2.6656567455257321</v>
       </c>
       <c r="F70" s="0">
-        <v>-0.0034703390636292063</v>
+        <v>-0.0045261209896993119</v>
       </c>
       <c r="G70" s="0">
-        <v>-0.061270618379354769</v>
+        <v>-0.059324755593453481</v>
       </c>
       <c r="H70" s="0">
-        <v>-0.66602796992371205</v>
+        <v>-0.6189682580317506</v>
       </c>
       <c r="I70" s="0">
-        <v>-0.63045981810002716</v>
+        <v>-0.66646691581109352</v>
       </c>
       <c r="J70" s="0">
-        <v>3.2553793595169127</v>
+        <v>3.2647403424660384</v>
       </c>
       <c r="K70" s="0">
-        <v>0.0052398738527489157</v>
+        <v>0.0057623599613691612</v>
       </c>
       <c r="L70" s="0">
-        <v>-0.5625707075351597</v>
+        <v>-0.54146375807851799</v>
       </c>
       <c r="M70" s="0">
-        <v>-0.76835026730388134</v>
+        <v>-0.6838374435955572</v>
       </c>
       <c r="N70" s="0">
-        <v>-0.65562793146489318</v>
+        <v>-0.7349089669415636</v>
       </c>
       <c r="O70" s="0">
-        <v>5.4687894758287339</v>
+        <v>5.4208726497735782</v>
       </c>
       <c r="P70" s="0">
-        <v>0.026967608794941422</v>
+        <v>0.033835086536573647</v>
       </c>
     </row>
     <row r="71">
@@ -3635,49 +3635,49 @@
         <v>34425</v>
       </c>
       <c r="B71" s="0">
-        <v>0.070326901921308582</v>
+        <v>0.073417250594167344</v>
       </c>
       <c r="C71" s="0">
-        <v>0.46707100446206368</v>
+        <v>0.43405044554813499</v>
       </c>
       <c r="D71" s="0">
-        <v>0.42819021771518856</v>
+        <v>0.46357800101419594</v>
       </c>
       <c r="E71" s="0">
-        <v>2.7018113506411963</v>
+        <v>2.693850483229574</v>
       </c>
       <c r="F71" s="0">
-        <v>-0.0031816050183593536</v>
+        <v>-0.0042045602863924648</v>
       </c>
       <c r="G71" s="0">
-        <v>-0.04500905300611413</v>
+        <v>-0.04573475194219153</v>
       </c>
       <c r="H71" s="0">
-        <v>-0.61969453621816284</v>
+        <v>-0.59444880135992251</v>
       </c>
       <c r="I71" s="0">
-        <v>-0.60817864451294312</v>
+        <v>-0.59498006142281856</v>
       </c>
       <c r="J71" s="0">
-        <v>3.2612234079656868</v>
+        <v>3.2705908327134985</v>
       </c>
       <c r="K71" s="0">
-        <v>0.0049218868335773585</v>
+        <v>0.0052499179992708386</v>
       </c>
       <c r="L71" s="0">
-        <v>-0.031971227299901428</v>
+        <v>-0.012668039514693946</v>
       </c>
       <c r="M71" s="0">
-        <v>-0.64882702763892408</v>
+        <v>-0.59022832404217929</v>
       </c>
       <c r="N71" s="0">
-        <v>-0.59208992004150662</v>
+        <v>-0.64886889180023477</v>
       </c>
       <c r="O71" s="0">
-        <v>5.4891018734779351</v>
+        <v>5.4449817135940322</v>
       </c>
       <c r="P71" s="0">
-        <v>0.025633714970767045</v>
+        <v>0.03132921346492433</v>
       </c>
     </row>
     <row r="72">
@@ -3685,49 +3685,49 @@
         <v>34516</v>
       </c>
       <c r="B72" s="0">
-        <v>0.07244768171496746</v>
+        <v>0.078531593658401261</v>
       </c>
       <c r="C72" s="0">
-        <v>0.064265748968517972</v>
+        <v>0.062862634475940649</v>
       </c>
       <c r="D72" s="0">
-        <v>0.044422892596257757</v>
+        <v>0.070514625094645594</v>
       </c>
       <c r="E72" s="0">
-        <v>2.6979183177325972</v>
+        <v>2.6900975404152976</v>
       </c>
       <c r="F72" s="0">
-        <v>-0.0030649850719133456</v>
+        <v>-0.0038971575038215284</v>
       </c>
       <c r="G72" s="0">
-        <v>-0.02171635225261553</v>
+        <v>-0.025223956681380236</v>
       </c>
       <c r="H72" s="0">
-        <v>-0.58287428822513832</v>
+        <v>-0.52673052518185792</v>
       </c>
       <c r="I72" s="0">
-        <v>-0.57013299339579748</v>
+        <v>-0.5710007191814912</v>
       </c>
       <c r="J72" s="0">
-        <v>3.2712478133042349</v>
+        <v>3.2816993695598065</v>
       </c>
       <c r="K72" s="0">
-        <v>0.0046833310662095073</v>
+        <v>0.0047453203655698053</v>
       </c>
       <c r="L72" s="0">
-        <v>0.71548203517984466</v>
+        <v>0.74536415021941971</v>
       </c>
       <c r="M72" s="0">
-        <v>-0.76730557250101517</v>
+        <v>-0.67248139042055632</v>
       </c>
       <c r="N72" s="0">
-        <v>-0.68042465270711039</v>
+        <v>-0.7444040604776665</v>
       </c>
       <c r="O72" s="0">
-        <v>5.5080939054101057</v>
+        <v>5.4613825091580406</v>
       </c>
       <c r="P72" s="0">
-        <v>0.02403225860922004</v>
+        <v>0.028862510786618865</v>
       </c>
     </row>
     <row r="73">
@@ -3735,49 +3735,49 @@
         <v>34608</v>
       </c>
       <c r="B73" s="0">
-        <v>0.076696742190078895</v>
+        <v>0.076234959831924423</v>
       </c>
       <c r="C73" s="0">
-        <v>0.14638273086514866</v>
+        <v>0.14767675051680795</v>
       </c>
       <c r="D73" s="0">
-        <v>0.1349913321739428</v>
+        <v>0.1534494393453123</v>
       </c>
       <c r="E73" s="0">
-        <v>2.6926608509296308</v>
+        <v>2.6818474321157098</v>
       </c>
       <c r="F73" s="0">
-        <v>-0.0028261202156386993</v>
+        <v>-0.0035198001170709935</v>
       </c>
       <c r="G73" s="0">
-        <v>0.007779142546352015</v>
+        <v>0.007137028587730597</v>
       </c>
       <c r="H73" s="0">
-        <v>-0.56693689678485315</v>
+        <v>-0.51464608040904514</v>
       </c>
       <c r="I73" s="0">
-        <v>-0.55932608125570416</v>
+        <v>-0.53944929571453715</v>
       </c>
       <c r="J73" s="0">
-        <v>3.2795393180976502</v>
+        <v>3.2893939363590281</v>
       </c>
       <c r="K73" s="0">
-        <v>0.0043695358819220006</v>
+        <v>0.0045020947641589886</v>
       </c>
       <c r="L73" s="0">
-        <v>1.3721152927717268</v>
+        <v>1.4252297461612866</v>
       </c>
       <c r="M73" s="0">
-        <v>-0.73950737011891887</v>
+        <v>-0.67866070036042836</v>
       </c>
       <c r="N73" s="0">
-        <v>-0.68579390265193796</v>
+        <v>-0.72264175138433528</v>
       </c>
       <c r="O73" s="0">
-        <v>5.5279656518383371</v>
+        <v>5.4714173941147397</v>
       </c>
       <c r="P73" s="0">
-        <v>0.02230356101120607</v>
+        <v>0.026249684851866843</v>
       </c>
     </row>
     <row r="74">
@@ -3785,49 +3785,49 @@
         <v>34700</v>
       </c>
       <c r="B74" s="0">
-        <v>0.061213194340911443</v>
+        <v>0.058539608887119253</v>
       </c>
       <c r="C74" s="0">
-        <v>-0.38506543939553806</v>
+        <v>-0.34369921769362921</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.32282985677842052</v>
+        <v>-0.32815662081107266</v>
       </c>
       <c r="E74" s="0">
-        <v>2.6919677645981688</v>
+        <v>2.6812639767476023</v>
       </c>
       <c r="F74" s="0">
-        <v>-0.0026791234574196211</v>
+        <v>-0.0032610112613495517</v>
       </c>
       <c r="G74" s="0">
-        <v>0.042437378131273358</v>
+        <v>0.041052196952547498</v>
       </c>
       <c r="H74" s="0">
-        <v>-0.47839411367157203</v>
+        <v>-0.44971604358725314</v>
       </c>
       <c r="I74" s="0">
-        <v>-0.49593654087838346</v>
+        <v>-0.5272603505861897</v>
       </c>
       <c r="J74" s="0">
-        <v>3.2888922330915706</v>
+        <v>3.2935397802867334</v>
       </c>
       <c r="K74" s="0">
-        <v>0.0040381710941068813</v>
+        <v>0.0041555875730182774</v>
       </c>
       <c r="L74" s="0">
-        <v>2.3115271232433616</v>
+        <v>2.3523079454460571</v>
       </c>
       <c r="M74" s="0">
-        <v>-0.95080464150976352</v>
+        <v>-0.82135618110073771</v>
       </c>
       <c r="N74" s="0">
-        <v>-0.82330227144002643</v>
+        <v>-0.87772313980252759</v>
       </c>
       <c r="O74" s="0">
-        <v>5.546944126780863</v>
+        <v>5.4865206821384378</v>
       </c>
       <c r="P74" s="0">
-        <v>0.020740381271541142</v>
+        <v>0.023940045560276957</v>
       </c>
     </row>
     <row r="75">
@@ -3835,49 +3835,49 @@
         <v>34790</v>
       </c>
       <c r="B75" s="0">
-        <v>0.029194551748405066</v>
+        <v>0.032026805836940668</v>
       </c>
       <c r="C75" s="0">
-        <v>-0.49298052573246365</v>
+        <v>-0.43559569443658769</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.40294753785185494</v>
+        <v>-0.43151154673398651</v>
       </c>
       <c r="E75" s="0">
-        <v>2.6764609758564326</v>
+        <v>2.6684599618382929</v>
       </c>
       <c r="F75" s="0">
-        <v>-0.0025492808702531028</v>
+        <v>-0.0030048829462034593</v>
       </c>
       <c r="G75" s="0">
-        <v>0.087416986739634356</v>
+        <v>0.092382894114345721</v>
       </c>
       <c r="H75" s="0">
-        <v>-0.57872834242684057</v>
+        <v>-0.52831569775412124</v>
       </c>
       <c r="I75" s="0">
-        <v>-0.5815609575443913</v>
+        <v>-0.60603071223354699</v>
       </c>
       <c r="J75" s="0">
-        <v>3.2932746235452406</v>
+        <v>3.2954270683615086</v>
       </c>
       <c r="K75" s="0">
-        <v>0.0038770273549546021</v>
+        <v>0.0038679014996097928</v>
       </c>
       <c r="L75" s="0">
-        <v>2.6925138963383346</v>
+        <v>2.7466778270572245</v>
       </c>
       <c r="M75" s="0">
-        <v>-1.0449711770691321</v>
+        <v>-0.91423553090098586</v>
       </c>
       <c r="N75" s="0">
-        <v>-0.91005434505956773</v>
+        <v>-0.95899655892882762</v>
       </c>
       <c r="O75" s="0">
-        <v>5.5581374942247077</v>
+        <v>5.4992383530222728</v>
       </c>
       <c r="P75" s="0">
-        <v>0.018885504243451843</v>
+        <v>0.022356292251201608</v>
       </c>
     </row>
     <row r="76">
@@ -3885,49 +3885,49 @@
         <v>34881</v>
       </c>
       <c r="B76" s="0">
-        <v>-0.024459272725694071</v>
+        <v>-0.025603495029828355</v>
       </c>
       <c r="C76" s="0">
-        <v>-0.62133277160200651</v>
+        <v>-0.54324072007742386</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.50401798428047839</v>
+        <v>-0.53157883613362977</v>
       </c>
       <c r="E76" s="0">
-        <v>2.6763183885736108</v>
+        <v>2.6684116743211845</v>
       </c>
       <c r="F76" s="0">
-        <v>-0.0024348028011866121</v>
+        <v>-0.0027310316473026777</v>
       </c>
       <c r="G76" s="0">
-        <v>0.11659441679367227</v>
+        <v>0.12114615958663341</v>
       </c>
       <c r="H76" s="0">
-        <v>-0.63590184563877972</v>
+        <v>-0.57541076232722832</v>
       </c>
       <c r="I76" s="0">
-        <v>-0.63367464973023013</v>
+        <v>-0.6786130053396483</v>
       </c>
       <c r="J76" s="0">
-        <v>3.2980395659295372</v>
+        <v>3.2987591893394281</v>
       </c>
       <c r="K76" s="0">
-        <v>0.0034223252266206102</v>
+        <v>0.0035692776310382469</v>
       </c>
       <c r="L76" s="0">
-        <v>2.6810297389842592</v>
+        <v>2.726004639710049</v>
       </c>
       <c r="M76" s="0">
-        <v>-1.1485312799460792</v>
+        <v>-1.0114628741648959</v>
       </c>
       <c r="N76" s="0">
-        <v>-1.0245003862945548</v>
+        <v>-1.0805999168430298</v>
       </c>
       <c r="O76" s="0">
-        <v>5.5764773674583452</v>
+        <v>5.5234445809675998</v>
       </c>
       <c r="P76" s="0">
-        <v>0.017786985450102079</v>
+        <v>0.020884182753124481</v>
       </c>
     </row>
     <row r="77">
@@ -3935,49 +3935,49 @@
         <v>34973</v>
       </c>
       <c r="B77" s="0">
-        <v>-0.086863835301401959</v>
+        <v>-0.087832105381166467</v>
       </c>
       <c r="C77" s="0">
-        <v>-0.38943697401747446</v>
+        <v>-0.32517578731587071</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.30829540330586913</v>
+        <v>-0.3319417586472676</v>
       </c>
       <c r="E77" s="0">
-        <v>2.6748055457175961</v>
+        <v>2.6684943291883538</v>
       </c>
       <c r="F77" s="0">
-        <v>-0.002284790021955242</v>
+        <v>-0.0025136674350679311</v>
       </c>
       <c r="G77" s="0">
-        <v>0.13304497678626548</v>
+        <v>0.14146254957071061</v>
       </c>
       <c r="H77" s="0">
-        <v>-0.74910291327105627</v>
+        <v>-0.70357161607421992</v>
       </c>
       <c r="I77" s="0">
-        <v>-0.74103226357809249</v>
+        <v>-0.75670622164225687</v>
       </c>
       <c r="J77" s="0">
-        <v>3.3032519572589223</v>
+        <v>3.3016159654814072</v>
       </c>
       <c r="K77" s="0">
-        <v>0.0032285368332852539</v>
+        <v>0.0033164722547625249</v>
       </c>
       <c r="L77" s="0">
-        <v>2.6686679849874304</v>
+        <v>2.7080246428367447</v>
       </c>
       <c r="M77" s="0">
-        <v>-1.149089650314759</v>
+        <v>-1.0331408122062844</v>
       </c>
       <c r="N77" s="0">
-        <v>-1.0537461358471387</v>
+        <v>-1.1138240219153364</v>
       </c>
       <c r="O77" s="0">
-        <v>5.5967837897149462</v>
+        <v>5.5360614540435318</v>
       </c>
       <c r="P77" s="0">
-        <v>0.0160997726010721</v>
+        <v>0.019629952539858317</v>
       </c>
     </row>
     <row r="78">
@@ -3985,49 +3985,49 @@
         <v>35065</v>
       </c>
       <c r="B78" s="0">
-        <v>-0.14037929867617099</v>
+        <v>-0.14107383895812498</v>
       </c>
       <c r="C78" s="0">
-        <v>-0.15840699308948678</v>
+        <v>-0.1276123140334473</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.13796701352363833</v>
+        <v>-0.13740937769527245</v>
       </c>
       <c r="E78" s="0">
-        <v>2.6575688660754277</v>
+        <v>2.6501506454936585</v>
       </c>
       <c r="F78" s="0">
-        <v>-0.0019976316850055936</v>
+        <v>-0.0023838755046480639</v>
       </c>
       <c r="G78" s="0">
-        <v>0.14146837053627853</v>
+        <v>0.1466703539378697</v>
       </c>
       <c r="H78" s="0">
-        <v>-0.7161903320116394</v>
+        <v>-0.66696949035069675</v>
       </c>
       <c r="I78" s="0">
-        <v>-0.70615644345653639</v>
+        <v>-0.71151236299374854</v>
       </c>
       <c r="J78" s="0">
-        <v>3.3079077061166324</v>
+        <v>3.3065928686367947</v>
       </c>
       <c r="K78" s="0">
-        <v>0.0029251251185484915</v>
+        <v>0.003105591424502052</v>
       </c>
       <c r="L78" s="0">
-        <v>2.3311958087766387</v>
+        <v>2.3401659339593985</v>
       </c>
       <c r="M78" s="0">
-        <v>-1.1654382387249038</v>
+        <v>-1.0315854061665513</v>
       </c>
       <c r="N78" s="0">
-        <v>-1.060183637511765</v>
+        <v>-1.1264918342721855</v>
       </c>
       <c r="O78" s="0">
-        <v>5.6077901177136589</v>
+        <v>5.5463361184071385</v>
       </c>
       <c r="P78" s="0">
-        <v>0.014977362143160738</v>
+        <v>0.018252374851439004</v>
       </c>
     </row>
     <row r="79">
@@ -4035,49 +4035,49 @@
         <v>35156</v>
       </c>
       <c r="B79" s="0">
-        <v>-0.18297255270274707</v>
+        <v>-0.18335243167473247</v>
       </c>
       <c r="C79" s="0">
-        <v>0.36081966279754929</v>
+        <v>0.33034206035400171</v>
       </c>
       <c r="D79" s="0">
-        <v>0.33751666072904407</v>
+        <v>0.36940556797951918</v>
       </c>
       <c r="E79" s="0">
-        <v>2.6282767350685985</v>
+        <v>2.6191180952073614</v>
       </c>
       <c r="F79" s="0">
-        <v>-0.0018525378813194376</v>
+        <v>-0.0022231380285756782</v>
       </c>
       <c r="G79" s="0">
-        <v>0.13396319814438085</v>
+        <v>0.14070295934658217</v>
       </c>
       <c r="H79" s="0">
-        <v>-0.53354856712577092</v>
+        <v>-0.47735524010729868</v>
       </c>
       <c r="I79" s="0">
-        <v>-0.5062107241249032</v>
+        <v>-0.53281040706257898</v>
       </c>
       <c r="J79" s="0">
-        <v>3.3096213573949829</v>
+        <v>3.3085236617870462</v>
       </c>
       <c r="K79" s="0">
-        <v>0.0026440275914224542</v>
+        <v>0.0029692338732717014</v>
       </c>
       <c r="L79" s="0">
-        <v>1.934448198258202</v>
+        <v>1.9347997683321994</v>
       </c>
       <c r="M79" s="0">
-        <v>-1.0405082608652476</v>
+        <v>-0.91792110130128191</v>
       </c>
       <c r="N79" s="0">
-        <v>-0.90745282456174692</v>
+        <v>-0.98525618912758439</v>
       </c>
       <c r="O79" s="0">
-        <v>5.6073102501598449</v>
+        <v>5.5419896432799138</v>
       </c>
       <c r="P79" s="0">
-        <v>0.013816530421439023</v>
+        <v>0.016501673358390555</v>
       </c>
     </row>
     <row r="80">
@@ -4085,49 +4085,49 @@
         <v>35247</v>
       </c>
       <c r="B80" s="0">
-        <v>-0.20242011489007983</v>
+        <v>-0.20911393728677244</v>
       </c>
       <c r="C80" s="0">
-        <v>0.49061744572665478</v>
+        <v>0.4626268683382066</v>
       </c>
       <c r="D80" s="0">
-        <v>0.4514782187243408</v>
+        <v>0.49088283719829845</v>
       </c>
       <c r="E80" s="0">
-        <v>2.6117604437986914</v>
+        <v>2.6019591338642813</v>
       </c>
       <c r="F80" s="0">
-        <v>-0.0017479565372497483</v>
+        <v>-0.0020878396698441951</v>
       </c>
       <c r="G80" s="0">
-        <v>0.11838499712391359</v>
+        <v>0.12431983759468007</v>
       </c>
       <c r="H80" s="0">
-        <v>-0.51422489006795413</v>
+        <v>-0.47817755326796579</v>
       </c>
       <c r="I80" s="0">
-        <v>-0.48371254148023968</v>
+        <v>-0.49419443298296295</v>
       </c>
       <c r="J80" s="0">
-        <v>3.3045647126275162</v>
+        <v>3.3077940195438353</v>
       </c>
       <c r="K80" s="0">
-        <v>0.0023882859989839229</v>
+        <v>0.0027020367829455709</v>
       </c>
       <c r="L80" s="0">
-        <v>1.8811545558373974</v>
+        <v>1.8621941591821767</v>
       </c>
       <c r="M80" s="0">
-        <v>-0.94809498177334561</v>
+        <v>-0.8569435116348908</v>
       </c>
       <c r="N80" s="0">
-        <v>-0.86638615185454837</v>
+        <v>-0.90485807711086541</v>
       </c>
       <c r="O80" s="0">
-        <v>5.6135769486939191</v>
+        <v>5.5402252174719955</v>
       </c>
       <c r="P80" s="0">
-        <v>0.012754986063711178</v>
+        <v>0.015479377342866741</v>
       </c>
     </row>
     <row r="81">
@@ -4135,49 +4135,49 @@
         <v>35339</v>
       </c>
       <c r="B81" s="0">
-        <v>-0.20556303749560539</v>
+        <v>-0.21208961166828716</v>
       </c>
       <c r="C81" s="0">
-        <v>0.73461592892584793</v>
+        <v>0.698331597577597</v>
       </c>
       <c r="D81" s="0">
-        <v>0.64349608924878288</v>
+        <v>0.68914736407189259</v>
       </c>
       <c r="E81" s="0">
-        <v>2.5708265326475193</v>
+        <v>2.5647059389500413</v>
       </c>
       <c r="F81" s="0">
-        <v>-0.0015965245344255769</v>
+        <v>-0.0019279051972882558</v>
       </c>
       <c r="G81" s="0">
-        <v>0.11072447100351278</v>
+        <v>0.11569634194047795</v>
       </c>
       <c r="H81" s="0">
-        <v>-0.50634361668028149</v>
+        <v>-0.51287014288920418</v>
       </c>
       <c r="I81" s="0">
-        <v>-0.50526066331718233</v>
+        <v>-0.49896385462718779</v>
       </c>
       <c r="J81" s="0">
-        <v>3.3005978383848777</v>
+        <v>3.3073900704531258</v>
       </c>
       <c r="K81" s="0">
-        <v>0.0021193266057898904</v>
+        <v>0.0025512339080878852</v>
       </c>
       <c r="L81" s="0">
-        <v>1.6152207636537161</v>
+        <v>1.5908116688010583</v>
       </c>
       <c r="M81" s="0">
-        <v>-0.82169658380384081</v>
+        <v>-0.73940294333193113</v>
       </c>
       <c r="N81" s="0">
-        <v>-0.7718419956555469</v>
+        <v>-0.81405557130846862</v>
       </c>
       <c r="O81" s="0">
-        <v>5.6100609743978413</v>
+        <v>5.5378940690322214</v>
       </c>
       <c r="P81" s="0">
-        <v>0.011826666833844746</v>
+        <v>0.013517277160238714</v>
       </c>
     </row>
     <row r="82">
@@ -4185,49 +4185,49 @@
         <v>35431</v>
       </c>
       <c r="B82" s="0">
-        <v>-0.21118416033834086</v>
+        <v>-0.21388280711119606</v>
       </c>
       <c r="C82" s="0">
-        <v>0.20550328305157134</v>
+        <v>0.20523988779860547</v>
       </c>
       <c r="D82" s="0">
-        <v>0.19871783817463312</v>
+        <v>0.20967687750805636</v>
       </c>
       <c r="E82" s="0">
-        <v>2.5343317162077463</v>
+        <v>2.5294281049358553</v>
       </c>
       <c r="F82" s="0">
-        <v>-0.0014517086328033665</v>
+        <v>-0.0017740036047041159</v>
       </c>
       <c r="G82" s="0">
-        <v>0.099306439473755836</v>
+        <v>0.1003191213704924</v>
       </c>
       <c r="H82" s="0">
-        <v>-0.60002323388914069</v>
+        <v>-0.5939510788192679</v>
       </c>
       <c r="I82" s="0">
-        <v>-0.6010064763652232</v>
+        <v>-0.61728776979823208</v>
       </c>
       <c r="J82" s="0">
-        <v>3.300717777572193</v>
+        <v>3.3051586476334824</v>
       </c>
       <c r="K82" s="0">
-        <v>0.0018634062472384621</v>
+        <v>0.0024101119495060675</v>
       </c>
       <c r="L82" s="0">
-        <v>1.8026421832337762</v>
+        <v>1.7917051818747414</v>
       </c>
       <c r="M82" s="0">
-        <v>-0.93139781338565275</v>
+        <v>-0.80710005419127195</v>
       </c>
       <c r="N82" s="0">
-        <v>-0.88047208105306995</v>
+        <v>-0.88557919095644966</v>
       </c>
       <c r="O82" s="0">
-        <v>5.6114750966247868</v>
+        <v>5.5298908497098651</v>
       </c>
       <c r="P82" s="0">
-        <v>0.01079783664505659</v>
+        <v>0.0127465946338746</v>
       </c>
     </row>
     <row r="83">
@@ -4235,49 +4235,49 @@
         <v>35521</v>
       </c>
       <c r="B83" s="0">
-        <v>-0.20377345490194398</v>
+        <v>-0.20440837484978064</v>
       </c>
       <c r="C83" s="0">
-        <v>0.49376901731769918</v>
+        <v>0.49530059219454159</v>
       </c>
       <c r="D83" s="0">
-        <v>0.46425357253734079</v>
+        <v>0.4668540279738686</v>
       </c>
       <c r="E83" s="0">
-        <v>2.5496605588902082</v>
+        <v>2.544526259087692</v>
       </c>
       <c r="F83" s="0">
-        <v>-0.0013384275608920532</v>
+        <v>-0.0016085706605504853</v>
       </c>
       <c r="G83" s="0">
-        <v>0.097215396418319527</v>
+        <v>0.10431597230573114</v>
       </c>
       <c r="H83" s="0">
-        <v>-0.78013316161779978</v>
+        <v>-0.75706262372505906</v>
       </c>
       <c r="I83" s="0">
-        <v>-0.80968113243333217</v>
+        <v>-0.80187585628164926</v>
       </c>
       <c r="J83" s="0">
-        <v>3.295368474479051</v>
+        <v>3.3000153639934027</v>
       </c>
       <c r="K83" s="0">
-        <v>0.0017042825099751698</v>
+        <v>0.0022573171417085616</v>
       </c>
       <c r="L83" s="0">
-        <v>1.9125253211842592</v>
+        <v>1.914487001023796</v>
       </c>
       <c r="M83" s="0">
-        <v>-0.8964911491467793</v>
+        <v>-0.78753038625742333</v>
       </c>
       <c r="N83" s="0">
-        <v>-0.85918403475636151</v>
+        <v>-0.82727237451666036</v>
       </c>
       <c r="O83" s="0">
-        <v>5.6063988407183603</v>
+        <v>5.5315773958956278</v>
       </c>
       <c r="P83" s="0">
-        <v>0.010000138050327362</v>
+        <v>0.01166276354734027</v>
       </c>
     </row>
     <row r="84">
@@ -4285,49 +4285,49 @@
         <v>35612</v>
       </c>
       <c r="B84" s="0">
-        <v>-0.20162104052663932</v>
+        <v>-0.20166795742111104</v>
       </c>
       <c r="C84" s="0">
-        <v>0.58828999784701974</v>
+        <v>0.61820422243242024</v>
       </c>
       <c r="D84" s="0">
-        <v>0.57420013278628002</v>
+        <v>0.53310744997454562</v>
       </c>
       <c r="E84" s="0">
-        <v>2.5612866584115146</v>
+        <v>2.5587996182839254</v>
       </c>
       <c r="F84" s="0">
-        <v>-0.0012555071754531556</v>
+        <v>-0.0014907452851963322</v>
       </c>
       <c r="G84" s="0">
-        <v>0.098100368196424939</v>
+        <v>0.10266457991373487</v>
       </c>
       <c r="H84" s="0">
-        <v>-0.95561935686593147</v>
+        <v>-0.98768928514416998</v>
       </c>
       <c r="I84" s="0">
-        <v>-1.0427986051838569</v>
+        <v>-1.0053961479602205</v>
       </c>
       <c r="J84" s="0">
-        <v>3.2909302602994943</v>
+        <v>3.2951279850152901</v>
       </c>
       <c r="K84" s="0">
-        <v>0.0016916817705452457</v>
+        <v>0.0020732858201908079</v>
       </c>
       <c r="L84" s="0">
-        <v>1.9233891570820392</v>
+        <v>1.9356342280100036</v>
       </c>
       <c r="M84" s="0">
-        <v>-0.8610829399223856</v>
+        <v>-0.78991407598741925</v>
       </c>
       <c r="N84" s="0">
-        <v>-0.88564577625308949</v>
+        <v>-0.87192260597657478</v>
       </c>
       <c r="O84" s="0">
-        <v>5.5980067916756422</v>
+        <v>5.5346450907765057</v>
       </c>
       <c r="P84" s="0">
-        <v>0.0093749868624666329</v>
+        <v>0.010616414891411224</v>
       </c>
     </row>
     <row r="85">
@@ -4335,49 +4335,49 @@
         <v>35704</v>
       </c>
       <c r="B85" s="0">
-        <v>-0.20561227417339778</v>
+        <v>-0.20072243471795878</v>
       </c>
       <c r="C85" s="0">
-        <v>0.59864441402012436</v>
+        <v>0.62659328166201611</v>
       </c>
       <c r="D85" s="0">
-        <v>0.57640930756276765</v>
+        <v>0.54946323457421609</v>
       </c>
       <c r="E85" s="0">
-        <v>2.5621041741678763</v>
+        <v>2.5590640636546267</v>
       </c>
       <c r="F85" s="0">
-        <v>-0.0011856026760064034</v>
+        <v>-0.0013448057182438556</v>
       </c>
       <c r="G85" s="0">
-        <v>0.097018703545110885</v>
+        <v>0.10057376395947548</v>
       </c>
       <c r="H85" s="0">
-        <v>-0.97509840427547656</v>
+        <v>-1.0110732761240828</v>
       </c>
       <c r="I85" s="0">
-        <v>-1.0881701226102132</v>
+        <v>-1.05830383274672</v>
       </c>
       <c r="J85" s="0">
-        <v>3.2857755078698441</v>
+        <v>3.2913457135868955</v>
       </c>
       <c r="K85" s="0">
-        <v>0.0015234642447056889</v>
+        <v>0.0019271209256286725</v>
       </c>
       <c r="L85" s="0">
-        <v>1.9487129125392095</v>
+        <v>1.9478338563668587</v>
       </c>
       <c r="M85" s="0">
-        <v>-0.90141911066198799</v>
+        <v>-0.83470355146501873</v>
       </c>
       <c r="N85" s="0">
-        <v>-0.89353372921300678</v>
+        <v>-0.90359764360571215</v>
       </c>
       <c r="O85" s="0">
-        <v>5.5941182690684705</v>
+        <v>5.5343370336865547</v>
       </c>
       <c r="P85" s="0">
-        <v>0.0087128720670901095</v>
+        <v>0.0098520781234477696</v>
       </c>
     </row>
     <row r="86">
@@ -4385,49 +4385,49 @@
         <v>35796</v>
       </c>
       <c r="B86" s="0">
-        <v>-0.20782405129914233</v>
+        <v>-0.20028570142410973</v>
       </c>
       <c r="C86" s="0">
-        <v>0.32231085575476681</v>
+        <v>0.31979671843973778</v>
       </c>
       <c r="D86" s="0">
-        <v>0.31467913988739715</v>
+        <v>0.28439030365727702</v>
       </c>
       <c r="E86" s="0">
-        <v>2.5900399520257147</v>
+        <v>2.5874841511476303</v>
       </c>
       <c r="F86" s="0">
-        <v>-0.0010609344706616316</v>
+        <v>-0.0012485603231918269</v>
       </c>
       <c r="G86" s="0">
-        <v>0.093262277255878337</v>
+        <v>0.10172389729893816</v>
       </c>
       <c r="H86" s="0">
-        <v>-1.0137972213162936</v>
+        <v>-0.9892249326574527</v>
       </c>
       <c r="I86" s="0">
-        <v>-1.0605908172098457</v>
+        <v>-1.0451247351834574</v>
       </c>
       <c r="J86" s="0">
-        <v>3.2831754345782702</v>
+        <v>3.2892515598311158</v>
       </c>
       <c r="K86" s="0">
-        <v>0.0014019340193565258</v>
+        <v>0.0017478015435414332</v>
       </c>
       <c r="L86" s="0">
-        <v>2.1878404015439217</v>
+        <v>2.1712196042352767</v>
       </c>
       <c r="M86" s="0">
-        <v>-1.0097606771081926</v>
+        <v>-0.94390591651390165</v>
       </c>
       <c r="N86" s="0">
-        <v>-1.0049270899010763</v>
+        <v>-1.019168247026961</v>
       </c>
       <c r="O86" s="0">
-        <v>5.6075966768399494</v>
+        <v>5.5407846846167672</v>
       </c>
       <c r="P86" s="0">
-        <v>0.0079713263724993828</v>
+        <v>0.0089249294998215763</v>
       </c>
     </row>
     <row r="87">
@@ -4435,49 +4435,49 @@
         <v>35886</v>
       </c>
       <c r="B87" s="0">
-        <v>-0.20339356769917546</v>
+        <v>-0.2016350970271828</v>
       </c>
       <c r="C87" s="0">
-        <v>0.15402193770608463</v>
+        <v>0.12641238871755217</v>
       </c>
       <c r="D87" s="0">
-        <v>0.16673383426346408</v>
+        <v>0.12366791645958766</v>
       </c>
       <c r="E87" s="0">
-        <v>2.6309892040110761</v>
+        <v>2.6276788660672956</v>
       </c>
       <c r="F87" s="0">
-        <v>-0.00097619259620331054</v>
+        <v>-0.0011593596999331752</v>
       </c>
       <c r="G87" s="0">
-        <v>0.097588706422038929</v>
+        <v>0.10752123722238159</v>
       </c>
       <c r="H87" s="0">
-        <v>-1.0826873142171549</v>
+        <v>-1.0594673041022933</v>
       </c>
       <c r="I87" s="0">
-        <v>-1.1295293967403848</v>
+        <v>-1.1551841229797608</v>
       </c>
       <c r="J87" s="0">
-        <v>3.2840698043413115</v>
+        <v>3.2940022234837265</v>
       </c>
       <c r="K87" s="0">
-        <v>0.0012449275107603982</v>
+        <v>0.0015908200186443852</v>
       </c>
       <c r="L87" s="0">
-        <v>2.3921292301496222</v>
+        <v>2.3741812753621145</v>
       </c>
       <c r="M87" s="0">
-        <v>-1.1336536839262659</v>
+        <v>-1.0574801862795402</v>
       </c>
       <c r="N87" s="0">
-        <v>-1.1483929229167353</v>
+        <v>-1.125273920225627</v>
       </c>
       <c r="O87" s="0">
-        <v>5.6097275200198027</v>
+        <v>5.5591721876640658</v>
       </c>
       <c r="P87" s="0">
-        <v>0.00731398481237488</v>
+        <v>0.0081267443046583558</v>
       </c>
     </row>
     <row r="88">
@@ -4485,49 +4485,49 @@
         <v>35977</v>
       </c>
       <c r="B88" s="0">
-        <v>-0.20693499692061379</v>
+        <v>-0.20645032575447869</v>
       </c>
       <c r="C88" s="0">
-        <v>0.3830658029050612</v>
+        <v>0.38506411761251413</v>
       </c>
       <c r="D88" s="0">
-        <v>0.40351338884651411</v>
+        <v>0.3622282901835161</v>
       </c>
       <c r="E88" s="0">
-        <v>2.6764204418808193</v>
+        <v>2.6696469843145865</v>
       </c>
       <c r="F88" s="0">
-        <v>-0.00092847490793914519</v>
+        <v>-0.0010497969754403485</v>
       </c>
       <c r="G88" s="0">
-        <v>0.10506608568256399</v>
+        <v>0.11693911264210297</v>
       </c>
       <c r="H88" s="0">
-        <v>-1.088946631443958</v>
+        <v>-1.115831848644711</v>
       </c>
       <c r="I88" s="0">
-        <v>-1.170831734886403</v>
+        <v>-1.1650688770946935</v>
       </c>
       <c r="J88" s="0">
-        <v>3.294188657572847</v>
+        <v>3.2961745035314349</v>
       </c>
       <c r="K88" s="0">
-        <v>0.0010594680360407401</v>
+        <v>0.0014826336834906839</v>
       </c>
       <c r="L88" s="0">
-        <v>2.3990933976909519</v>
+        <v>2.3844596274098424</v>
       </c>
       <c r="M88" s="0">
-        <v>-1.1438175242260402</v>
+        <v>-1.073108666446938</v>
       </c>
       <c r="N88" s="0">
-        <v>-1.1628507455335348</v>
+        <v>-1.1543460626128412</v>
       </c>
       <c r="O88" s="0">
-        <v>5.6207940112769244</v>
+        <v>5.57242543784721</v>
       </c>
       <c r="P88" s="0">
-        <v>0.0067397890979151113</v>
+        <v>0.0075620902621378371</v>
       </c>
     </row>
     <row r="89">
@@ -4535,49 +4535,49 @@
         <v>36069</v>
       </c>
       <c r="B89" s="0">
-        <v>-0.21801051072161329</v>
+        <v>-0.21597208671150725</v>
       </c>
       <c r="C89" s="0">
-        <v>0.72919272056863749</v>
+        <v>0.70308395264020329</v>
       </c>
       <c r="D89" s="0">
-        <v>0.68899377307437581</v>
+        <v>0.70398598676305824</v>
       </c>
       <c r="E89" s="0">
-        <v>2.694112954398566</v>
+        <v>2.6822475674807436</v>
       </c>
       <c r="F89" s="0">
-        <v>-0.00087214170641082729</v>
+        <v>-0.00096969210687805629</v>
       </c>
       <c r="G89" s="0">
-        <v>0.10810968325990848</v>
+        <v>0.12138844304113894</v>
       </c>
       <c r="H89" s="0">
-        <v>-0.95821360918897436</v>
+        <v>-0.97459481362356515</v>
       </c>
       <c r="I89" s="0">
-        <v>-1.0812624614695203</v>
+        <v>-1.040226358888757</v>
       </c>
       <c r="J89" s="0">
-        <v>3.3035556262142789</v>
+        <v>3.3058050316358809</v>
       </c>
       <c r="K89" s="0">
-        <v>0.00094343598994294712</v>
+        <v>0.0013407449904557511</v>
       </c>
       <c r="L89" s="0">
-        <v>1.5874322365334015</v>
+        <v>1.5766218933746985</v>
       </c>
       <c r="M89" s="0">
-        <v>-1.0302772358851189</v>
+        <v>-1.006935995922509</v>
       </c>
       <c r="N89" s="0">
-        <v>-1.0636090018767201</v>
+        <v>-1.0847497025354162</v>
       </c>
       <c r="O89" s="0">
-        <v>5.6378547436514559</v>
+        <v>5.5805022499737582</v>
       </c>
       <c r="P89" s="0">
-        <v>0.0061817216968384596</v>
+        <v>0.0070423705998573227</v>
       </c>
     </row>
     <row r="90">
@@ -4585,49 +4585,49 @@
         <v>36161</v>
       </c>
       <c r="B90" s="0">
-        <v>-0.23529050001569163</v>
+        <v>-0.22991011950335158</v>
       </c>
       <c r="C90" s="0">
-        <v>0.62674534498239931</v>
+        <v>0.61279738205541823</v>
       </c>
       <c r="D90" s="0">
-        <v>0.59091300075084607</v>
+        <v>0.6070082527269971</v>
       </c>
       <c r="E90" s="0">
-        <v>2.7355794297561218</v>
+        <v>2.721803621973816</v>
       </c>
       <c r="F90" s="0">
-        <v>-0.00074395023045910878</v>
+        <v>-0.0008920297132585602</v>
       </c>
       <c r="G90" s="0">
-        <v>0.083544308937784431</v>
+        <v>0.095714350463397227</v>
       </c>
       <c r="H90" s="0">
-        <v>-0.92951153948544118</v>
+        <v>-0.95665719701213825</v>
       </c>
       <c r="I90" s="0">
-        <v>-1.0533830529368757</v>
+        <v>-1.0061002793615135</v>
       </c>
       <c r="J90" s="0">
-        <v>3.3134164701842788</v>
+        <v>3.311858943632874</v>
       </c>
       <c r="K90" s="0">
-        <v>0.00087111924656229039</v>
+        <v>0.0012385810843096646</v>
       </c>
       <c r="L90" s="0">
-        <v>1.4845455675536974</v>
+        <v>1.4746759380591214</v>
       </c>
       <c r="M90" s="0">
-        <v>-1.042952632880183</v>
+        <v>-1.0476536559300071</v>
       </c>
       <c r="N90" s="0">
-        <v>-1.1067921025750858</v>
+        <v>-1.1270707720296653</v>
       </c>
       <c r="O90" s="0">
-        <v>5.6629295053403474</v>
+        <v>5.5934994621450933</v>
       </c>
       <c r="P90" s="0">
-        <v>0.005453617644112666</v>
+        <v>0.00637283784450666</v>
       </c>
     </row>
     <row r="91">
@@ -4635,49 +4635,49 @@
         <v>36251</v>
       </c>
       <c r="B91" s="0">
-        <v>-0.219769754278406</v>
+        <v>-0.22141775055271071</v>
       </c>
       <c r="C91" s="0">
-        <v>0.33337581624620527</v>
+        <v>0.37670363552073266</v>
       </c>
       <c r="D91" s="0">
-        <v>0.36719441373844702</v>
+        <v>0.38802310469956547</v>
       </c>
       <c r="E91" s="0">
-        <v>2.7362721286097971</v>
+        <v>2.7179889702059734</v>
       </c>
       <c r="F91" s="0">
-        <v>-0.00068792689139667018</v>
+        <v>-0.00081962443310536139</v>
       </c>
       <c r="G91" s="0">
-        <v>0.06570693412622293</v>
+        <v>0.085850092607260342</v>
       </c>
       <c r="H91" s="0">
-        <v>-0.84233357810480114</v>
+        <v>-0.83213191318996815</v>
       </c>
       <c r="I91" s="0">
-        <v>-0.87977698153988992</v>
+        <v>-0.89884317290747107</v>
       </c>
       <c r="J91" s="0">
-        <v>3.3213118562896056</v>
+        <v>3.3228468812778669</v>
       </c>
       <c r="K91" s="0">
-        <v>0.00079963034171989474</v>
+        <v>0.0011549593639815885</v>
       </c>
       <c r="L91" s="0">
-        <v>1.5889123768888127</v>
+        <v>1.5881016800299725</v>
       </c>
       <c r="M91" s="0">
-        <v>-1.1100649872103467</v>
+        <v>-1.0628526949445849</v>
       </c>
       <c r="N91" s="0">
-        <v>-1.1654240357296097</v>
+        <v>-1.1819962757166931</v>
       </c>
       <c r="O91" s="0">
-        <v>5.6765595059346694</v>
+        <v>5.6085823925367215</v>
       </c>
       <c r="P91" s="0">
-        <v>0.0049734878573397239</v>
+        <v>0.0057207563647374126</v>
       </c>
     </row>
     <row r="92">
@@ -4685,49 +4685,49 @@
         <v>36342</v>
       </c>
       <c r="B92" s="0">
-        <v>-0.20146850762124519</v>
+        <v>-0.20298833995525167</v>
       </c>
       <c r="C92" s="0">
-        <v>0.14805647663183608</v>
+        <v>0.16046160808662466</v>
       </c>
       <c r="D92" s="0">
-        <v>0.20155116211901819</v>
+        <v>0.22611390691283573</v>
       </c>
       <c r="E92" s="0">
-        <v>2.7104188200412391</v>
+        <v>2.6960852123047996</v>
       </c>
       <c r="F92" s="0">
-        <v>-0.00062282777100466046</v>
+        <v>-0.00077043985260680323</v>
       </c>
       <c r="G92" s="0">
-        <v>0.062923734451220958</v>
+        <v>0.081831862235989372</v>
       </c>
       <c r="H92" s="0">
-        <v>-0.70807737720955832</v>
+        <v>-0.69158799891660394</v>
       </c>
       <c r="I92" s="0">
-        <v>-0.72063380396529098</v>
+        <v>-0.73401798730875001</v>
       </c>
       <c r="J92" s="0">
-        <v>3.3281753332297699</v>
+        <v>3.3280799957154077</v>
       </c>
       <c r="K92" s="0">
-        <v>0.00074556393651000505</v>
+        <v>0.0010737164002829996</v>
       </c>
       <c r="L92" s="0">
-        <v>1.9965286001011573</v>
+        <v>2.0146739982983828</v>
       </c>
       <c r="M92" s="0">
-        <v>-1.1158347326874805</v>
+        <v>-1.1187942576615399</v>
       </c>
       <c r="N92" s="0">
-        <v>-1.2103688187318269</v>
+        <v>-1.2037650179852464</v>
       </c>
       <c r="O92" s="0">
-        <v>5.6867750102329477</v>
+        <v>5.6136820958019982</v>
       </c>
       <c r="P92" s="0">
-        <v>0.0045854066005462726</v>
+        <v>0.0051668906250514068</v>
       </c>
     </row>
     <row r="93">
@@ -4735,49 +4735,49 @@
         <v>36434</v>
       </c>
       <c r="B93" s="0">
-        <v>-0.18610997849488059</v>
+        <v>-0.18116175027715592</v>
       </c>
       <c r="C93" s="0">
-        <v>0.71087619511234956</v>
+        <v>0.67797758558992638</v>
       </c>
       <c r="D93" s="0">
-        <v>0.6903640698494995</v>
+        <v>0.69411401461251276</v>
       </c>
       <c r="E93" s="0">
-        <v>2.643219685347963</v>
+        <v>2.6387779188614449</v>
       </c>
       <c r="F93" s="0">
-        <v>-0.00056401391550187812</v>
+        <v>-0.00072669079879240147</v>
       </c>
       <c r="G93" s="0">
-        <v>0.073824116861797545</v>
+        <v>0.090745446497816074</v>
       </c>
       <c r="H93" s="0">
-        <v>-0.52826679667274035</v>
+        <v>-0.51796649438392162</v>
       </c>
       <c r="I93" s="0">
-        <v>-0.54078800565417107</v>
+        <v>-0.54593016233899472</v>
       </c>
       <c r="J93" s="0">
-        <v>3.3331185982511151</v>
+        <v>3.3273390643467158</v>
       </c>
       <c r="K93" s="0">
-        <v>0.00067324666716684636</v>
+        <v>0.00096145180698737384</v>
       </c>
       <c r="L93" s="0">
-        <v>1.8780592059373635</v>
+        <v>1.8848052805133275</v>
       </c>
       <c r="M93" s="0">
-        <v>-0.92964957236718671</v>
+        <v>-1.0100368745303396</v>
       </c>
       <c r="N93" s="0">
-        <v>-1.0545388929473725</v>
+        <v>-1.0072637083558793</v>
       </c>
       <c r="O93" s="0">
-        <v>5.6870941450665509</v>
+        <v>5.6216029011879538</v>
       </c>
       <c r="P93" s="0">
-        <v>0.0041995296627104894</v>
+        <v>0.0047461867902689452</v>
       </c>
     </row>
     <row r="94">
@@ -4785,49 +4785,49 @@
         <v>36526</v>
       </c>
       <c r="B94" s="0">
-        <v>-0.18785624601615006</v>
+        <v>-0.18558521662296901</v>
       </c>
       <c r="C94" s="0">
-        <v>0.46760502955563488</v>
+        <v>0.44244779338370183</v>
       </c>
       <c r="D94" s="0">
-        <v>0.45833560792322725</v>
+        <v>0.46860875315187234</v>
       </c>
       <c r="E94" s="0">
-        <v>2.5801815642671535</v>
+        <v>2.5746421230602978</v>
       </c>
       <c r="F94" s="0">
-        <v>-0.00052444569660938824</v>
+        <v>-0.00067542805809223377</v>
       </c>
       <c r="G94" s="0">
-        <v>0.070139386859078251</v>
+        <v>0.085677979195216275</v>
       </c>
       <c r="H94" s="0">
-        <v>-0.40399947538584224</v>
+        <v>-0.37959921584509326</v>
       </c>
       <c r="I94" s="0">
-        <v>-0.40377685674399039</v>
+        <v>-0.40651287980128287</v>
       </c>
       <c r="J94" s="0">
-        <v>3.3306423264053224</v>
+        <v>3.3277359780660323</v>
       </c>
       <c r="K94" s="0">
-        <v>0.00062941064281434706</v>
+        <v>0.00086387667900568259</v>
       </c>
       <c r="L94" s="0">
-        <v>2.2106569839930952</v>
+        <v>2.2385769139394545</v>
       </c>
       <c r="M94" s="0">
-        <v>-0.90713335689536645</v>
+        <v>-0.98267617027735876</v>
       </c>
       <c r="N94" s="0">
-        <v>-1.0435463970114147</v>
+        <v>-1.0374937443238941</v>
       </c>
       <c r="O94" s="0">
-        <v>5.6821715808844129</v>
+        <v>5.6120673193302171</v>
       </c>
       <c r="P94" s="0">
-        <v>0.0038735961292622758</v>
+        <v>0.004472978525034239</v>
       </c>
     </row>
     <row r="95">
@@ -4835,49 +4835,49 @@
         <v>36617</v>
       </c>
       <c r="B95" s="0">
-        <v>-0.18275474817166421</v>
+        <v>-0.18028850481980935</v>
       </c>
       <c r="C95" s="0">
-        <v>0.80377799306882114</v>
+        <v>0.78478862902482582</v>
       </c>
       <c r="D95" s="0">
-        <v>0.79278104378326164</v>
+        <v>0.79433048039537357</v>
       </c>
       <c r="E95" s="0">
-        <v>2.5285610640159097</v>
+        <v>2.5255565995977061</v>
       </c>
       <c r="F95" s="0">
-        <v>-0.00050500983220927713</v>
+        <v>-0.00064353697045144609</v>
       </c>
       <c r="G95" s="0">
-        <v>0.081271092538528628</v>
+        <v>0.095290920310911131</v>
       </c>
       <c r="H95" s="0">
-        <v>-0.39129233144188336</v>
+        <v>-0.40945790051591413</v>
       </c>
       <c r="I95" s="0">
-        <v>-0.4383102286680477</v>
+        <v>-0.3702901139223983</v>
       </c>
       <c r="J95" s="0">
-        <v>3.3231554923377429</v>
+        <v>3.3236549005248706</v>
       </c>
       <c r="K95" s="0">
-        <v>0.00056580562499487959</v>
+        <v>0.00076704374311960786</v>
       </c>
       <c r="L95" s="0">
-        <v>2.4880122871466712</v>
+        <v>2.5059413901890872</v>
       </c>
       <c r="M95" s="0">
-        <v>-0.78247646662614012</v>
+        <v>-0.81493362840763373</v>
       </c>
       <c r="N95" s="0">
-        <v>-0.89276312799299773</v>
+        <v>-0.86316422500900591</v>
       </c>
       <c r="O95" s="0">
-        <v>5.6696582731217084</v>
+        <v>5.6058137815364013</v>
       </c>
       <c r="P95" s="0">
-        <v>0.0035444859207802615</v>
+        <v>0.0041885948920901131</v>
       </c>
     </row>
     <row r="96">
@@ -4885,49 +4885,49 @@
         <v>36708</v>
       </c>
       <c r="B96" s="0">
-        <v>-0.18952357749051135</v>
+        <v>-0.18909129717323508</v>
       </c>
       <c r="C96" s="0">
-        <v>-0.015508552252730345</v>
+        <v>-0.011114805389634934</v>
       </c>
       <c r="D96" s="0">
-        <v>0.037805229859029579</v>
+        <v>0.039018931019548508</v>
       </c>
       <c r="E96" s="0">
-        <v>2.4351718477991744</v>
+        <v>2.4404232592175146</v>
       </c>
       <c r="F96" s="0">
-        <v>-0.00045177180067144051</v>
+        <v>-0.00062718972619008897</v>
       </c>
       <c r="G96" s="0">
-        <v>0.095705305690962333</v>
+        <v>0.10949200724685984</v>
       </c>
       <c r="H96" s="0">
-        <v>-0.28294252797458996</v>
+        <v>-0.25747644791273538</v>
       </c>
       <c r="I96" s="0">
-        <v>-0.28211405233720954</v>
+        <v>-0.28524421934265692</v>
       </c>
       <c r="J96" s="0">
-        <v>3.3115362362927261</v>
+        <v>3.3101394450043715</v>
       </c>
       <c r="K96" s="0">
-        <v>0.00054246063300980086</v>
+        <v>0.00068462365047649611</v>
       </c>
       <c r="L96" s="0">
-        <v>2.9726752688673663</v>
+        <v>3.0185171041780965</v>
       </c>
       <c r="M96" s="0">
-        <v>-0.87066110649996908</v>
+        <v>-0.92335279337257781</v>
       </c>
       <c r="N96" s="0">
-        <v>-0.96731542203073595</v>
+        <v>-0.950008142253566</v>
       </c>
       <c r="O96" s="0">
-        <v>5.6543338969595887</v>
+        <v>5.5733664638684424</v>
       </c>
       <c r="P96" s="0">
-        <v>0.0031552691184132545</v>
+        <v>0.0039517957107178415</v>
       </c>
     </row>
     <row r="97">
@@ -4935,49 +4935,49 @@
         <v>36800</v>
       </c>
       <c r="B97" s="0">
-        <v>-0.20169702138931767</v>
+        <v>-0.20576072550066837</v>
       </c>
       <c r="C97" s="0">
-        <v>0.14856082389425415</v>
+        <v>0.17625076596380451</v>
       </c>
       <c r="D97" s="0">
-        <v>0.18791970737677527</v>
+        <v>0.18492870278189688</v>
       </c>
       <c r="E97" s="0">
-        <v>2.3797016796498345</v>
+        <v>2.3812781603966253</v>
       </c>
       <c r="F97" s="0">
-        <v>-0.00040970795561890132</v>
+        <v>-0.000571516468600244</v>
       </c>
       <c r="G97" s="0">
-        <v>0.11560960181684111</v>
+        <v>0.13291630394443937</v>
       </c>
       <c r="H97" s="0">
-        <v>-0.41323442938018962</v>
+        <v>-0.38293650082933939</v>
       </c>
       <c r="I97" s="0">
-        <v>-0.40322977412575134</v>
+        <v>-0.43060906495095486</v>
       </c>
       <c r="J97" s="0">
-        <v>3.2870576308550419</v>
+        <v>3.2965108321384875</v>
       </c>
       <c r="K97" s="0">
-        <v>0.00050637412369127139</v>
+        <v>0.00060150651897816743</v>
       </c>
       <c r="L97" s="0">
-        <v>2.8413272495753685</v>
+        <v>2.8700381079791</v>
       </c>
       <c r="M97" s="0">
-        <v>-0.83658153823154935</v>
+        <v>-0.86989200032535108</v>
       </c>
       <c r="N97" s="0">
-        <v>-0.92060979456476855</v>
+        <v>-0.88390131499128322</v>
       </c>
       <c r="O97" s="0">
-        <v>5.621860970033822</v>
+        <v>5.539867173822759</v>
       </c>
       <c r="P97" s="0">
-        <v>0.0029101259079296815</v>
+        <v>0.0036387292798318992</v>
       </c>
     </row>
     <row r="98">
@@ -4985,49 +4985,49 @@
         <v>36892</v>
       </c>
       <c r="B98" s="0">
-        <v>-0.23121130198835907</v>
+        <v>-0.23056852859822602</v>
       </c>
       <c r="C98" s="0">
-        <v>-1.0238340945024151</v>
+        <v>-0.8817360700867396</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.76479057473449552</v>
+        <v>-0.89131885538990741</v>
       </c>
       <c r="E98" s="0">
-        <v>2.399312780327592</v>
+        <v>2.3972034224279652</v>
       </c>
       <c r="F98" s="0">
-        <v>-0.00037871403775229971</v>
+        <v>-0.00052193505760284985</v>
       </c>
       <c r="G98" s="0">
-        <v>0.12191137926439011</v>
+        <v>0.14160283853111733</v>
       </c>
       <c r="H98" s="0">
-        <v>-0.3082238542692064</v>
+        <v>-0.28536872036296945</v>
       </c>
       <c r="I98" s="0">
-        <v>-0.34298915564756249</v>
+        <v>-0.35112084001894001</v>
       </c>
       <c r="J98" s="0">
-        <v>3.2717123324840394</v>
+        <v>3.2792111508030146</v>
       </c>
       <c r="K98" s="0">
-        <v>0.00046539092847919803</v>
+        <v>0.00055073960542405698</v>
       </c>
       <c r="L98" s="0">
-        <v>2.556868429198615</v>
+        <v>2.5686275207145011</v>
       </c>
       <c r="M98" s="0">
-        <v>-1.086133185793853</v>
+        <v>-1.0923152430813166</v>
       </c>
       <c r="N98" s="0">
-        <v>-1.13875445982571</v>
+        <v>-1.1440376730815267</v>
       </c>
       <c r="O98" s="0">
-        <v>5.5988040039437337</v>
+        <v>5.5094774712510013</v>
       </c>
       <c r="P98" s="0">
-        <v>0.0026628838266961308</v>
+        <v>0.0033427657759478903</v>
       </c>
     </row>
     <row r="99">
@@ -5035,49 +5035,49 @@
         <v>36982</v>
       </c>
       <c r="B99" s="0">
-        <v>-0.25601114689764459</v>
+        <v>-0.25969564235085607</v>
       </c>
       <c r="C99" s="0">
-        <v>-0.79074925512193484</v>
+        <v>-0.70713105616892391</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.5717417960246447</v>
+        <v>-0.65303231475880308</v>
       </c>
       <c r="E99" s="0">
-        <v>2.4115899767904985</v>
+        <v>2.4108979620409299</v>
       </c>
       <c r="F99" s="0">
-        <v>-0.00035687525123936751</v>
+        <v>-0.00048317425433371886</v>
       </c>
       <c r="G99" s="0">
-        <v>0.12023959082911079</v>
+        <v>0.13871727478527368</v>
       </c>
       <c r="H99" s="0">
-        <v>-0.43211572996837444</v>
+        <v>-0.36942265494554777</v>
       </c>
       <c r="I99" s="0">
-        <v>-0.4255853569784519</v>
+        <v>-0.44094316594918209</v>
       </c>
       <c r="J99" s="0">
-        <v>3.2587799283052528</v>
+        <v>3.2650657743143054</v>
       </c>
       <c r="K99" s="0">
-        <v>0.00041981148589224091</v>
+        <v>0.00052011710838684676</v>
       </c>
       <c r="L99" s="0">
-        <v>1.3713052037731308</v>
+        <v>1.3767265788293606</v>
       </c>
       <c r="M99" s="0">
-        <v>-1.1237504859390905</v>
+        <v>-1.1074278510187785</v>
       </c>
       <c r="N99" s="0">
-        <v>-1.1523999632302895</v>
+        <v>-1.1780517830326125</v>
       </c>
       <c r="O99" s="0">
-        <v>5.5756416058804064</v>
+        <v>5.4915114105226337</v>
       </c>
       <c r="P99" s="0">
-        <v>0.0024006931568147215</v>
+        <v>0.0030897242230837948</v>
       </c>
     </row>
     <row r="100">
@@ -5085,49 +5085,49 @@
         <v>37073</v>
       </c>
       <c r="B100" s="0">
-        <v>-0.26921273134973567</v>
+        <v>-0.27361391630070719</v>
       </c>
       <c r="C100" s="0">
-        <v>-1.2709622511708289</v>
+        <v>-1.1221737497995865</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.96204088900860485</v>
+        <v>-1.1103380224600055</v>
       </c>
       <c r="E100" s="0">
-        <v>2.4096177277154482</v>
+        <v>2.4070786832330757</v>
       </c>
       <c r="F100" s="0">
-        <v>-0.00031150856015821967</v>
+        <v>-0.00044828133930822683</v>
       </c>
       <c r="G100" s="0">
-        <v>0.074617296726991494</v>
+        <v>0.10348514777246641</v>
       </c>
       <c r="H100" s="0">
-        <v>-0.66227644381571982</v>
+        <v>-0.55193778448962527</v>
       </c>
       <c r="I100" s="0">
-        <v>-0.66036839348086274</v>
+        <v>-0.68996792820672515</v>
       </c>
       <c r="J100" s="0">
-        <v>3.2476073020488396</v>
+        <v>3.2552153210726278</v>
       </c>
       <c r="K100" s="0">
-        <v>0.00035238416001173256</v>
+        <v>0.00051728180367781209</v>
       </c>
       <c r="L100" s="0">
-        <v>1.0079455636969064</v>
+        <v>1.0046773283810433</v>
       </c>
       <c r="M100" s="0">
-        <v>-1.3620748605083406</v>
+        <v>-1.3118102632086182</v>
       </c>
       <c r="N100" s="0">
-        <v>-1.3298118930651941</v>
+        <v>-1.3791323341322257</v>
       </c>
       <c r="O100" s="0">
-        <v>5.5470248471277435</v>
+        <v>5.4764584998370989</v>
       </c>
       <c r="P100" s="0">
-        <v>0.0022736398742411981</v>
+        <v>0.0028436864932907986</v>
       </c>
     </row>
     <row r="101">
@@ -5135,49 +5135,49 @@
         <v>37165</v>
       </c>
       <c r="B101" s="0">
-        <v>-0.2396762890695987</v>
+        <v>-0.24458580392420975</v>
       </c>
       <c r="C101" s="0">
-        <v>-0.98482570833489769</v>
+        <v>-0.84279092017702661</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.72810404576972831</v>
+        <v>-0.87213953632508789</v>
       </c>
       <c r="E101" s="0">
-        <v>2.4332003524574213</v>
+        <v>2.4318052807522639</v>
       </c>
       <c r="F101" s="0">
-        <v>-0.00027703322479119829</v>
+        <v>-0.00041129468160685482</v>
       </c>
       <c r="G101" s="0">
-        <v>0.059847239572302494</v>
+        <v>0.079474534447845024</v>
       </c>
       <c r="H101" s="0">
-        <v>-1.1329373958418434</v>
+        <v>-1.0875444746488885</v>
       </c>
       <c r="I101" s="0">
-        <v>-1.1632031197862269</v>
+        <v>-1.1843019065170699</v>
       </c>
       <c r="J101" s="0">
-        <v>3.2394085485405677</v>
+        <v>3.2460808782747339</v>
       </c>
       <c r="K101" s="0">
-        <v>0.0003038430683771048</v>
+        <v>0.00046726935365035317</v>
       </c>
       <c r="L101" s="0">
-        <v>-0.084894524549196548</v>
+        <v>-0.10947332952503042</v>
       </c>
       <c r="M101" s="0">
-        <v>-1.5177991003763494</v>
+        <v>-1.4542091742881684</v>
       </c>
       <c r="N101" s="0">
-        <v>-1.5020513603964492</v>
+        <v>-1.4750181555015709</v>
       </c>
       <c r="O101" s="0">
-        <v>5.5293304698343686</v>
+        <v>5.4626070680698913</v>
       </c>
       <c r="P101" s="0">
-        <v>0.0021021385983821033</v>
+        <v>0.0025816781214507028</v>
       </c>
     </row>
     <row r="102">
@@ -5185,49 +5185,49 @@
         <v>37257</v>
       </c>
       <c r="B102" s="0">
-        <v>-0.21488219144838216</v>
+        <v>-0.22012852393620019</v>
       </c>
       <c r="C102" s="0">
-        <v>-0.80094327859174685</v>
+        <v>-0.69501916209132453</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.60858588157599269</v>
+        <v>-0.68798146423033213</v>
       </c>
       <c r="E102" s="0">
-        <v>2.4718375736605989</v>
+        <v>2.4713629633774459</v>
       </c>
       <c r="F102" s="0">
-        <v>-0.00024953613995815131</v>
+        <v>-0.00036697752158606155</v>
       </c>
       <c r="G102" s="0">
-        <v>0.0081214496507310153</v>
+        <v>0.023420562160175139</v>
       </c>
       <c r="H102" s="0">
-        <v>-1.2749656824487696</v>
+        <v>-1.2530260163784532</v>
       </c>
       <c r="I102" s="0">
-        <v>-1.3296976089392158</v>
+        <v>-1.3327687092268097</v>
       </c>
       <c r="J102" s="0">
-        <v>3.2347341956201934</v>
+        <v>3.2396920152370026</v>
       </c>
       <c r="K102" s="0">
-        <v>0.00027895724444978412</v>
+        <v>0.00042989560815084768</v>
       </c>
       <c r="L102" s="0">
-        <v>-0.23677449323482397</v>
+        <v>-0.23640044486378697</v>
       </c>
       <c r="M102" s="0">
-        <v>-1.6772561394398391</v>
+        <v>-1.5906604595544143</v>
       </c>
       <c r="N102" s="0">
-        <v>-1.6361343917002131</v>
+        <v>-1.6381451158138642</v>
       </c>
       <c r="O102" s="0">
-        <v>5.5151030301613666</v>
+        <v>5.4615523082516422</v>
       </c>
       <c r="P102" s="0">
-        <v>0.00193544354708805</v>
+        <v>0.0023727005228697403</v>
       </c>
     </row>
     <row r="103">
@@ -5235,49 +5235,49 @@
         <v>37347</v>
       </c>
       <c r="B103" s="0">
-        <v>-0.16252617492499571</v>
+        <v>-0.16806755219799935</v>
       </c>
       <c r="C103" s="0">
-        <v>-0.31388899353502908</v>
+        <v>-0.29526823100050692</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.22016327852315179</v>
+        <v>-0.25255991749362106</v>
       </c>
       <c r="E103" s="0">
-        <v>2.4618323918040712</v>
+        <v>2.4582627437277136</v>
       </c>
       <c r="F103" s="0">
-        <v>-0.00022943667144572131</v>
+        <v>-0.00032134648453622443</v>
       </c>
       <c r="G103" s="0">
-        <v>-0.017432689100189556</v>
+        <v>-0.0033905719757967474</v>
       </c>
       <c r="H103" s="0">
-        <v>-1.054685718668801</v>
+        <v>-0.95110086054909893</v>
       </c>
       <c r="I103" s="0">
-        <v>-1.0511548685750856</v>
+        <v>-1.0937116610118878</v>
       </c>
       <c r="J103" s="0">
-        <v>3.2272921783463273</v>
+        <v>3.2320213628041006</v>
       </c>
       <c r="K103" s="0">
-        <v>0.00025219133156361296</v>
+        <v>0.00041059252569288813</v>
       </c>
       <c r="L103" s="0">
-        <v>-0.21568388111933412</v>
+        <v>-0.22210090422534845</v>
       </c>
       <c r="M103" s="0">
-        <v>-1.6292841623581187</v>
+        <v>-1.5670435871218473</v>
       </c>
       <c r="N103" s="0">
-        <v>-1.6034146197148944</v>
+        <v>-1.6355625293451281</v>
       </c>
       <c r="O103" s="0">
-        <v>5.5019037446088763</v>
+        <v>5.4522965857618271</v>
       </c>
       <c r="P103" s="0">
-        <v>0.0017806305847522833</v>
+        <v>0.002167529346552826</v>
       </c>
     </row>
     <row r="104">
@@ -5285,49 +5285,49 @@
         <v>37438</v>
       </c>
       <c r="B104" s="0">
-        <v>-0.11530677364547226</v>
+        <v>-0.11920732196172992</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.17005994266478452</v>
+        <v>-0.21065628079545032</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.17421760355006297</v>
+        <v>-0.16609764806604177</v>
       </c>
       <c r="E104" s="0">
-        <v>2.4488738284941247</v>
+        <v>2.4446782135576326</v>
       </c>
       <c r="F104" s="0">
-        <v>-0.00020405279542417548</v>
+        <v>-0.0002896481910244932</v>
       </c>
       <c r="G104" s="0">
-        <v>-0.027343635198472275</v>
+        <v>-0.023963246795100923</v>
       </c>
       <c r="H104" s="0">
-        <v>-0.75366999220263431</v>
+        <v>-0.644179405474682</v>
       </c>
       <c r="I104" s="0">
-        <v>-0.74265090619462626</v>
+        <v>-0.80918179352697539</v>
       </c>
       <c r="J104" s="0">
-        <v>3.2208828214807825</v>
+        <v>3.2256717882946417</v>
       </c>
       <c r="K104" s="0">
-        <v>0.00023569221327683556</v>
+        <v>0.00038409438002199009</v>
       </c>
       <c r="L104" s="0">
-        <v>-0.20287466713955091</v>
+        <v>-0.17004114912133281</v>
       </c>
       <c r="M104" s="0">
-        <v>-1.6622038331328257</v>
+        <v>-1.5629309908474101</v>
       </c>
       <c r="N104" s="0">
-        <v>-1.6241247900485329</v>
+        <v>-1.6075316416032459</v>
       </c>
       <c r="O104" s="0">
-        <v>5.4902717883215715</v>
+        <v>5.4382125290823407</v>
       </c>
       <c r="P104" s="0">
-        <v>0.0016897270103147597</v>
+        <v>0.0019629033535408253</v>
       </c>
     </row>
     <row r="105">
@@ -5335,49 +5335,49 @@
         <v>37530</v>
       </c>
       <c r="B105" s="0">
-        <v>-0.078005855666734375</v>
+        <v>-0.078284743541114726</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.66454450426645595</v>
+        <v>-0.64213832010468486</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.60344288185644657</v>
+        <v>-0.54359276256703581</v>
       </c>
       <c r="E105" s="0">
-        <v>2.4125906723077248</v>
+        <v>2.4113713121752722</v>
       </c>
       <c r="F105" s="0">
-        <v>-0.00018373486210842378</v>
+        <v>-0.00026132648362047427</v>
       </c>
       <c r="G105" s="0">
-        <v>-0.035221105159657012</v>
+        <v>-0.035548119860980873</v>
       </c>
       <c r="H105" s="0">
-        <v>-0.6649782344475863</v>
+        <v>-0.51526219662959238</v>
       </c>
       <c r="I105" s="0">
-        <v>-0.58930835428172657</v>
+        <v>-0.71918504487081902</v>
       </c>
       <c r="J105" s="0">
-        <v>3.2131740002722005</v>
+        <v>3.2152142282309439</v>
       </c>
       <c r="K105" s="0">
-        <v>0.00021306097954392324</v>
+        <v>0.00034547682183099849</v>
       </c>
       <c r="L105" s="0">
-        <v>-0.19137549736623219</v>
+        <v>-0.1579514663821375</v>
       </c>
       <c r="M105" s="0">
-        <v>-1.8383850518886844</v>
+        <v>-1.7084224737361802</v>
       </c>
       <c r="N105" s="0">
-        <v>-1.759426543564315</v>
+        <v>-1.7917983622542637</v>
       </c>
       <c r="O105" s="0">
-        <v>5.4635224471395549</v>
+        <v>5.4163696206390197</v>
       </c>
       <c r="P105" s="0">
-        <v>0.0015688839235163761</v>
+        <v>0.0017138910002795931</v>
       </c>
     </row>
     <row r="106">
@@ -5385,49 +5385,49 @@
         <v>37622</v>
       </c>
       <c r="B106" s="0">
-        <v>-0.051972880108293096</v>
+        <v>-0.051410948113123765</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.62689494503337917</v>
+        <v>-0.69261132119068913</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.60987342015334733</v>
+        <v>-0.61567562264546449</v>
       </c>
       <c r="E106" s="0">
-        <v>2.3780678681879537</v>
+        <v>2.3753572057266328</v>
       </c>
       <c r="F106" s="0">
-        <v>-0.00016165264275197675</v>
+        <v>-0.0002325016889748678</v>
       </c>
       <c r="G106" s="0">
-        <v>-0.040192017431950958</v>
+        <v>-0.040840281033686893</v>
       </c>
       <c r="H106" s="0">
-        <v>-0.55594972277134791</v>
+        <v>-0.36237278372979898</v>
       </c>
       <c r="I106" s="0">
-        <v>-0.44788076465207943</v>
+        <v>-0.59704461626226624</v>
       </c>
       <c r="J106" s="0">
-        <v>3.2072178225149459</v>
+        <v>3.2040282728387295</v>
       </c>
       <c r="K106" s="0">
-        <v>0.0001981895761535959</v>
+        <v>0.00031690279728089743</v>
       </c>
       <c r="L106" s="0">
-        <v>-0.30840470915870188</v>
+        <v>-0.29540147029712416</v>
       </c>
       <c r="M106" s="0">
-        <v>-1.9201960161328318</v>
+        <v>-1.7650569469384947</v>
       </c>
       <c r="N106" s="0">
-        <v>-1.7397475382028174</v>
+        <v>-1.8739093847348363</v>
       </c>
       <c r="O106" s="0">
-        <v>5.4402654673005344</v>
+        <v>5.3894520244657809</v>
       </c>
       <c r="P106" s="0">
-        <v>0.0014342003143826701</v>
+        <v>0.0015936223056132342</v>
       </c>
     </row>
     <row r="107">
@@ -5435,49 +5435,49 @@
         <v>37712</v>
       </c>
       <c r="B107" s="0">
-        <v>-0.036570345891757068</v>
+        <v>-0.035442724448081164</v>
       </c>
       <c r="C107" s="0">
-        <v>-0.45526138341290512</v>
+        <v>-0.45543562809400717</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.40223421818277072</v>
+        <v>-0.38466800323712613</v>
       </c>
       <c r="E107" s="0">
-        <v>2.3768247934526925</v>
+        <v>2.3744782850893356</v>
       </c>
       <c r="F107" s="0">
-        <v>-0.00014739267550967428</v>
+        <v>-0.00020541729512519788</v>
       </c>
       <c r="G107" s="0">
-        <v>-0.045408981271987808</v>
+        <v>-0.046417065906885213</v>
       </c>
       <c r="H107" s="0">
-        <v>-0.83796248461259393</v>
+        <v>-0.7548071784859518</v>
       </c>
       <c r="I107" s="0">
-        <v>-0.81381034935627128</v>
+        <v>-0.90611581242468209</v>
       </c>
       <c r="J107" s="0">
-        <v>3.2026374242540259</v>
+        <v>3.1901369551553964</v>
       </c>
       <c r="K107" s="0">
-        <v>0.00017488172631629806</v>
+        <v>0.00028947092948905425</v>
       </c>
       <c r="L107" s="0">
-        <v>-0.24175004736399242</v>
+        <v>-0.2297135771105781</v>
       </c>
       <c r="M107" s="0">
-        <v>-1.9242299044685267</v>
+        <v>-1.7780392134375029</v>
       </c>
       <c r="N107" s="0">
-        <v>-1.7506272637487499</v>
+        <v>-1.8633167037392764</v>
       </c>
       <c r="O107" s="0">
-        <v>5.428814468172142</v>
+        <v>5.3713126763332415</v>
       </c>
       <c r="P107" s="0">
-        <v>0.0012998420362861441</v>
+        <v>0.0014521386740264299</v>
       </c>
     </row>
     <row r="108">
@@ -5485,49 +5485,49 @@
         <v>37803</v>
       </c>
       <c r="B108" s="0">
-        <v>-0.016619126922698103</v>
+        <v>-0.014308532929079978</v>
       </c>
       <c r="C108" s="0">
-        <v>0.37320668439569826</v>
+        <v>0.3470368167037961</v>
       </c>
       <c r="D108" s="0">
-        <v>0.37742646369605437</v>
+        <v>0.384998164462102</v>
       </c>
       <c r="E108" s="0">
-        <v>2.3661209660264708</v>
+        <v>2.3649915907413233</v>
       </c>
       <c r="F108" s="0">
-        <v>-0.00014002381847198471</v>
+        <v>-0.00018426736111382629</v>
       </c>
       <c r="G108" s="0">
-        <v>-0.042250264995146489</v>
+        <v>-0.04420629654904755</v>
       </c>
       <c r="H108" s="0">
-        <v>-0.79212307454664743</v>
+        <v>-0.67202271159935068</v>
       </c>
       <c r="I108" s="0">
-        <v>-0.70135228528718363</v>
+        <v>-0.81094733564753485</v>
       </c>
       <c r="J108" s="0">
-        <v>3.1960196556991365</v>
+        <v>3.1803730081848212</v>
       </c>
       <c r="K108" s="0">
-        <v>0.00016310550512574495</v>
+        <v>0.0002574776808055314</v>
       </c>
       <c r="L108" s="0">
-        <v>-0.91895057370536182</v>
+        <v>-0.90822386427496737</v>
       </c>
       <c r="M108" s="0">
-        <v>-1.6474798708402321</v>
+        <v>-1.5300799526121791</v>
       </c>
       <c r="N108" s="0">
-        <v>-1.4772369024660501</v>
+        <v>-1.619264385119827</v>
       </c>
       <c r="O108" s="0">
-        <v>5.4034132349055284</v>
+        <v>5.3508431756676735</v>
       </c>
       <c r="P108" s="0">
-        <v>0.0011879158682343094</v>
+        <v>0.0013175378201017943</v>
       </c>
     </row>
     <row r="109">
@@ -5535,49 +5535,49 @@
         <v>37895</v>
       </c>
       <c r="B109" s="0">
-        <v>-0.0097699495765240819</v>
+        <v>-0.015574538016869907</v>
       </c>
       <c r="C109" s="0">
-        <v>0.74740057776255597</v>
+        <v>0.70778887579180905</v>
       </c>
       <c r="D109" s="0">
-        <v>0.69808391841753703</v>
+        <v>0.74084949309958992</v>
       </c>
       <c r="E109" s="0">
-        <v>2.3593723637279957</v>
+        <v>2.3602328467171585</v>
       </c>
       <c r="F109" s="0">
-        <v>-0.00012685227579871129</v>
+        <v>-0.00016414908532153084</v>
       </c>
       <c r="G109" s="0">
-        <v>-0.062994560848760831</v>
+        <v>-0.057375561082438131</v>
       </c>
       <c r="H109" s="0">
-        <v>-1.0458422158856964</v>
+        <v>-0.99852999030187806</v>
       </c>
       <c r="I109" s="0">
-        <v>-1.0056224121367694</v>
+        <v>-1.0317495951965707</v>
       </c>
       <c r="J109" s="0">
-        <v>3.1824202430309096</v>
+        <v>3.1755084539350573</v>
       </c>
       <c r="K109" s="0">
-        <v>0.00015441439137529108</v>
+        <v>0.0002423190582823238</v>
       </c>
       <c r="L109" s="0">
-        <v>-1.0838301087798792</v>
+        <v>-1.0618824494484369</v>
       </c>
       <c r="M109" s="0">
-        <v>-1.5410404483041109</v>
+        <v>-1.4132671260001586</v>
       </c>
       <c r="N109" s="0">
-        <v>-1.3998999067428262</v>
+        <v>-1.5473276241966318</v>
       </c>
       <c r="O109" s="0">
-        <v>5.3839599091526118</v>
+        <v>5.3301246337930133</v>
       </c>
       <c r="P109" s="0">
-        <v>0.0010673060773157693</v>
+        <v>0.0012069302792699044</v>
       </c>
     </row>
     <row r="110">
@@ -5585,49 +5585,49 @@
         <v>37987</v>
       </c>
       <c r="B110" s="0">
-        <v>0.0075497760241951452</v>
+        <v>0.0057235452420872721</v>
       </c>
       <c r="C110" s="0">
-        <v>0.52173312753967871</v>
+        <v>0.47677742284823549</v>
       </c>
       <c r="D110" s="0">
-        <v>0.49288220018138573</v>
+        <v>0.54525858141976857</v>
       </c>
       <c r="E110" s="0">
-        <v>2.3434712246030829</v>
+        <v>2.3443356592212332</v>
       </c>
       <c r="F110" s="0">
-        <v>-0.00012401886663074139</v>
+        <v>-0.00014843706228778503</v>
       </c>
       <c r="G110" s="0">
-        <v>-0.068137822903512058</v>
+        <v>-0.065353717559699681</v>
       </c>
       <c r="H110" s="0">
-        <v>-0.58355924973041784</v>
+        <v>-0.48634503736412871</v>
       </c>
       <c r="I110" s="0">
-        <v>-0.48627185237182546</v>
+        <v>-0.55285067192234738</v>
       </c>
       <c r="J110" s="0">
-        <v>3.1677265959492189</v>
+        <v>3.162731291479342</v>
       </c>
       <c r="K110" s="0">
-        <v>0.00013961092067573045</v>
+        <v>0.00022405695157681668</v>
       </c>
       <c r="L110" s="0">
-        <v>-1.2732289419370959</v>
+        <v>-1.2185456622253237</v>
       </c>
       <c r="M110" s="0">
-        <v>-1.4687716607734602</v>
+        <v>-1.3638549328011431</v>
       </c>
       <c r="N110" s="0">
-        <v>-1.3367176703982868</v>
+        <v>-1.4322477467632437</v>
       </c>
       <c r="O110" s="0">
-        <v>5.3605238928932559</v>
+        <v>5.305035871176079</v>
       </c>
       <c r="P110" s="0">
-        <v>0.00097032291824828342</v>
+        <v>0.0011036652667946252</v>
       </c>
     </row>
     <row r="111">
@@ -5635,49 +5635,49 @@
         <v>38078</v>
       </c>
       <c r="B111" s="0">
-        <v>0.026376356154724147</v>
+        <v>0.025400678997496387</v>
       </c>
       <c r="C111" s="0">
-        <v>0.099017389617281071</v>
+        <v>0.052677516658064527</v>
       </c>
       <c r="D111" s="0">
-        <v>0.05726733349831245</v>
+        <v>0.084046191614813637</v>
       </c>
       <c r="E111" s="0">
-        <v>2.3118191457506576</v>
+        <v>2.3150903556264</v>
       </c>
       <c r="F111" s="0">
-        <v>-0.00011685977319399402</v>
+        <v>-0.00013546601041347444</v>
       </c>
       <c r="G111" s="0">
-        <v>-0.068133639164402335</v>
+        <v>-0.06918960252310416</v>
       </c>
       <c r="H111" s="0">
-        <v>-0.54359152360509333</v>
+        <v>-0.46352428492838382</v>
       </c>
       <c r="I111" s="0">
-        <v>-0.47801257283734877</v>
+        <v>-0.56119213863597994</v>
       </c>
       <c r="J111" s="0">
-        <v>3.1540364718406231</v>
+        <v>3.1443858958329645</v>
       </c>
       <c r="K111" s="0">
-        <v>0.00012002256452607034</v>
+        <v>0.00021165916904419268</v>
       </c>
       <c r="L111" s="0">
-        <v>-1.0906332471282267</v>
+        <v>-1.0322337387959393</v>
       </c>
       <c r="M111" s="0">
-        <v>-1.5586713928566502</v>
+        <v>-1.462532386661457</v>
       </c>
       <c r="N111" s="0">
-        <v>-1.4219527346368506</v>
+        <v>-1.5171552917496998</v>
       </c>
       <c r="O111" s="0">
-        <v>5.3234268943269694</v>
+        <v>5.2798520962647153</v>
       </c>
       <c r="P111" s="0">
-        <v>0.00088383075486614632</v>
+        <v>0.0010321115199535603</v>
       </c>
     </row>
     <row r="112">
@@ -5685,49 +5685,49 @@
         <v>38169</v>
       </c>
       <c r="B112" s="0">
-        <v>0.048580827753160458</v>
+        <v>0.058776257492899719</v>
       </c>
       <c r="C112" s="0">
-        <v>-0.014269086408213803</v>
+        <v>-0.085654282850098545</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.083125919531223197</v>
+        <v>-0.030873472214626226</v>
       </c>
       <c r="E112" s="0">
-        <v>2.2656959661423026</v>
+        <v>2.2781541614838301</v>
       </c>
       <c r="F112" s="0">
-        <v>-0.00010993598791755028</v>
+        <v>-0.00012270307841126939</v>
       </c>
       <c r="G112" s="0">
-        <v>-0.061149178373178771</v>
+        <v>-0.063102328793230314</v>
       </c>
       <c r="H112" s="0">
-        <v>-0.41815944112146197</v>
+        <v>-0.35456500706750343</v>
       </c>
       <c r="I112" s="0">
-        <v>-0.39861210875027153</v>
+        <v>-0.43217348650116805</v>
       </c>
       <c r="J112" s="0">
-        <v>3.1389810146904091</v>
+        <v>3.1357058444276094</v>
       </c>
       <c r="K112" s="0">
-        <v>0.00011201187802908262</v>
+        <v>0.00020167070252950889</v>
       </c>
       <c r="L112" s="0">
-        <v>-0.69047553572594977</v>
+        <v>-0.66526532506231406</v>
       </c>
       <c r="M112" s="0">
-        <v>-1.5573808568635585</v>
+        <v>-1.4106244507152299</v>
       </c>
       <c r="N112" s="0">
-        <v>-1.3684026372524865</v>
+        <v>-1.4724672235319258</v>
       </c>
       <c r="O112" s="0">
-        <v>5.275283610871635</v>
+        <v>5.2469499969872322</v>
       </c>
       <c r="P112" s="0">
-        <v>0.00080416546018694413</v>
+        <v>0.00096658464129321638</v>
       </c>
     </row>
     <row r="113">
@@ -5735,49 +5735,49 @@
         <v>38261</v>
       </c>
       <c r="B113" s="0">
-        <v>0.071239737771634032</v>
+        <v>0.075987464045887909</v>
       </c>
       <c r="C113" s="0">
-        <v>0.14732932749355004</v>
+        <v>0.10623477064338405</v>
       </c>
       <c r="D113" s="0">
-        <v>0.13554200273123429</v>
+        <v>0.13224925960781189</v>
       </c>
       <c r="E113" s="0">
-        <v>2.158785176840063</v>
+        <v>2.169641322188375</v>
       </c>
       <c r="F113" s="0">
-        <v>-9.952603202488308e-05</v>
+        <v>-0.0001128830110346936</v>
       </c>
       <c r="G113" s="0">
-        <v>-0.048712639627168597</v>
+        <v>-0.048683277263968927</v>
       </c>
       <c r="H113" s="0">
-        <v>-0.3157550674411771</v>
+        <v>-0.21856617113928306</v>
       </c>
       <c r="I113" s="0">
-        <v>-0.27097516556203738</v>
+        <v>-0.29065477530342321</v>
       </c>
       <c r="J113" s="0">
-        <v>3.1232875775131967</v>
+        <v>3.113501265407423</v>
       </c>
       <c r="K113" s="0">
-        <v>9.8642014038271693e-05</v>
+        <v>0.00019108476182618905</v>
       </c>
       <c r="L113" s="0">
-        <v>-0.3467632712207056</v>
+        <v>-0.3221099423016357</v>
       </c>
       <c r="M113" s="0">
-        <v>-1.4360881295710752</v>
+        <v>-1.2904269991076285</v>
       </c>
       <c r="N113" s="0">
-        <v>-1.2447001544001048</v>
+        <v>-1.3521079928714181</v>
       </c>
       <c r="O113" s="0">
-        <v>5.2025300067692868</v>
+        <v>5.1841392527845329</v>
       </c>
       <c r="P113" s="0">
-        <v>0.00073816891996651723</v>
+        <v>0.00089195471704114112</v>
       </c>
     </row>
     <row r="114">
@@ -5785,49 +5785,49 @@
         <v>38353</v>
       </c>
       <c r="B114" s="0">
-        <v>0.075459725513578865</v>
+        <v>0.0836548500658095</v>
       </c>
       <c r="C114" s="0">
-        <v>0.31563954140620265</v>
+        <v>0.27847764618661291</v>
       </c>
       <c r="D114" s="0">
-        <v>0.30967207377608919</v>
+        <v>0.32975872119085209</v>
       </c>
       <c r="E114" s="0">
-        <v>2.1137998006566234</v>
+        <v>2.1312443622114285</v>
       </c>
       <c r="F114" s="0">
-        <v>-9.1952763477557261e-05</v>
+        <v>-0.00010268169587303857</v>
       </c>
       <c r="G114" s="0">
-        <v>-0.030856773895053043</v>
+        <v>-0.029646611001901406</v>
       </c>
       <c r="H114" s="0">
-        <v>-0.41443410463585284</v>
+        <v>-0.36361471248484545</v>
       </c>
       <c r="I114" s="0">
-        <v>-0.38965437052161062</v>
+        <v>-0.39832645585580995</v>
       </c>
       <c r="J114" s="0">
-        <v>3.1035138938779148</v>
+        <v>3.0809734696805631</v>
       </c>
       <c r="K114" s="0">
-        <v>8.6888488332204154e-05</v>
+        <v>0.00017065026319005712</v>
       </c>
       <c r="L114" s="0">
-        <v>0.015497053045626902</v>
+        <v>0.036871871852672267</v>
       </c>
       <c r="M114" s="0">
-        <v>-1.3048846996590286</v>
+        <v>-1.2136192254907234</v>
       </c>
       <c r="N114" s="0">
-        <v>-1.154264469445154</v>
+        <v>-1.227211635219781</v>
       </c>
       <c r="O114" s="0">
-        <v>5.140864147917334</v>
+        <v>5.1368290360270343</v>
       </c>
       <c r="P114" s="0">
-        <v>0.00068832809338187199</v>
+        <v>0.00082102266698830099</v>
       </c>
     </row>
     <row r="115">
@@ -5835,49 +5835,49 @@
         <v>38443</v>
       </c>
       <c r="B115" s="0">
-        <v>0.07831632304676911</v>
+        <v>0.075880510946550919</v>
       </c>
       <c r="C115" s="0">
-        <v>0.19350388205192581</v>
+        <v>0.16403913378250701</v>
       </c>
       <c r="D115" s="0">
-        <v>0.18684214503928731</v>
+        <v>0.1840678116874036</v>
       </c>
       <c r="E115" s="0">
-        <v>2.0025831146626851</v>
+        <v>2.0156912594572578</v>
       </c>
       <c r="F115" s="0">
-        <v>-8.6119936544022489e-05</v>
+        <v>-9.3715863077147111e-05</v>
       </c>
       <c r="G115" s="0">
-        <v>-0.013939814183927072</v>
+        <v>-0.010927679231732792</v>
       </c>
       <c r="H115" s="0">
-        <v>-0.38900261526594326</v>
+        <v>-0.34047638188139051</v>
       </c>
       <c r="I115" s="0">
-        <v>-0.35810388386819553</v>
+        <v>-0.38241550771054783</v>
       </c>
       <c r="J115" s="0">
-        <v>3.0822873589784248</v>
+        <v>3.0521156129567002</v>
       </c>
       <c r="K115" s="0">
-        <v>8.004147911170093e-05</v>
+        <v>0.00014463690525685276</v>
       </c>
       <c r="L115" s="0">
-        <v>0.45715406971513961</v>
+        <v>0.46876352847275449</v>
       </c>
       <c r="M115" s="0">
-        <v>-1.2753035171717277</v>
+        <v>-1.1387128279255361</v>
       </c>
       <c r="N115" s="0">
-        <v>-1.0862678783702679</v>
+        <v>-1.1866135810616658</v>
       </c>
       <c r="O115" s="0">
-        <v>5.0591127216886251</v>
+        <v>5.0574672349753893</v>
       </c>
       <c r="P115" s="0">
-        <v>0.00064705593543319326</v>
+        <v>0.00076735037609738997</v>
       </c>
     </row>
     <row r="116">
@@ -5885,49 +5885,49 @@
         <v>38534</v>
       </c>
       <c r="B116" s="0">
-        <v>0.070004730161207646</v>
+        <v>0.064560564867174514</v>
       </c>
       <c r="C116" s="0">
-        <v>0.24237804424129947</v>
+        <v>0.20089770341541408</v>
       </c>
       <c r="D116" s="0">
-        <v>0.22270541145606648</v>
+        <v>0.25525220925313119</v>
       </c>
       <c r="E116" s="0">
-        <v>1.8845755833652955</v>
+        <v>1.9082732922956969</v>
       </c>
       <c r="F116" s="0">
-        <v>-7.5621634739438459e-05</v>
+        <v>-8.6969187241773492e-05</v>
       </c>
       <c r="G116" s="0">
-        <v>0.0083305999419736806</v>
+        <v>0.0079123653336058662</v>
       </c>
       <c r="H116" s="0">
-        <v>-0.18382688854883394</v>
+        <v>-0.13290440334064277</v>
       </c>
       <c r="I116" s="0">
-        <v>-0.14510448451515717</v>
+        <v>-0.17221802774560019</v>
       </c>
       <c r="J116" s="0">
-        <v>3.0551455281644921</v>
+        <v>3.0120354864147791</v>
       </c>
       <c r="K116" s="0">
-        <v>7.668016414900597e-05</v>
+        <v>0.00013066105384701725</v>
       </c>
       <c r="L116" s="0">
-        <v>0.82701822921476964</v>
+        <v>0.8451872344900242</v>
       </c>
       <c r="M116" s="0">
-        <v>-1.1501237826821324</v>
+        <v>-1.0195455593822671</v>
       </c>
       <c r="N116" s="0">
-        <v>-0.9663832983460745</v>
+        <v>-1.0752586537108304</v>
       </c>
       <c r="O116" s="0">
-        <v>4.9631156114226433</v>
+        <v>4.9729725570311487</v>
       </c>
       <c r="P116" s="0">
-        <v>0.00060781449286473961</v>
+        <v>0.00069563037183881737</v>
       </c>
     </row>
     <row r="117">
@@ -5935,49 +5935,49 @@
         <v>38626</v>
       </c>
       <c r="B117" s="0">
-        <v>0.052892118951743887</v>
+        <v>0.049766016923260131</v>
       </c>
       <c r="C117" s="0">
-        <v>0.055566219679152318</v>
+        <v>0.0081955995445189764</v>
       </c>
       <c r="D117" s="0">
-        <v>0.073916055166869749</v>
+        <v>0.054079564609585191</v>
       </c>
       <c r="E117" s="0">
-        <v>1.7720847798275277</v>
+        <v>1.7939116640431438</v>
       </c>
       <c r="F117" s="0">
-        <v>-6.9712487379291398e-05</v>
+        <v>-8.2527849374694267e-05</v>
       </c>
       <c r="G117" s="0">
-        <v>0.0289173399279316</v>
+        <v>0.032307706455265428</v>
       </c>
       <c r="H117" s="0">
-        <v>-0.01933673821743051</v>
+        <v>0.042208632827662754</v>
       </c>
       <c r="I117" s="0">
-        <v>0.069692328448691887</v>
+        <v>0.022803129887282097</v>
       </c>
       <c r="J117" s="0">
-        <v>3.0164819976240622</v>
+        <v>2.9646274885745321</v>
       </c>
       <c r="K117" s="0">
-        <v>7.3425650422664684e-05</v>
+        <v>0.00011998364889792321</v>
       </c>
       <c r="L117" s="0">
-        <v>1.3051868958995105</v>
+        <v>1.3357878542065067</v>
       </c>
       <c r="M117" s="0">
-        <v>-1.0545928313108985</v>
+        <v>-0.91983640547073287</v>
       </c>
       <c r="N117" s="0">
-        <v>-0.90333808476517641</v>
+        <v>-1.024155884737588</v>
       </c>
       <c r="O117" s="0">
-        <v>4.8678086503314253</v>
+        <v>4.8762911385013776</v>
       </c>
       <c r="P117" s="0">
-        <v>0.00056684131850202749</v>
+        <v>0.00064096687467768182</v>
       </c>
     </row>
     <row r="118">
@@ -5985,49 +5985,49 @@
         <v>38718</v>
       </c>
       <c r="B118" s="0">
-        <v>0.031424152283485128</v>
+        <v>0.024702826154621549</v>
       </c>
       <c r="C118" s="0">
-        <v>0.46660293641163408</v>
+        <v>0.39321049119080731</v>
       </c>
       <c r="D118" s="0">
-        <v>0.39831064014298501</v>
+        <v>0.46790216676527252</v>
       </c>
       <c r="E118" s="0">
-        <v>1.7039990385672095</v>
+        <v>1.7304899799548914</v>
       </c>
       <c r="F118" s="0">
-        <v>-6.2857412693152599e-05</v>
+        <v>-7.602231438290553e-05</v>
       </c>
       <c r="G118" s="0">
-        <v>0.054316477911131811</v>
+        <v>0.054971480037702691</v>
       </c>
       <c r="H118" s="0">
-        <v>-0.085760030163273882</v>
+        <v>-0.043147603234859312</v>
       </c>
       <c r="I118" s="0">
-        <v>-0.056679551181444972</v>
+        <v>-0.055256049521662479</v>
       </c>
       <c r="J118" s="0">
-        <v>2.9655297879856315</v>
+        <v>2.9220868150033943</v>
       </c>
       <c r="K118" s="0">
-        <v>6.4924300928265234e-05</v>
+        <v>0.00010973120710777056</v>
       </c>
       <c r="L118" s="0">
-        <v>1.495265289393314</v>
+        <v>1.5277379442848398</v>
       </c>
       <c r="M118" s="0">
-        <v>-0.83495746646059088</v>
+        <v>-0.76465638047401896</v>
       </c>
       <c r="N118" s="0">
-        <v>-0.70815409986352273</v>
+        <v>-0.79450619247270204</v>
       </c>
       <c r="O118" s="0">
-        <v>4.7939599598876868</v>
+        <v>4.7859521473791986</v>
       </c>
       <c r="P118" s="0">
-        <v>0.00051572746247252718</v>
+        <v>0.00058721319118879597</v>
       </c>
     </row>
     <row r="119">
@@ -6035,49 +6035,49 @@
         <v>38808</v>
       </c>
       <c r="B119" s="0">
-        <v>0.0017733922960963319</v>
+        <v>-0.0087019224298027029</v>
       </c>
       <c r="C119" s="0">
-        <v>0.23885854417794794</v>
+        <v>0.21499237814096925</v>
       </c>
       <c r="D119" s="0">
-        <v>0.20759516880653661</v>
+        <v>0.23428211734816981</v>
       </c>
       <c r="E119" s="0">
-        <v>1.5966633400374985</v>
+        <v>1.6312748611811099</v>
       </c>
       <c r="F119" s="0">
-        <v>-5.872320881454784e-05</v>
+        <v>-7.1101003182801823e-05</v>
       </c>
       <c r="G119" s="0">
-        <v>0.070454679816030152</v>
+        <v>0.070057997692853619</v>
       </c>
       <c r="H119" s="0">
-        <v>-0.29798502881858879</v>
+        <v>-0.27847843126661909</v>
       </c>
       <c r="I119" s="0">
-        <v>-0.28744592844134964</v>
+        <v>-0.28853233498411257</v>
       </c>
       <c r="J119" s="0">
-        <v>2.9075340059106676</v>
+        <v>2.8716927625111444</v>
       </c>
       <c r="K119" s="0">
-        <v>5.661680807882933e-05</v>
+        <v>0.00010465033359467044</v>
       </c>
       <c r="L119" s="0">
-        <v>2.0433431985552044</v>
+        <v>2.0552155605629738</v>
       </c>
       <c r="M119" s="0">
-        <v>-0.8011509454759751</v>
+        <v>-0.76157278153268515</v>
       </c>
       <c r="N119" s="0">
-        <v>-0.69303048816782276</v>
+        <v>-0.78340557549786904</v>
       </c>
       <c r="O119" s="0">
-        <v>4.6881609800802497</v>
+        <v>4.6707210694741788</v>
       </c>
       <c r="P119" s="0">
-        <v>0.00046396399611757858</v>
+        <v>0.00055273271829296396</v>
       </c>
     </row>
     <row r="120">
@@ -6085,49 +6085,49 @@
         <v>38899</v>
       </c>
       <c r="B120" s="0">
-        <v>-0.029364458515136537</v>
+        <v>-0.036991241666634381</v>
       </c>
       <c r="C120" s="0">
-        <v>0.075780721268373624</v>
+        <v>0.07300230743198198</v>
       </c>
       <c r="D120" s="0">
-        <v>0.067983462208578843</v>
+        <v>0.07194136976772518</v>
       </c>
       <c r="E120" s="0">
-        <v>1.464083814336711</v>
+        <v>1.5025000120500074</v>
       </c>
       <c r="F120" s="0">
-        <v>-5.6377845928286586e-05</v>
+        <v>-6.8198180071407302e-05</v>
       </c>
       <c r="G120" s="0">
-        <v>0.097175751777793529</v>
+        <v>0.09766276652553578</v>
       </c>
       <c r="H120" s="0">
-        <v>-0.26661228121448627</v>
+        <v>-0.23778475937066146</v>
       </c>
       <c r="I120" s="0">
-        <v>-0.24884683616108647</v>
+        <v>-0.25792763295030663</v>
       </c>
       <c r="J120" s="0">
-        <v>2.8555225158040671</v>
+        <v>2.8070772324650779</v>
       </c>
       <c r="K120" s="0">
-        <v>4.8525360624850525e-05</v>
+        <v>9.563956960497706e-05</v>
       </c>
       <c r="L120" s="0">
-        <v>2.4692551029243308</v>
+        <v>2.4719589522222494</v>
       </c>
       <c r="M120" s="0">
-        <v>-0.77890671501948738</v>
+        <v>-0.72322767451020731</v>
       </c>
       <c r="N120" s="0">
-        <v>-0.65387666857812987</v>
+        <v>-0.76136558010200428</v>
       </c>
       <c r="O120" s="0">
-        <v>4.5292411583222645</v>
+        <v>4.5317779550621839</v>
       </c>
       <c r="P120" s="0">
-        <v>0.00040628966653544099</v>
+        <v>0.00051812164842861578</v>
       </c>
     </row>
     <row r="121">
@@ -6135,49 +6135,49 @@
         <v>38991</v>
       </c>
       <c r="B121" s="0">
-        <v>-0.067786581159906323</v>
+        <v>-0.075343782821128802</v>
       </c>
       <c r="C121" s="0">
-        <v>-0.10071061333985698</v>
+        <v>-0.10576722495130968</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.12001374529665841</v>
+        <v>-0.1308125668223071</v>
       </c>
       <c r="E121" s="0">
-        <v>1.4863441956885282</v>
+        <v>1.52562305124141</v>
       </c>
       <c r="F121" s="0">
-        <v>-4.8498217266962439e-05</v>
+        <v>-6.7110720680504111e-05</v>
       </c>
       <c r="G121" s="0">
-        <v>0.11753080925901371</v>
+        <v>0.12088432541949531</v>
       </c>
       <c r="H121" s="0">
-        <v>-0.66412759978167712</v>
+        <v>-0.63368351481020579</v>
       </c>
       <c r="I121" s="0">
-        <v>-0.68122685878794731</v>
+        <v>-0.67615661893913903</v>
       </c>
       <c r="J121" s="0">
-        <v>2.8033215172755872</v>
+        <v>2.7530242561725622</v>
       </c>
       <c r="K121" s="0">
-        <v>4.8083702385920476e-05</v>
+        <v>8.6244952342727718e-05</v>
       </c>
       <c r="L121" s="0">
-        <v>2.8209435007281733</v>
+        <v>2.8016678690189334</v>
       </c>
       <c r="M121" s="0">
-        <v>-0.88908314811722045</v>
+        <v>-0.82693517802069638</v>
       </c>
       <c r="N121" s="0">
-        <v>-0.76554474378358539</v>
+        <v>-0.86061664208662525</v>
       </c>
       <c r="O121" s="0">
-        <v>4.4100449940194011</v>
+        <v>4.4148649184795214</v>
       </c>
       <c r="P121" s="0">
-        <v>0.00038606041131896134</v>
+        <v>0.00047660218411596479</v>
       </c>
     </row>
     <row r="122">
@@ -6185,49 +6185,49 @@
         <v>39083</v>
       </c>
       <c r="B122" s="0">
-        <v>-0.11822696867231033</v>
+        <v>-0.11143218021677316</v>
       </c>
       <c r="C122" s="0">
-        <v>-0.22311675872299433</v>
+        <v>-0.23841224966868577</v>
       </c>
       <c r="D122" s="0">
-        <v>-0.20346637283340066</v>
+        <v>-0.21059688992966319</v>
       </c>
       <c r="E122" s="0">
-        <v>1.5216268639854529</v>
+        <v>1.5499814486027881</v>
       </c>
       <c r="F122" s="0">
-        <v>-4.3562157704381591e-05</v>
+        <v>-6.0151415032278558e-05</v>
       </c>
       <c r="G122" s="0">
-        <v>0.13764129123234065</v>
+        <v>0.14101377157410627</v>
       </c>
       <c r="H122" s="0">
-        <v>-0.60903072318019413</v>
+        <v>-0.56754949853209125</v>
       </c>
       <c r="I122" s="0">
-        <v>-0.60489602914288088</v>
+        <v>-0.62402465970422627</v>
       </c>
       <c r="J122" s="0">
-        <v>2.757436380496074</v>
+        <v>2.7097658489442176</v>
       </c>
       <c r="K122" s="0">
-        <v>4.3423626246857161e-05</v>
+        <v>7.8316754976092887e-05</v>
       </c>
       <c r="L122" s="0">
-        <v>3.0478821049817544</v>
+        <v>3.033604918168916</v>
       </c>
       <c r="M122" s="0">
-        <v>-0.93850738626654051</v>
+        <v>-0.8496346904275639</v>
       </c>
       <c r="N122" s="0">
-        <v>-0.83582139597638794</v>
+        <v>-0.92189374602183616</v>
       </c>
       <c r="O122" s="0">
-        <v>4.2874698149222041</v>
+        <v>4.3041767700640765</v>
       </c>
       <c r="P122" s="0">
-        <v>0.00035030485142608216</v>
+        <v>0.00044376823532796391</v>
       </c>
     </row>
     <row r="123">
@@ -6235,49 +6235,49 @@
         <v>39173</v>
       </c>
       <c r="B123" s="0">
-        <v>-0.16348941921092325</v>
+        <v>-0.15663479762330298</v>
       </c>
       <c r="C123" s="0">
-        <v>0.1367691941526219</v>
+        <v>0.13547452854038061</v>
       </c>
       <c r="D123" s="0">
-        <v>0.13051947275052622</v>
+        <v>0.15044065385937025</v>
       </c>
       <c r="E123" s="0">
-        <v>1.4692339594561004</v>
+        <v>1.4998477490320616</v>
       </c>
       <c r="F123" s="0">
-        <v>-3.8480151350677621e-05</v>
+        <v>-5.3531060641021894e-05</v>
       </c>
       <c r="G123" s="0">
-        <v>0.15026177001757254</v>
+        <v>0.16037384140068481</v>
       </c>
       <c r="H123" s="0">
-        <v>-0.50114407934441396</v>
+        <v>-0.45848043094412105</v>
       </c>
       <c r="I123" s="0">
-        <v>-0.51446087560428078</v>
+        <v>-0.49455676773319479</v>
       </c>
       <c r="J123" s="0">
-        <v>2.7099166575423306</v>
+        <v>2.6604855779581875</v>
       </c>
       <c r="K123" s="0">
-        <v>3.7411559991493563e-05</v>
+        <v>7.2499988427409621e-05</v>
       </c>
       <c r="L123" s="0">
-        <v>3.020870995809541</v>
+        <v>3.0054615405907441</v>
       </c>
       <c r="M123" s="0">
-        <v>-0.87021191658215991</v>
+        <v>-0.79198002200823792</v>
       </c>
       <c r="N123" s="0">
-        <v>-0.74732098259445068</v>
+        <v>-0.87535720177263876</v>
       </c>
       <c r="O123" s="0">
-        <v>4.1635167552565209</v>
+        <v>4.1883511207708022</v>
       </c>
       <c r="P123" s="0">
-        <v>0.00033102685842042665</v>
+        <v>0.00040076379775725224</v>
       </c>
     </row>
     <row r="124">
@@ -6285,49 +6285,49 @@
         <v>39264</v>
       </c>
       <c r="B124" s="0">
-        <v>-0.21000370917062172</v>
+        <v>-0.20172148667752621</v>
       </c>
       <c r="C124" s="0">
-        <v>0.16696975845804229</v>
+        <v>0.11810878333213254</v>
       </c>
       <c r="D124" s="0">
-        <v>0.15909968092566765</v>
+        <v>0.1879042170303325</v>
       </c>
       <c r="E124" s="0">
-        <v>1.403974368816342</v>
+        <v>1.4299459604916143</v>
       </c>
       <c r="F124" s="0">
-        <v>-3.4637780283246829e-05</v>
+        <v>-5.0689916300202145e-05</v>
       </c>
       <c r="G124" s="0">
-        <v>0.15971789530692559</v>
+        <v>0.16843972972022259</v>
       </c>
       <c r="H124" s="0">
-        <v>-0.030074598295188909</v>
+        <v>-0.0021560617568602142</v>
       </c>
       <c r="I124" s="0">
-        <v>0.0025272343524830529</v>
+        <v>-0.035781896418019404</v>
       </c>
       <c r="J124" s="0">
-        <v>2.6549045665200302</v>
+        <v>2.6062493136865017</v>
       </c>
       <c r="K124" s="0">
-        <v>3.5191725368285154e-05</v>
+        <v>6.5550646529629632e-05</v>
       </c>
       <c r="L124" s="0">
-        <v>2.7695245314128218</v>
+        <v>2.7468956249556302</v>
       </c>
       <c r="M124" s="0">
-        <v>-0.75506501216997535</v>
+        <v>-0.69150817216861604</v>
       </c>
       <c r="N124" s="0">
-        <v>-0.64667350825934822</v>
+        <v>-0.75897423480609139</v>
       </c>
       <c r="O124" s="0">
-        <v>4.040935809904294</v>
+        <v>4.0723850812957583</v>
       </c>
       <c r="P124" s="0">
-        <v>0.00029665684307435692</v>
+        <v>0.00037794058772575912</v>
       </c>
     </row>
     <row r="125">
@@ -6335,49 +6335,49 @@
         <v>39356</v>
       </c>
       <c r="B125" s="0">
-        <v>-0.24108298017495405</v>
+        <v>-0.24199340442160058</v>
       </c>
       <c r="C125" s="0">
-        <v>0.35227778084015565</v>
+        <v>0.32986581918557423</v>
       </c>
       <c r="D125" s="0">
-        <v>0.38619467842840627</v>
+        <v>0.39145827511103359</v>
       </c>
       <c r="E125" s="0">
-        <v>1.3119390550225587</v>
+        <v>1.3421916124649507</v>
       </c>
       <c r="F125" s="0">
-        <v>-3.2110508575825309e-05</v>
+        <v>-4.6948713093567375e-05</v>
       </c>
       <c r="G125" s="0">
-        <v>0.15977378825705416</v>
+        <v>0.16640490682966924</v>
       </c>
       <c r="H125" s="0">
-        <v>0.049609880510446312</v>
+        <v>0.093525304072732629</v>
       </c>
       <c r="I125" s="0">
-        <v>0.073623219946769999</v>
+        <v>0.049772249240490028</v>
       </c>
       <c r="J125" s="0">
-        <v>2.6037784197827634</v>
+        <v>2.5440804444643552</v>
       </c>
       <c r="K125" s="0">
-        <v>3.0826252213253679e-05</v>
+        <v>5.5275510189366681e-05</v>
       </c>
       <c r="L125" s="0">
-        <v>2.0272920099743352</v>
+        <v>2.0361547540064806</v>
       </c>
       <c r="M125" s="0">
-        <v>-0.61800306159026019</v>
+        <v>-0.53382756126831632</v>
       </c>
       <c r="N125" s="0">
-        <v>-0.51234029511955181</v>
+        <v>-0.6202984742015607</v>
       </c>
       <c r="O125" s="0">
-        <v>3.9079583320061753</v>
+        <v>3.9148512001763143</v>
       </c>
       <c r="P125" s="0">
-        <v>0.0002684730030089468</v>
+        <v>0.00035352103497578885</v>
       </c>
     </row>
     <row r="126">
@@ -6385,49 +6385,49 @@
         <v>39448</v>
       </c>
       <c r="B126" s="0">
-        <v>-0.26606325883185766</v>
+        <v>-0.26463217711318948</v>
       </c>
       <c r="C126" s="0">
-        <v>-0.20181355104186571</v>
+        <v>-0.2821685725391162</v>
       </c>
       <c r="D126" s="0">
-        <v>-0.22014363122082833</v>
+        <v>-0.20613583732457708</v>
       </c>
       <c r="E126" s="0">
-        <v>1.1472611065330025</v>
+        <v>1.1793776383574412</v>
       </c>
       <c r="F126" s="0">
-        <v>-2.7950535473038037e-05</v>
+        <v>-4.5285780848340859e-05</v>
       </c>
       <c r="G126" s="0">
-        <v>0.1319019799793873</v>
+        <v>0.13818845344640779</v>
       </c>
       <c r="H126" s="0">
-        <v>0.10635846905943019</v>
+        <v>0.15664199544239379</v>
       </c>
       <c r="I126" s="0">
-        <v>0.14386868642661238</v>
+        <v>0.1109209235668385</v>
       </c>
       <c r="J126" s="0">
-        <v>2.5383447444366816</v>
+        <v>2.4766239562488446</v>
       </c>
       <c r="K126" s="0">
-        <v>2.809350679825287e-05</v>
+        <v>4.9463424298120033e-05</v>
       </c>
       <c r="L126" s="0">
-        <v>1.0382119558422831</v>
+        <v>0.99960333713700822</v>
       </c>
       <c r="M126" s="0">
-        <v>-0.70176136024157787</v>
+        <v>-0.61161083068091893</v>
       </c>
       <c r="N126" s="0">
-        <v>-0.58963980384983961</v>
+        <v>-0.65995122282419794</v>
       </c>
       <c r="O126" s="0">
-        <v>3.7317428436522282</v>
+        <v>3.7433704632608045</v>
       </c>
       <c r="P126" s="0">
-        <v>0.00024443327425801171</v>
+        <v>0.00033707421159684381</v>
       </c>
     </row>
     <row r="127">
@@ -6435,49 +6435,49 @@
         <v>39539</v>
       </c>
       <c r="B127" s="0">
-        <v>-0.2710888245576224</v>
+        <v>-0.27593683983198797</v>
       </c>
       <c r="C127" s="0">
-        <v>-0.21873625205671932</v>
+        <v>-0.31806146000922852</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.26519756096566505</v>
+        <v>-0.18382052123048459</v>
       </c>
       <c r="E127" s="0">
-        <v>0.99173490016553956</v>
+        <v>1.0191368083084398</v>
       </c>
       <c r="F127" s="0">
-        <v>-2.469324190073849e-05</v>
+        <v>-3.8762759256967958e-05</v>
       </c>
       <c r="G127" s="0">
-        <v>0.089479371801726465</v>
+        <v>0.097145151081484554</v>
       </c>
       <c r="H127" s="0">
-        <v>0.34418295898109702</v>
+        <v>0.4650106338339981</v>
       </c>
       <c r="I127" s="0">
-        <v>0.49231535689812289</v>
+        <v>0.42835462389811796</v>
       </c>
       <c r="J127" s="0">
-        <v>2.473088400799186</v>
+        <v>2.424125873586628</v>
       </c>
       <c r="K127" s="0">
-        <v>2.6480470189815872e-05</v>
+        <v>4.5079737066048325e-05</v>
       </c>
       <c r="L127" s="0">
-        <v>-0.11740601448991594</v>
+        <v>-0.16822292031013103</v>
       </c>
       <c r="M127" s="0">
-        <v>-0.63492388448237946</v>
+        <v>-0.52000833424470838</v>
       </c>
       <c r="N127" s="0">
-        <v>-0.47521790437725153</v>
+        <v>-0.61135564883655835</v>
       </c>
       <c r="O127" s="0">
-        <v>3.5348226706046377</v>
+        <v>3.5916062423366579</v>
       </c>
       <c r="P127" s="0">
-        <v>0.00022116047315501325</v>
+        <v>0.00030171826057398305</v>
       </c>
     </row>
     <row r="128">
@@ -6485,49 +6485,49 @@
         <v>39630</v>
       </c>
       <c r="B128" s="0">
-        <v>-0.25117969301589282</v>
+        <v>-0.25180173011098683</v>
       </c>
       <c r="C128" s="0">
-        <v>-0.45549880347763216</v>
+        <v>-0.56312489060361648</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.51084892885207223</v>
+        <v>-0.40351042279185506</v>
       </c>
       <c r="E128" s="0">
-        <v>0.58058020713864489</v>
+        <v>0.60749232964047717</v>
       </c>
       <c r="F128" s="0">
-        <v>-2.2304985110035831e-05</v>
+        <v>-3.8330079968653004e-05</v>
       </c>
       <c r="G128" s="0">
-        <v>0.038721792736837957</v>
+        <v>0.038877272927107437</v>
       </c>
       <c r="H128" s="0">
-        <v>0.51316366526675683</v>
+        <v>0.67489022116774555</v>
       </c>
       <c r="I128" s="0">
-        <v>0.72022413312925315</v>
+        <v>0.65138134889999477</v>
       </c>
       <c r="J128" s="0">
-        <v>2.3531889898164504</v>
+        <v>2.3502851949742132</v>
       </c>
       <c r="K128" s="0">
-        <v>2.5712298940230948e-05</v>
+        <v>3.7943693905542197e-05</v>
       </c>
       <c r="L128" s="0">
-        <v>-0.10534737164019553</v>
+        <v>-0.17701541538540166</v>
       </c>
       <c r="M128" s="0">
-        <v>-0.63374583241684534</v>
+        <v>-0.54155776874832773</v>
       </c>
       <c r="N128" s="0">
-        <v>-0.44547166938532201</v>
+        <v>-0.62410479025241794</v>
       </c>
       <c r="O128" s="0">
-        <v>3.2405554276282817</v>
+        <v>3.3689761575742425</v>
       </c>
       <c r="P128" s="0">
-        <v>0.00019391256566839079</v>
+        <v>0.00027928165098867192</v>
       </c>
     </row>
     <row r="129">
@@ -6535,49 +6535,49 @@
         <v>39722</v>
       </c>
       <c r="B129" s="0">
-        <v>-0.18455451388040678</v>
+        <v>-0.1876492644951433</v>
       </c>
       <c r="C129" s="0">
-        <v>-1.3025709255629068</v>
+        <v>-1.2464582059171523</v>
       </c>
       <c r="D129" s="0">
-        <v>-1.142571934326531</v>
+        <v>-1.2709025525279523</v>
       </c>
       <c r="E129" s="0">
-        <v>0.60900665154940803</v>
+        <v>0.6366695671554895</v>
       </c>
       <c r="F129" s="0">
-        <v>-2.0954232995136473e-05</v>
+        <v>-3.6411669907736083e-05</v>
       </c>
       <c r="G129" s="0">
-        <v>0.0072736297161941979</v>
+        <v>0.0077297152856965106</v>
       </c>
       <c r="H129" s="0">
-        <v>-0.75940047630058372</v>
+        <v>-0.69992483055033561</v>
       </c>
       <c r="I129" s="0">
-        <v>-0.73399963901510623</v>
+        <v>-0.85714900131184857</v>
       </c>
       <c r="J129" s="0">
-        <v>2.2710261792008861</v>
+        <v>2.2561712682185373</v>
       </c>
       <c r="K129" s="0">
-        <v>2.3797885817651709e-05</v>
+        <v>3.3107090991273713e-05</v>
       </c>
       <c r="L129" s="0">
-        <v>-0.49404661744245154</v>
+        <v>-0.57965866315942915</v>
       </c>
       <c r="M129" s="0">
-        <v>-1.0476994005905653</v>
+        <v>-0.8124340832482484</v>
       </c>
       <c r="N129" s="0">
-        <v>-0.80194667072746739</v>
+        <v>-0.95895304247370516</v>
       </c>
       <c r="O129" s="0">
-        <v>3.0718136546255419</v>
+        <v>3.1812141813885768</v>
       </c>
       <c r="P129" s="0">
-        <v>0.00018149434012700488</v>
+        <v>0.00026114651034093224</v>
       </c>
     </row>
     <row r="130">
@@ -6585,49 +6585,49 @@
         <v>39814</v>
       </c>
       <c r="B130" s="0">
-        <v>-0.13834875659609674</v>
+        <v>-0.14344620256316837</v>
       </c>
       <c r="C130" s="0">
-        <v>-2.6388495586400831</v>
+        <v>-2.3657164907021424</v>
       </c>
       <c r="D130" s="0">
-        <v>-2.2788131835897514</v>
+        <v>-2.5692905600916118</v>
       </c>
       <c r="E130" s="0">
-        <v>1.0906068197780763</v>
+        <v>1.1026194234469759</v>
       </c>
       <c r="F130" s="0">
-        <v>-1.9597759278432373e-05</v>
+        <v>-3.6825438620748148e-05</v>
       </c>
       <c r="G130" s="0">
-        <v>-0.020982913193975036</v>
+        <v>-0.022818577975324217</v>
       </c>
       <c r="H130" s="0">
-        <v>-1.7672894670472457</v>
+        <v>-1.6709352068030379</v>
       </c>
       <c r="I130" s="0">
-        <v>-1.6988114059998132</v>
+        <v>-1.8839798786742057</v>
       </c>
       <c r="J130" s="0">
-        <v>2.2256297062782036</v>
+        <v>2.1868283800310468</v>
       </c>
       <c r="K130" s="0">
-        <v>2.2333769607103399e-05</v>
+        <v>3.2350106563795494e-05</v>
       </c>
       <c r="L130" s="0">
-        <v>0.58667613139133223</v>
+        <v>0.46628342640594667</v>
       </c>
       <c r="M130" s="0">
-        <v>-1.7359708836625385</v>
+        <v>-1.5243708834794241</v>
       </c>
       <c r="N130" s="0">
-        <v>-1.4105744241220335</v>
+        <v>-1.6684262375900276</v>
       </c>
       <c r="O130" s="0">
-        <v>3.0148310708851018</v>
+        <v>3.1119758198762981</v>
       </c>
       <c r="P130" s="0">
-        <v>0.00016814365268616476</v>
+        <v>0.00024115818722452521</v>
       </c>
     </row>
     <row r="131">
@@ -6635,49 +6635,49 @@
         <v>39904</v>
       </c>
       <c r="B131" s="0">
-        <v>-0.07494944991295785</v>
+        <v>-0.080727420863821467</v>
       </c>
       <c r="C131" s="0">
-        <v>-2.6862216138957118</v>
+        <v>-2.4404555275854074</v>
       </c>
       <c r="D131" s="0">
-        <v>-2.2487427600804319</v>
+        <v>-2.5294122034743616</v>
       </c>
       <c r="E131" s="0">
-        <v>1.4108707021589808</v>
+        <v>1.4173966824502324</v>
       </c>
       <c r="F131" s="0">
-        <v>-1.8191274104847011e-05</v>
+        <v>-3.5018193965413876e-05</v>
       </c>
       <c r="G131" s="0">
-        <v>-0.0079157075215188395</v>
+        <v>-0.010585586492819297</v>
       </c>
       <c r="H131" s="0">
-        <v>-2.3012105211363734</v>
+        <v>-2.169189455823739</v>
       </c>
       <c r="I131" s="0">
-        <v>-2.2168411355301019</v>
+        <v>-2.4198645470136784</v>
       </c>
       <c r="J131" s="0">
-        <v>2.1759505584442218</v>
+        <v>2.1515348270240877</v>
       </c>
       <c r="K131" s="0">
-        <v>2.060448022339624e-05</v>
+        <v>2.6558378896796712e-05</v>
       </c>
       <c r="L131" s="0">
-        <v>1.6948397908865236</v>
+        <v>1.5651384499671872</v>
       </c>
       <c r="M131" s="0">
-        <v>-2.3025309794674929</v>
+        <v>-2.0531038636314833</v>
       </c>
       <c r="N131" s="0">
-        <v>-2.0100492497152711</v>
+        <v>-2.1790851241172557</v>
       </c>
       <c r="O131" s="0">
-        <v>2.9865736297284511</v>
+        <v>3.0281626980984075</v>
       </c>
       <c r="P131" s="0">
-        <v>0.00015371356028565374</v>
+        <v>0.00021983545859679513</v>
       </c>
     </row>
     <row r="132">
@@ -6685,49 +6685,49 @@
         <v>39995</v>
       </c>
       <c r="B132" s="0">
-        <v>-0.046443382363893199</v>
+        <v>-0.050047732885441017</v>
       </c>
       <c r="C132" s="0">
-        <v>-1.3342166044379011</v>
+        <v>-1.3424857087846931</v>
       </c>
       <c r="D132" s="0">
-        <v>-1.278826295981077</v>
+        <v>-1.2487630108754526</v>
       </c>
       <c r="E132" s="0">
-        <v>1.4854236441027426</v>
+        <v>1.4814388910282428</v>
       </c>
       <c r="F132" s="0">
-        <v>-1.6150912892105794e-05</v>
+        <v>-2.923423674380491e-05</v>
       </c>
       <c r="G132" s="0">
-        <v>0.019739202034330113</v>
+        <v>0.023205898611241626</v>
       </c>
       <c r="H132" s="0">
-        <v>-0.70748831826679415</v>
+        <v>-0.60362459780856559</v>
       </c>
       <c r="I132" s="0">
-        <v>-0.72444152871249479</v>
+        <v>-0.87685193576043907</v>
       </c>
       <c r="J132" s="0">
-        <v>2.1598543161913524</v>
+        <v>2.1398131026621985</v>
       </c>
       <c r="K132" s="0">
-        <v>1.9228122361884733e-05</v>
+        <v>2.4196000267363812e-05</v>
       </c>
       <c r="L132" s="0">
-        <v>1.4551179886429721</v>
+        <v>1.3364743571614861</v>
       </c>
       <c r="M132" s="0">
-        <v>-2.1332634667867714</v>
+        <v>-1.8483711072792792</v>
       </c>
       <c r="N132" s="0">
-        <v>-1.7639648014350242</v>
+        <v>-2.0267376289254448</v>
       </c>
       <c r="O132" s="0">
-        <v>2.9097146257097388</v>
+        <v>2.9470869599382237</v>
       </c>
       <c r="P132" s="0">
-        <v>0.00013977548569007607</v>
+        <v>0.0001992116609216743</v>
       </c>
     </row>
     <row r="133">
@@ -6735,49 +6735,49 @@
         <v>40087</v>
       </c>
       <c r="B133" s="0">
-        <v>-0.067616679741047944</v>
+        <v>-0.068411514594900261</v>
       </c>
       <c r="C133" s="0">
-        <v>-0.091940794010317239</v>
+        <v>-0.21285612475665722</v>
       </c>
       <c r="D133" s="0">
-        <v>-0.19396069752176387</v>
+        <v>-0.026937386887302489</v>
       </c>
       <c r="E133" s="0">
-        <v>1.5348599355589498</v>
+        <v>1.531926055839226</v>
       </c>
       <c r="F133" s="0">
-        <v>-1.4468484304393119e-05</v>
+        <v>-2.6007945278441619e-05</v>
       </c>
       <c r="G133" s="0">
-        <v>0.024801483384239827</v>
+        <v>0.023913785352260585</v>
       </c>
       <c r="H133" s="0">
-        <v>-0.184803618437484</v>
+        <v>0.044545700420809811</v>
       </c>
       <c r="I133" s="0">
-        <v>0.084844872974463525</v>
+        <v>-0.10812286431210419</v>
       </c>
       <c r="J133" s="0">
-        <v>2.1413459761398519</v>
+        <v>2.1397079861889559</v>
       </c>
       <c r="K133" s="0">
-        <v>1.9110051078781604e-05</v>
+        <v>2.1541450171081513e-05</v>
       </c>
       <c r="L133" s="0">
-        <v>0.94793277297611633</v>
+        <v>0.86883869844226891</v>
       </c>
       <c r="M133" s="0">
-        <v>-1.8624875344758316</v>
+        <v>-1.5639408911578769</v>
       </c>
       <c r="N133" s="0">
-        <v>-1.4874943584891351</v>
+        <v>-1.7490183473119276</v>
       </c>
       <c r="O133" s="0">
-        <v>2.8334978153868473</v>
+        <v>2.8552316903648185</v>
       </c>
       <c r="P133" s="0">
-        <v>0.00012331363179986154</v>
+        <v>0.00018183109628069124</v>
       </c>
     </row>
     <row r="134">
@@ -6785,49 +6785,49 @@
         <v>40179</v>
       </c>
       <c r="B134" s="0">
-        <v>-0.090187510387130077</v>
+        <v>-0.088056746573965658</v>
       </c>
       <c r="C134" s="0">
-        <v>0.18892764771475734</v>
+        <v>0.08913449333252435</v>
       </c>
       <c r="D134" s="0">
-        <v>0.22037398909883599</v>
+        <v>0.27991507809889271</v>
       </c>
       <c r="E134" s="0">
-        <v>1.5052133626606929</v>
+        <v>1.4968908101749232</v>
       </c>
       <c r="F134" s="0">
-        <v>-1.2967873294290089e-05</v>
+        <v>-2.3765144683202817e-05</v>
       </c>
       <c r="G134" s="0">
-        <v>0.01395342333687938</v>
+        <v>0.011219714799109212</v>
       </c>
       <c r="H134" s="0">
-        <v>-0.29429792345279182</v>
+        <v>-0.10065833585041779</v>
       </c>
       <c r="I134" s="0">
-        <v>-0.1232788994256783</v>
+        <v>-0.24791697112723468</v>
       </c>
       <c r="J134" s="0">
-        <v>2.1296663182435163</v>
+        <v>2.1295323187520738</v>
       </c>
       <c r="K134" s="0">
-        <v>1.7931925215211887e-05</v>
+        <v>2.0754741599951721e-05</v>
       </c>
       <c r="L134" s="0">
-        <v>0.75884760769987936</v>
+        <v>0.6955273584042323</v>
       </c>
       <c r="M134" s="0">
-        <v>-1.7170831929394046</v>
+        <v>-1.4062833788852154</v>
       </c>
       <c r="N134" s="0">
-        <v>-1.3861072603256344</v>
+        <v>-1.5885783813398469</v>
       </c>
       <c r="O134" s="0">
-        <v>2.7615889184252866</v>
+        <v>2.7830299944367396</v>
       </c>
       <c r="P134" s="0">
-        <v>0.0001101114877038861</v>
+        <v>0.00016432852587939056</v>
       </c>
     </row>
     <row r="135">
@@ -6835,49 +6835,49 @@
         <v>40269</v>
       </c>
       <c r="B135" s="0">
-        <v>-0.088939082325374036</v>
+        <v>-0.091320557038539141</v>
       </c>
       <c r="C135" s="0">
-        <v>0.58355849878156429</v>
+        <v>0.506483945434552</v>
       </c>
       <c r="D135" s="0">
-        <v>0.54134485204505378</v>
+        <v>0.54736845066142414</v>
       </c>
       <c r="E135" s="0">
-        <v>1.4477275640139295</v>
+        <v>1.4433672053431814</v>
       </c>
       <c r="F135" s="0">
-        <v>-1.2579938796560992e-05</v>
+        <v>-2.2396805298669044e-05</v>
       </c>
       <c r="G135" s="0">
-        <v>0.008165861923911109</v>
+        <v>0.0045970129755043493</v>
       </c>
       <c r="H135" s="0">
-        <v>-0.6507838709555358</v>
+        <v>-0.52635544625437247</v>
       </c>
       <c r="I135" s="0">
-        <v>-0.57498648055308355</v>
+        <v>-0.61144595393507362</v>
       </c>
       <c r="J135" s="0">
-        <v>2.1071445118603385</v>
+        <v>2.1243869692721935</v>
       </c>
       <c r="K135" s="0">
-        <v>1.5556429927307566e-05</v>
+        <v>1.9488153333362341e-05</v>
       </c>
       <c r="L135" s="0">
-        <v>0.59790029761435337</v>
+        <v>0.53237340716219661</v>
       </c>
       <c r="M135" s="0">
-        <v>-1.5683465598291</v>
+        <v>-1.2649278774204298</v>
       </c>
       <c r="N135" s="0">
-        <v>-1.2090845967795538</v>
+        <v>-1.4290202889191488</v>
       </c>
       <c r="O135" s="0">
-        <v>2.6805109801741187</v>
+        <v>2.6926934659575266</v>
       </c>
       <c r="P135" s="0">
-        <v>0.0001010691350891142</v>
+        <v>0.00015359164875753995</v>
       </c>
     </row>
     <row r="136">
@@ -6885,49 +6885,49 @@
         <v>40360</v>
       </c>
       <c r="B136" s="0">
-        <v>-0.083954701583171837</v>
+        <v>-0.088827305939940121</v>
       </c>
       <c r="C136" s="0">
-        <v>0.37688102412645752</v>
+        <v>0.34967124886623674</v>
       </c>
       <c r="D136" s="0">
-        <v>0.33124114770468749</v>
+        <v>0.39212488462794659</v>
       </c>
       <c r="E136" s="0">
-        <v>1.4753478303346448</v>
+        <v>1.472503939816302</v>
       </c>
       <c r="F136" s="0">
-        <v>-1.1517026380761377e-05</v>
+        <v>-2.0387124328944939e-05</v>
       </c>
       <c r="G136" s="0">
-        <v>0.0015137771194614165</v>
+        <v>-0.0010559634725200873</v>
       </c>
       <c r="H136" s="0">
-        <v>-0.83253082452468186</v>
+        <v>-0.74852457707506548</v>
       </c>
       <c r="I136" s="0">
-        <v>-0.73485894939066476</v>
+        <v>-0.83051739684080583</v>
       </c>
       <c r="J136" s="0">
-        <v>2.0878451488136682</v>
+        <v>2.1056687619379009</v>
       </c>
       <c r="K136" s="0">
-        <v>1.3966136644268933e-05</v>
+        <v>1.6519203702846355e-05</v>
       </c>
       <c r="L136" s="0">
-        <v>0.6254147912456256</v>
+        <v>0.54334893496572367</v>
       </c>
       <c r="M136" s="0">
-        <v>-1.5357189432192282</v>
+        <v>-1.2396478770369104</v>
       </c>
       <c r="N136" s="0">
-        <v>-1.225173903364505</v>
+        <v>-1.4225134154706589</v>
       </c>
       <c r="O136" s="0">
-        <v>2.6028320407230483</v>
+        <v>2.6183028387865313</v>
       </c>
       <c r="P136" s="0">
-        <v>9.5299088636613345e-05</v>
+        <v>0.0001419099624490191</v>
       </c>
     </row>
     <row r="137">
@@ -6935,49 +6935,49 @@
         <v>40452</v>
       </c>
       <c r="B137" s="0">
-        <v>-0.070831642843093165</v>
+        <v>-0.077779828319819666</v>
       </c>
       <c r="C137" s="0">
-        <v>0.55766137870151178</v>
+        <v>0.4802244581212336</v>
       </c>
       <c r="D137" s="0">
-        <v>0.49040243425341129</v>
+        <v>0.52646238135689583</v>
       </c>
       <c r="E137" s="0">
-        <v>1.4289679219385047</v>
+        <v>1.4245739261155348</v>
       </c>
       <c r="F137" s="0">
-        <v>-1.1051962339043787e-05</v>
+        <v>-1.8187333639899034e-05</v>
       </c>
       <c r="G137" s="0">
-        <v>-0.0028019454912170836</v>
+        <v>0.00062369560439288162</v>
       </c>
       <c r="H137" s="0">
-        <v>-0.54522581610380205</v>
+        <v>-0.4403543531639898</v>
       </c>
       <c r="I137" s="0">
-        <v>-0.46916153669865679</v>
+        <v>-0.52249829626824584</v>
       </c>
       <c r="J137" s="0">
-        <v>2.0734887701901887</v>
+        <v>2.090612305063301</v>
       </c>
       <c r="K137" s="0">
-        <v>1.3295036653738337e-05</v>
+        <v>1.4508808027606446e-05</v>
       </c>
       <c r="L137" s="0">
-        <v>0.42104683207105131</v>
+        <v>0.360023152976435</v>
       </c>
       <c r="M137" s="0">
-        <v>-1.3363330765986809</v>
+        <v>-1.0687873575774969</v>
       </c>
       <c r="N137" s="0">
-        <v>-1.0573665299565724</v>
+        <v>-1.2868978070823285</v>
       </c>
       <c r="O137" s="0">
-        <v>2.5315525102510987</v>
+        <v>2.5323142753762156</v>
       </c>
       <c r="P137" s="0">
-        <v>8.6021000614009042e-05</v>
+        <v>0.00012772220218240659</v>
       </c>
     </row>
     <row r="138">
@@ -6985,49 +6985,49 @@
         <v>40544</v>
       </c>
       <c r="B138" s="0">
-        <v>-0.067117674456075443</v>
+        <v>-0.07452149171636907</v>
       </c>
       <c r="C138" s="0">
-        <v>-0.079239980111741964</v>
+        <v>-0.15271289226866455</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.1321996801270692</v>
+        <v>-0.096248479671664069</v>
       </c>
       <c r="E138" s="0">
-        <v>1.2959609168666035</v>
+        <v>1.2901578412509411</v>
       </c>
       <c r="F138" s="0">
-        <v>-9.906518721470445e-06</v>
+        <v>-1.6478544764509179e-05</v>
       </c>
       <c r="G138" s="0">
-        <v>-0.0069938318292072765</v>
+        <v>-0.0044842824568963619</v>
       </c>
       <c r="H138" s="0">
-        <v>-0.06969214964075382</v>
+        <v>0.08817137188642743</v>
       </c>
       <c r="I138" s="0">
-        <v>0.06901040860921992</v>
+        <v>-0.018651669020043865</v>
       </c>
       <c r="J138" s="0">
-        <v>2.0441483583472442</v>
+        <v>2.0693191925721841</v>
       </c>
       <c r="K138" s="0">
-        <v>1.221295343106063e-05</v>
+        <v>1.3034255909788007e-05</v>
       </c>
       <c r="L138" s="0">
-        <v>0.54061353848714744</v>
+        <v>0.4697163896549984</v>
       </c>
       <c r="M138" s="0">
-        <v>-1.3979286785475611</v>
+        <v>-1.0682536563479577</v>
       </c>
       <c r="N138" s="0">
-        <v>-1.0561548808903194</v>
+        <v>-1.3138562010471149</v>
       </c>
       <c r="O138" s="0">
-        <v>2.4316647177395474</v>
+        <v>2.4462605424480692</v>
       </c>
       <c r="P138" s="0">
-        <v>7.6461616509175307e-05</v>
+        <v>0.00011692941903930642</v>
       </c>
     </row>
     <row r="139">
@@ -7035,49 +7035,49 @@
         <v>40634</v>
       </c>
       <c r="B139" s="0">
-        <v>-0.051148493147870969</v>
+        <v>-0.061530407177939526</v>
       </c>
       <c r="C139" s="0">
-        <v>0.04479702410192081</v>
+        <v>-0.084223604230917612</v>
       </c>
       <c r="D139" s="0">
-        <v>0.077585578985963327</v>
+        <v>0.1093530475453503</v>
       </c>
       <c r="E139" s="0">
-        <v>1.0324970536353368</v>
+        <v>1.0291308108814992</v>
       </c>
       <c r="F139" s="0">
-        <v>-8.5677364489779294e-06</v>
+        <v>-1.526121676911281e-05</v>
       </c>
       <c r="G139" s="0">
-        <v>-0.006890637041428796</v>
+        <v>-5.9756585308390543e-05</v>
       </c>
       <c r="H139" s="0">
-        <v>0.27101708028355836</v>
+        <v>0.46437572713596098</v>
       </c>
       <c r="I139" s="0">
-        <v>0.48886014848900983</v>
+        <v>0.41413201771842956</v>
       </c>
       <c r="J139" s="0">
-        <v>2.0030503432398206</v>
+        <v>2.0282069228419131</v>
       </c>
       <c r="K139" s="0">
-        <v>1.1145515600628289e-05</v>
+        <v>1.1871018780724628e-05</v>
       </c>
       <c r="L139" s="0">
-        <v>0.20582285904414069</v>
+        <v>0.140967921946554</v>
       </c>
       <c r="M139" s="0">
-        <v>-1.1578689669335762</v>
+        <v>-0.92412164818752196</v>
       </c>
       <c r="N139" s="0">
-        <v>-0.84885180358584578</v>
+        <v>-1.0863522905537379</v>
       </c>
       <c r="O139" s="0">
-        <v>2.2500573166442965</v>
+        <v>2.3085682023736398</v>
       </c>
       <c r="P139" s="0">
-        <v>6.8521343957302178e-05</v>
+        <v>9.9838790053642789e-05</v>
       </c>
     </row>
     <row r="140">
@@ -7085,49 +7085,49 @@
         <v>40725</v>
       </c>
       <c r="B140" s="0">
-        <v>-0.05233387343987303</v>
+        <v>-0.061519095214243022</v>
       </c>
       <c r="C140" s="0">
-        <v>-0.058280620799810293</v>
+        <v>-0.17938600117832312</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.064275926965840544</v>
+        <v>-0.061137115895898451</v>
       </c>
       <c r="E140" s="0">
-        <v>0.88419227854649907</v>
+        <v>0.8886842433524994</v>
       </c>
       <c r="F140" s="0">
-        <v>-8.1191545313277887e-06</v>
+        <v>-1.33449149014551e-05</v>
       </c>
       <c r="G140" s="0">
-        <v>-0.014810900525980941</v>
+        <v>-0.0077114329577971739</v>
       </c>
       <c r="H140" s="0">
-        <v>0.21840008020751747</v>
+        <v>0.4160728795651063</v>
       </c>
       <c r="I140" s="0">
-        <v>0.43029438825663091</v>
+        <v>0.36614151495491898</v>
       </c>
       <c r="J140" s="0">
-        <v>1.9447878779223475</v>
+        <v>1.9730227446325235</v>
       </c>
       <c r="K140" s="0">
-        <v>1.0306353679277548e-05</v>
+        <v>1.043613606569314e-05</v>
       </c>
       <c r="L140" s="0">
-        <v>0.13272384779496554</v>
+        <v>0.052494714755253205</v>
       </c>
       <c r="M140" s="0">
-        <v>-1.0908034363579855</v>
+        <v>-0.86052246904753216</v>
       </c>
       <c r="N140" s="0">
-        <v>-0.79012426438008521</v>
+        <v>-1.0015830341197942</v>
       </c>
       <c r="O140" s="0">
-        <v>2.0943471768112527</v>
+        <v>2.19631084046692</v>
       </c>
       <c r="P140" s="0">
-        <v>6.559430883893611e-05</v>
+        <v>9.0483153216379302e-05</v>
       </c>
     </row>
     <row r="141">
@@ -7135,49 +7135,49 @@
         <v>40817</v>
       </c>
       <c r="B141" s="0">
-        <v>-0.041595216470365154</v>
+        <v>-0.052800553996313622</v>
       </c>
       <c r="C141" s="0">
-        <v>0.77630551934120773</v>
+        <v>0.63113042601090608</v>
       </c>
       <c r="D141" s="0">
-        <v>0.62537459455428202</v>
+        <v>0.68866123834941884</v>
       </c>
       <c r="E141" s="0">
-        <v>0.82370659093472165</v>
+        <v>0.82514869459324847</v>
       </c>
       <c r="F141" s="0">
-        <v>-7.5497478977008811e-06</v>
+        <v>-1.1870679797859033e-05</v>
       </c>
       <c r="G141" s="0">
-        <v>-0.017069616063843853</v>
+        <v>-0.011905962624062174</v>
       </c>
       <c r="H141" s="0">
-        <v>-0.026986147893464194</v>
+        <v>0.015266818842618157</v>
       </c>
       <c r="I141" s="0">
-        <v>0.069580572061021334</v>
+        <v>-0.013670045632819917</v>
       </c>
       <c r="J141" s="0">
-        <v>1.8814229737009094</v>
+        <v>1.9128855617848166</v>
       </c>
       <c r="K141" s="0">
-        <v>9.2306047566388637e-06</v>
+        <v>8.5391431367127984e-06</v>
       </c>
       <c r="L141" s="0">
-        <v>-0.37769647793420535</v>
+        <v>-0.5058036918433344</v>
       </c>
       <c r="M141" s="0">
-        <v>-0.66345808330624845</v>
+        <v>-0.48308300960759448</v>
       </c>
       <c r="N141" s="0">
-        <v>-0.45302428286397367</v>
+        <v>-0.64620813838434565</v>
       </c>
       <c r="O141" s="0">
-        <v>1.9535078643580324</v>
+        <v>2.085515731451979</v>
       </c>
       <c r="P141" s="0">
-        <v>6.1290891720986633e-05</v>
+        <v>8.1135880186908684e-05</v>
       </c>
     </row>
     <row r="142">
@@ -7185,49 +7185,49 @@
         <v>40909</v>
       </c>
       <c r="B142" s="0">
-        <v>-0.042422297244209525</v>
+        <v>-0.049887696746601033</v>
       </c>
       <c r="C142" s="0">
-        <v>0.71887456447646958</v>
+        <v>0.61378756613671492</v>
       </c>
       <c r="D142" s="0">
-        <v>0.57841176721620857</v>
+        <v>0.60480433776996823</v>
       </c>
       <c r="E142" s="0">
-        <v>0.76247109313590467</v>
+        <v>0.76755552806398541</v>
       </c>
       <c r="F142" s="0">
-        <v>-6.9827412039692604e-06</v>
+        <v>-1.0579294709373301e-05</v>
       </c>
       <c r="G142" s="0">
-        <v>-0.031849953814644089</v>
+        <v>-0.027802599272305516</v>
       </c>
       <c r="H142" s="0">
-        <v>-0.22928628226496753</v>
+        <v>-0.21965406381369176</v>
       </c>
       <c r="I142" s="0">
-        <v>-0.1522030026092861</v>
+        <v>-0.24016991969147844</v>
       </c>
       <c r="J142" s="0">
-        <v>1.8174116199014174</v>
+        <v>1.8543504775435893</v>
       </c>
       <c r="K142" s="0">
-        <v>8.0530795054414614e-06</v>
+        <v>7.8107599481058289e-06</v>
       </c>
       <c r="L142" s="0">
-        <v>-0.49678141996801722</v>
+        <v>-0.62740684347755893</v>
       </c>
       <c r="M142" s="0">
-        <v>-0.47653688610472772</v>
+        <v>-0.32356171538970679</v>
       </c>
       <c r="N142" s="0">
-        <v>-0.28961486311119833</v>
+        <v>-0.49739980751106982</v>
       </c>
       <c r="O142" s="0">
-        <v>1.8250702426090804</v>
+        <v>1.9631198363601445</v>
       </c>
       <c r="P142" s="0">
-        <v>5.4716321768425959e-05</v>
+        <v>7.3182364119956739e-05</v>
       </c>
     </row>
     <row r="143">
@@ -7235,49 +7235,49 @@
         <v>41000</v>
       </c>
       <c r="B143" s="0">
-        <v>-0.025720928031840513</v>
+        <v>-0.031486788492562555</v>
       </c>
       <c r="C143" s="0">
-        <v>0.84530492460991835</v>
+        <v>0.83041573291385162</v>
       </c>
       <c r="D143" s="0">
-        <v>0.77378283496533551</v>
+        <v>0.83760724142669107</v>
       </c>
       <c r="E143" s="0">
-        <v>0.60695575887109499</v>
+        <v>0.62146780967251891</v>
       </c>
       <c r="F143" s="0">
-        <v>-6.3779809284871388e-06</v>
+        <v>-9.6713703260467846e-06</v>
       </c>
       <c r="G143" s="0">
-        <v>-0.03618282714770605</v>
+        <v>-0.033262183548961669</v>
       </c>
       <c r="H143" s="0">
-        <v>-0.38529884796968528</v>
+        <v>-0.40982274926009576</v>
       </c>
       <c r="I143" s="0">
-        <v>-0.33172419276823617</v>
+        <v>-0.38588082244038796</v>
       </c>
       <c r="J143" s="0">
-        <v>1.7504676909081001</v>
+        <v>1.7926672019129315</v>
       </c>
       <c r="K143" s="0">
-        <v>7.2793004314422709e-06</v>
+        <v>7.300675979964073e-06</v>
       </c>
       <c r="L143" s="0">
-        <v>-0.59202477578957713</v>
+        <v>-0.69905996735279152</v>
       </c>
       <c r="M143" s="0">
-        <v>-0.27732994843786518</v>
+        <v>-0.20895928666299052</v>
       </c>
       <c r="N143" s="0">
-        <v>-0.15551447639247876</v>
+        <v>-0.31732344564799497</v>
       </c>
       <c r="O143" s="0">
-        <v>1.6365779044767865</v>
+        <v>1.7957872986698109</v>
       </c>
       <c r="P143" s="0">
-        <v>5.0357722662694313e-05</v>
+        <v>6.4452671782953429e-05</v>
       </c>
     </row>
     <row r="144">
@@ -7285,49 +7285,49 @@
         <v>41091</v>
       </c>
       <c r="B144" s="0">
-        <v>-0.009645597734230715</v>
+        <v>-0.013107756856500414</v>
       </c>
       <c r="C144" s="0">
-        <v>0.23172418608141493</v>
+        <v>0.24532856077399828</v>
       </c>
       <c r="D144" s="0">
-        <v>0.22359013311582054</v>
+        <v>0.25954961705892798</v>
       </c>
       <c r="E144" s="0">
-        <v>0.71320871895167581</v>
+        <v>0.70398569470451511</v>
       </c>
       <c r="F144" s="0">
-        <v>-5.7300239719913225e-06</v>
+        <v>-8.5007928498742208e-06</v>
       </c>
       <c r="G144" s="0">
-        <v>-0.037773105727454244</v>
+        <v>-0.040036066792086392</v>
       </c>
       <c r="H144" s="0">
-        <v>-0.29690242951845647</v>
+        <v>-0.29529278806885545</v>
       </c>
       <c r="I144" s="0">
-        <v>-0.27783010999329938</v>
+        <v>-0.31946858310171955</v>
       </c>
       <c r="J144" s="0">
-        <v>1.6924626232973945</v>
+        <v>1.7253735368955483</v>
       </c>
       <c r="K144" s="0">
-        <v>6.7320217424583138e-06</v>
+        <v>6.9949669129104014e-06</v>
       </c>
       <c r="L144" s="0">
-        <v>-0.35864087680700818</v>
+        <v>-0.48043883361602746</v>
       </c>
       <c r="M144" s="0">
-        <v>-0.32730027666163797</v>
+        <v>-0.24147134600379952</v>
       </c>
       <c r="N144" s="0">
-        <v>-0.21753426240394036</v>
+        <v>-0.3673613686717655</v>
       </c>
       <c r="O144" s="0">
-        <v>1.5299744173174565</v>
+        <v>1.6800005822052138</v>
       </c>
       <c r="P144" s="0">
-        <v>4.5548011947370222e-05</v>
+        <v>5.9298970310455343e-05</v>
       </c>
     </row>
     <row r="145">
@@ -7335,49 +7335,49 @@
         <v>41183</v>
       </c>
       <c r="B145" s="0">
-        <v>0.0083920110238957565</v>
+        <v>0.0090241628161055933</v>
       </c>
       <c r="C145" s="0">
-        <v>-0.058088847259309656</v>
+        <v>-0.050534472811186421</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.056143655781179636</v>
+        <v>-0.061350208517211235</v>
       </c>
       <c r="E145" s="0">
-        <v>0.68568983814171625</v>
+        <v>0.66993982999683932</v>
       </c>
       <c r="F145" s="0">
-        <v>-5.2876368045227117e-06</v>
+        <v>-7.3041654352525339e-06</v>
       </c>
       <c r="G145" s="0">
-        <v>-0.030699264458667851</v>
+        <v>-0.033450437501139796</v>
       </c>
       <c r="H145" s="0">
-        <v>-0.1737573009140912</v>
+        <v>-0.17799604107809675</v>
       </c>
       <c r="I145" s="0">
-        <v>-0.15381308958732753</v>
+        <v>-0.18613863041217221</v>
       </c>
       <c r="J145" s="0">
-        <v>1.6472344537674184</v>
+        <v>1.6671172394802798</v>
       </c>
       <c r="K145" s="0">
-        <v>6.170123031086138e-06</v>
+        <v>6.1546325769916078e-06</v>
       </c>
       <c r="L145" s="0">
-        <v>-0.11063637698293616</v>
+        <v>-0.232082970009546</v>
       </c>
       <c r="M145" s="0">
-        <v>-0.38839089732850163</v>
+        <v>-0.3065086198352498</v>
       </c>
       <c r="N145" s="0">
-        <v>-0.24550347112097304</v>
+        <v>-0.41152478509897372</v>
       </c>
       <c r="O145" s="0">
-        <v>1.3794980248831958</v>
+        <v>1.5343725002459947</v>
       </c>
       <c r="P145" s="0">
-        <v>4.3701623877424142e-05</v>
+        <v>5.3636301597893801e-05</v>
       </c>
     </row>
     <row r="146">
@@ -7385,49 +7385,49 @@
         <v>41275</v>
       </c>
       <c r="B146" s="0">
-        <v>0.018710079943734827</v>
+        <v>0.018586264416649362</v>
       </c>
       <c r="C146" s="0">
-        <v>0.0011533050779137799</v>
+        <v>0.00050999636809639926</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.006055582900231643</v>
+        <v>-0.0044306225681091799</v>
       </c>
       <c r="E146" s="0">
-        <v>0.67716755365468839</v>
+        <v>0.65596813296218259</v>
       </c>
       <c r="F146" s="0">
-        <v>-4.8796814096535595e-06</v>
+        <v>-6.7515440461601786e-06</v>
       </c>
       <c r="G146" s="0">
-        <v>-0.025135688156356188</v>
+        <v>-0.02467478441012827</v>
       </c>
       <c r="H146" s="0">
-        <v>-0.056071884913019079</v>
+        <v>-0.068347541816484891</v>
       </c>
       <c r="I146" s="0">
-        <v>-0.045943325874441644</v>
+        <v>-0.10514167280009659</v>
       </c>
       <c r="J146" s="0">
-        <v>1.6038982661062562</v>
+        <v>1.6111013582189164</v>
       </c>
       <c r="K146" s="0">
-        <v>5.7510264307149568e-06</v>
+        <v>5.6417144688929897e-06</v>
       </c>
       <c r="L146" s="0">
-        <v>-0.038462878119175495</v>
+        <v>-0.18407918213603919</v>
       </c>
       <c r="M146" s="0">
-        <v>-0.37827184999359498</v>
+        <v>-0.30567872203563928</v>
       </c>
       <c r="N146" s="0">
-        <v>-0.23411720445210304</v>
+        <v>-0.42755655653585545</v>
       </c>
       <c r="O146" s="0">
-        <v>1.231579517539557</v>
+        <v>1.386959864582664</v>
       </c>
       <c r="P146" s="0">
-        <v>3.9794163516555621e-05</v>
+        <v>4.9284309484693648e-05</v>
       </c>
     </row>
     <row r="147">
@@ -7435,49 +7435,49 @@
         <v>41365</v>
       </c>
       <c r="B147" s="0">
-        <v>0.018727128317708425</v>
+        <v>0.021453804938792051</v>
       </c>
       <c r="C147" s="0">
-        <v>-0.017064545004241018</v>
+        <v>0.0046209323790528528</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.026231877271687853</v>
+        <v>-0.010310236816015436</v>
       </c>
       <c r="E147" s="0">
-        <v>0.68451046082869804</v>
+        <v>0.66458594400561222</v>
       </c>
       <c r="F147" s="0">
-        <v>-3.9774448639555972e-06</v>
+        <v>-6.2780028153511896e-06</v>
       </c>
       <c r="G147" s="0">
-        <v>-0.021049141073501178</v>
+        <v>-0.020467346914568023</v>
       </c>
       <c r="H147" s="0">
-        <v>-0.23737435919813574</v>
+        <v>-0.25254756409912626</v>
       </c>
       <c r="I147" s="0">
-        <v>-0.23868798694206506</v>
+        <v>-0.28616637824789004</v>
       </c>
       <c r="J147" s="0">
-        <v>1.5635871111282085</v>
+        <v>1.5620305030517403</v>
       </c>
       <c r="K147" s="0">
-        <v>5.8730654388671016e-06</v>
+        <v>5.2377988987573687e-06</v>
       </c>
       <c r="L147" s="0">
-        <v>0.088949333146940646</v>
+        <v>-0.064700709136174428</v>
       </c>
       <c r="M147" s="0">
-        <v>-0.33217290981001357</v>
+        <v>-0.28545754388369921</v>
       </c>
       <c r="N147" s="0">
-        <v>-0.23450946149343194</v>
+        <v>-0.40674905392826005</v>
       </c>
       <c r="O147" s="0">
-        <v>1.1070080552107227</v>
+        <v>1.269358091748733</v>
       </c>
       <c r="P147" s="0">
-        <v>3.681151417379131e-05</v>
+        <v>4.6355597348056191e-05</v>
       </c>
     </row>
     <row r="148">
@@ -7485,49 +7485,49 @@
         <v>41456</v>
       </c>
       <c r="B148" s="0">
-        <v>0.019497653496764064</v>
+        <v>0.022107219589170383</v>
       </c>
       <c r="C148" s="0">
-        <v>0.31458633790265689</v>
+        <v>0.34154028409777931</v>
       </c>
       <c r="D148" s="0">
-        <v>0.29860413579322426</v>
+        <v>0.31296437559705537</v>
       </c>
       <c r="E148" s="0">
-        <v>0.74774965842379526</v>
+        <v>0.73447177014479448</v>
       </c>
       <c r="F148" s="0">
-        <v>-3.19180431898028e-06</v>
+        <v>-5.7916981813472454e-06</v>
       </c>
       <c r="G148" s="0">
-        <v>-0.013904854661378221</v>
+        <v>-0.012642279990545343</v>
       </c>
       <c r="H148" s="0">
-        <v>-0.33582943750757827</v>
+        <v>-0.35482331705212117</v>
       </c>
       <c r="I148" s="0">
-        <v>-0.35324947707871068</v>
+        <v>-0.39736138093236745</v>
       </c>
       <c r="J148" s="0">
-        <v>1.5239626641368167</v>
+        <v>1.5205142376113523</v>
       </c>
       <c r="K148" s="0">
-        <v>5.2917467123884677e-06</v>
+        <v>4.9191216405435374e-06</v>
       </c>
       <c r="L148" s="0">
-        <v>-0.030118925066483112</v>
+        <v>-0.16603765644263893</v>
       </c>
       <c r="M148" s="0">
-        <v>-0.23728056945487996</v>
+        <v>-0.20518983188377404</v>
       </c>
       <c r="N148" s="0">
-        <v>-0.1747033507047106</v>
+        <v>-0.30050228035689314</v>
       </c>
       <c r="O148" s="0">
-        <v>0.99816086170808704</v>
+        <v>1.1646374924304643</v>
       </c>
       <c r="P148" s="0">
-        <v>3.4488986812904028e-05</v>
+        <v>4.1993424954400935e-05</v>
       </c>
     </row>
     <row r="149">
@@ -7535,49 +7535,49 @@
         <v>41548</v>
       </c>
       <c r="B149" s="0">
-        <v>0.01431493989125312</v>
+        <v>0.016276403839914338</v>
       </c>
       <c r="C149" s="0">
-        <v>0.5521517946278931</v>
+        <v>0.58409781587986465</v>
       </c>
       <c r="D149" s="0">
-        <v>0.55255282658294069</v>
+        <v>0.56919150783643035</v>
       </c>
       <c r="E149" s="0">
-        <v>0.76350872296567251</v>
+        <v>0.74487774260719519</v>
       </c>
       <c r="F149" s="0">
-        <v>-2.9222250175819381e-06</v>
+        <v>-5.3185644521721844e-06</v>
       </c>
       <c r="G149" s="0">
-        <v>-0.012313111461244973</v>
+        <v>-0.013178722047137572</v>
       </c>
       <c r="H149" s="0">
-        <v>-0.32703086371548434</v>
+        <v>-0.35301085715917646</v>
       </c>
       <c r="I149" s="0">
-        <v>-0.35144826993927014</v>
+        <v>-0.38340292417469407</v>
       </c>
       <c r="J149" s="0">
-        <v>1.4870446648552296</v>
+        <v>1.4902515588171901</v>
       </c>
       <c r="K149" s="0">
-        <v>4.5397320045656795e-06</v>
+        <v>4.6753719082287653e-06</v>
       </c>
       <c r="L149" s="0">
-        <v>-0.08281226704510003</v>
+        <v>-0.23632103021861406</v>
       </c>
       <c r="M149" s="0">
-        <v>-0.14474775566127324</v>
+        <v>-0.11696054207023716</v>
       </c>
       <c r="N149" s="0">
-        <v>-0.11402074303762091</v>
+        <v>-0.18072500159541041</v>
       </c>
       <c r="O149" s="0">
-        <v>0.87331173792605088</v>
+        <v>1.0539346445604998</v>
       </c>
       <c r="P149" s="0">
-        <v>2.9047046819636602e-05</v>
+        <v>3.8228591963821725e-05</v>
       </c>
     </row>
     <row r="150">
@@ -7585,49 +7585,49 @@
         <v>41640</v>
       </c>
       <c r="B150" s="0">
-        <v>0.013034715489327673</v>
+        <v>0.01039695536079022</v>
       </c>
       <c r="C150" s="0">
-        <v>0.40469825112047264</v>
+        <v>0.37839595228791101</v>
       </c>
       <c r="D150" s="0">
-        <v>0.37419581010104547</v>
+        <v>0.38045683756641568</v>
       </c>
       <c r="E150" s="0">
-        <v>0.77516930884036328</v>
+        <v>0.7490607865418758</v>
       </c>
       <c r="F150" s="0">
-        <v>-2.6198864781107076e-06</v>
+        <v>-4.8620224262602865e-06</v>
       </c>
       <c r="G150" s="0">
-        <v>-0.010855605941416243</v>
+        <v>-0.012541189630899653</v>
       </c>
       <c r="H150" s="0">
-        <v>-0.0016252865899718848</v>
+        <v>-0.038665213048993702</v>
       </c>
       <c r="I150" s="0">
-        <v>-0.0038107393466751578</v>
+        <v>-0.029674915173014543</v>
       </c>
       <c r="J150" s="0">
-        <v>1.4580090862815598</v>
+        <v>1.4570935008299504</v>
       </c>
       <c r="K150" s="0">
-        <v>4.2408058322253244e-06</v>
+        <v>4.302225473218546e-06</v>
       </c>
       <c r="L150" s="0">
-        <v>-0.054551721310757723</v>
+        <v>-0.21791307457526699</v>
       </c>
       <c r="M150" s="0">
-        <v>-0.13765317246186692</v>
+        <v>-0.15322477884161456</v>
       </c>
       <c r="N150" s="0">
-        <v>-0.13485247568125741</v>
+        <v>-0.21645125465963688</v>
       </c>
       <c r="O150" s="0">
-        <v>0.74918565857919472</v>
+        <v>0.95600550202707002</v>
       </c>
       <c r="P150" s="0">
-        <v>2.8793133566276109e-05</v>
+        <v>3.3595724340009569e-05</v>
       </c>
     </row>
     <row r="151">
@@ -7635,49 +7635,49 @@
         <v>41730</v>
       </c>
       <c r="B151" s="0">
-        <v>0.014291638420707924</v>
+        <v>0.012199422861671663</v>
       </c>
       <c r="C151" s="0">
-        <v>0.53294231758106325</v>
+        <v>0.54272127707810636</v>
       </c>
       <c r="D151" s="0">
-        <v>0.51726310103970485</v>
+        <v>0.56312963454217357</v>
       </c>
       <c r="E151" s="0">
-        <v>0.81158748770285638</v>
+        <v>0.78531479731353904</v>
       </c>
       <c r="F151" s="0">
-        <v>-2.5389694416766533e-06</v>
+        <v>-4.3893900984599467e-06</v>
       </c>
       <c r="G151" s="0">
-        <v>-0.0082440960899907382</v>
+        <v>-0.011294023131352634</v>
       </c>
       <c r="H151" s="0">
-        <v>-0.013737610827354266</v>
+        <v>-0.086156659373659975</v>
       </c>
       <c r="I151" s="0">
-        <v>-0.048099595386962513</v>
+        <v>-0.07823214680716048</v>
       </c>
       <c r="J151" s="0">
-        <v>1.4216755885016203</v>
+        <v>1.436597459867373</v>
       </c>
       <c r="K151" s="0">
-        <v>3.971322533439062e-06</v>
+        <v>3.6835703690042599e-06</v>
       </c>
       <c r="L151" s="0">
-        <v>-0.15060306663989681</v>
+        <v>-0.3182423810867141</v>
       </c>
       <c r="M151" s="0">
-        <v>-0.080658437686288748</v>
+        <v>-0.085789169085689815</v>
       </c>
       <c r="N151" s="0">
-        <v>-0.070827035649620271</v>
+        <v>-0.14198815809721177</v>
       </c>
       <c r="O151" s="0">
-        <v>0.65989473032078094</v>
+        <v>0.87186151095759867</v>
       </c>
       <c r="P151" s="0">
-        <v>2.6891771459924219e-05</v>
+        <v>3.2132480346053281e-05</v>
       </c>
     </row>
     <row r="152">
@@ -7685,49 +7685,49 @@
         <v>41821</v>
       </c>
       <c r="B152" s="0">
-        <v>0.011656057702975257</v>
+        <v>0.012899128392633814</v>
       </c>
       <c r="C152" s="0">
-        <v>0.55133321845982375</v>
+        <v>0.55772191569623952</v>
       </c>
       <c r="D152" s="0">
-        <v>0.55837166347005152</v>
+        <v>0.56325748777951801</v>
       </c>
       <c r="E152" s="0">
-        <v>0.8155248903911223</v>
+        <v>0.78532355600110648</v>
       </c>
       <c r="F152" s="0">
-        <v>-2.5028166587891713e-06</v>
+        <v>-3.8163387954663209e-06</v>
       </c>
       <c r="G152" s="0">
-        <v>-0.010459080843903054</v>
+        <v>-0.011671275029506545</v>
       </c>
       <c r="H152" s="0">
-        <v>-0.10844339416484032</v>
+        <v>-0.15112745055550586</v>
       </c>
       <c r="I152" s="0">
-        <v>-0.13095263431487708</v>
+        <v>-0.15118721004395452</v>
       </c>
       <c r="J152" s="0">
-        <v>1.385453436327353</v>
+        <v>1.4148054507851848</v>
       </c>
       <c r="K152" s="0">
-        <v>3.4677910621254355e-06</v>
+        <v>3.5222852065166347e-06</v>
       </c>
       <c r="L152" s="0">
-        <v>-0.2114188971427049</v>
+        <v>-0.38801704057158604</v>
       </c>
       <c r="M152" s="0">
-        <v>-0.03063766328657893</v>
+        <v>-0.030873579010687352</v>
       </c>
       <c r="N152" s="0">
-        <v>-0.017660167455225081</v>
+        <v>-0.072490653254400628</v>
       </c>
       <c r="O152" s="0">
-        <v>0.56176679006647245</v>
+        <v>0.77489461156639305</v>
       </c>
       <c r="P152" s="0">
-        <v>2.5139810005158441e-05</v>
+        <v>2.9526581672444269e-05</v>
       </c>
     </row>
     <row r="153">
@@ -7735,49 +7735,49 @@
         <v>41913</v>
       </c>
       <c r="B153" s="0">
-        <v>0.011840438097103516</v>
+        <v>0.011843875854462503</v>
       </c>
       <c r="C153" s="0">
-        <v>0.85348834446994493</v>
+        <v>0.90546277793514585</v>
       </c>
       <c r="D153" s="0">
-        <v>0.83452585648967537</v>
+        <v>0.83692528650782849</v>
       </c>
       <c r="E153" s="0">
-        <v>0.93968110824346063</v>
+        <v>0.91527614068045793</v>
       </c>
       <c r="F153" s="0">
-        <v>-2.5566651181557786e-06</v>
+        <v>-3.4812266821394494e-06</v>
       </c>
       <c r="G153" s="0">
-        <v>-0.011590836619030705</v>
+        <v>-0.012336168046863548</v>
       </c>
       <c r="H153" s="0">
-        <v>-0.37767765888865928</v>
+        <v>-0.4431736728921053</v>
       </c>
       <c r="I153" s="0">
-        <v>-0.43483225846875667</v>
+        <v>-0.39289730266575396</v>
       </c>
       <c r="J153" s="0">
-        <v>1.3671185333040512</v>
+        <v>1.4065801703892298</v>
       </c>
       <c r="K153" s="0">
-        <v>2.978398953569268e-06</v>
+        <v>3.1254526650254797e-06</v>
       </c>
       <c r="L153" s="0">
-        <v>-0.34832500664846144</v>
+        <v>-0.53302477051743102</v>
       </c>
       <c r="M153" s="0">
-        <v>0.069915322880372138</v>
+        <v>0.10610583327442244</v>
       </c>
       <c r="N153" s="0">
-        <v>0.058760062813499936</v>
+        <v>0.063375373705609958</v>
       </c>
       <c r="O153" s="0">
-        <v>0.51708294582144299</v>
+        <v>0.69455894914924809</v>
       </c>
       <c r="P153" s="0">
-        <v>2.2925068638556761e-05</v>
+        <v>2.8540349806616176e-05</v>
       </c>
     </row>
   </sheetData>
